--- a/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
+++ b/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
@@ -13,9 +13,6 @@
     <sheet name="Link to symbol" sheetId="10" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FINAL!$I$6:$S$135</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'KHOA symbology_Phase 1'!$I$6:$N$55</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="689">
   <si>
     <t>Impact on Portrayal</t>
   </si>
@@ -9430,13 +9427,19 @@
       </rPr>
       <t>(subWG proposed recommendation)</t>
     </r>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>No changes to portrayal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9990,6 +9993,15 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="28">
@@ -11014,7 +11026,7 @@
     <xf numFmtId="0" fontId="65" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11631,6 +11643,148 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11652,10 +11806,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11665,80 +11815,20 @@
     <xf numFmtId="0" fontId="49" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11746,15 +11836,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11764,77 +11845,20 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -11847,7 +11871,7 @@
     <cellStyle name="Neutral 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -11919,630 +11943,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF00FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF00FF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12765,23 +12165,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13039,7 +12422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13050,10 +12433,10 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="N9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13082,18 +12465,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="236" t="s">
+      <c r="F1" s="252" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="236"/>
+      <c r="G1" s="252"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="243" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
       <c r="N1" s="201"/>
       <c r="O1" s="198"/>
       <c r="P1" s="198"/>
@@ -13102,22 +12485,22 @@
       <c r="S1" s="200"/>
       <c r="T1" s="200"/>
       <c r="U1" s="201"/>
-      <c r="V1" s="212" t="s">
+      <c r="V1" s="260" t="s">
         <v>668</v>
       </c>
-      <c r="W1" s="212"/>
+      <c r="W1" s="260"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="237" t="s">
+      <c r="F2" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="238"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
+      <c r="I2" s="243"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="243"/>
+      <c r="L2" s="243"/>
+      <c r="M2" s="243"/>
       <c r="N2" s="201"/>
       <c r="O2" s="198"/>
       <c r="P2" s="198"/>
@@ -13126,18 +12509,18 @@
       <c r="S2" s="200"/>
       <c r="T2" s="200"/>
       <c r="U2" s="201"/>
-      <c r="V2" s="212"/>
-      <c r="W2" s="212"/>
+      <c r="V2" s="260"/>
+      <c r="W2" s="260"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="239"/>
-      <c r="G3" s="240"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
       <c r="N3" s="201"/>
       <c r="O3" s="198"/>
       <c r="P3" s="198"/>
@@ -13146,20 +12529,20 @@
       <c r="S3" s="200"/>
       <c r="T3" s="200"/>
       <c r="U3" s="201"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="241"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
       <c r="N4" s="201"/>
       <c r="O4" s="198"/>
       <c r="P4" s="198"/>
@@ -13168,10 +12551,10 @@
       <c r="S4" s="200"/>
       <c r="T4" s="200"/>
       <c r="U4" s="201"/>
-      <c r="V4" s="213" t="s">
+      <c r="V4" s="261" t="s">
         <v>669</v>
       </c>
-      <c r="W4" s="213" t="s">
+      <c r="W4" s="261" t="s">
         <v>670</v>
       </c>
     </row>
@@ -13183,25 +12566,25 @@
         <v>17</v>
       </c>
       <c r="H5" s="94"/>
-      <c r="I5" s="228"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="228"/>
+      <c r="I5" s="244"/>
+      <c r="J5" s="244"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="244"/>
       <c r="N5" s="202"/>
       <c r="O5" s="199"/>
-      <c r="P5" s="258" t="s">
+      <c r="P5" s="238" t="s">
         <v>677</v>
       </c>
-      <c r="Q5" s="259"/>
+      <c r="Q5" s="239"/>
       <c r="R5" s="202"/>
-      <c r="S5" s="278" t="s">
+      <c r="S5" s="270" t="s">
         <v>686</v>
       </c>
-      <c r="T5" s="279"/>
+      <c r="T5" s="271"/>
       <c r="U5" s="202"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="214"/>
+      <c r="V5" s="262"/>
+      <c r="W5" s="262"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -13237,25 +12620,25 @@
         <v>629</v>
       </c>
       <c r="N6" s="203"/>
-      <c r="O6" s="257" t="s">
+      <c r="O6" s="212" t="s">
         <v>667</v>
       </c>
-      <c r="P6" s="260" t="s">
+      <c r="P6" s="213" t="s">
         <v>671</v>
       </c>
-      <c r="Q6" s="260" t="s">
+      <c r="Q6" s="213" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="203"/>
-      <c r="S6" s="280" t="s">
+      <c r="S6" s="230" t="s">
         <v>685</v>
       </c>
-      <c r="T6" s="280" t="s">
+      <c r="T6" s="230" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="203"/>
-      <c r="V6" s="215"/>
-      <c r="W6" s="215"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
     </row>
     <row r="7" spans="1:23" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -13290,13 +12673,13 @@
         <v>568</v>
       </c>
       <c r="N7" s="204"/>
-      <c r="O7" s="261" t="s">
+      <c r="O7" s="214" t="s">
         <v>630</v>
       </c>
       <c r="P7" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q7" s="268"/>
+      <c r="Q7" s="220"/>
       <c r="R7" s="204"/>
       <c r="S7" s="116"/>
       <c r="T7" s="116"/>
@@ -13343,13 +12726,13 @@
         <v>570</v>
       </c>
       <c r="N8" s="205"/>
-      <c r="O8" s="262" t="s">
+      <c r="O8" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P8" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q8" s="269"/>
+      <c r="Q8" s="221"/>
       <c r="R8" s="205"/>
       <c r="S8" s="158" t="s">
         <v>24</v>
@@ -13390,13 +12773,13 @@
         <v>568</v>
       </c>
       <c r="N9" s="205"/>
-      <c r="O9" s="262" t="s">
+      <c r="O9" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P9" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q9" s="269"/>
+      <c r="Q9" s="221"/>
       <c r="R9" s="205"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
@@ -13437,13 +12820,13 @@
         <v>569</v>
       </c>
       <c r="N10" s="205"/>
-      <c r="O10" s="262" t="s">
+      <c r="O10" s="215" t="s">
         <v>632</v>
       </c>
       <c r="P10" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q10" s="269"/>
+      <c r="Q10" s="221"/>
       <c r="R10" s="205"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
@@ -13452,7 +12835,7 @@
       <c r="W10" s="85"/>
     </row>
     <row r="11" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="284" t="s">
         <v>429</v>
       </c>
       <c r="B11" s="46"/>
@@ -13476,25 +12859,29 @@
       <c r="L11" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="M11" s="149" t="s">
+      <c r="M11" s="280" t="s">
         <v>570</v>
       </c>
       <c r="N11" s="205"/>
-      <c r="O11" s="263" t="s">
+      <c r="O11" s="281" t="s">
         <v>631</v>
       </c>
-      <c r="P11" s="158" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q11" s="270" t="s">
+      <c r="P11" s="282" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q11" s="283" t="s">
         <v>680</v>
       </c>
       <c r="R11" s="205"/>
-      <c r="S11" s="85"/>
-      <c r="T11" s="85"/>
+      <c r="S11" s="158" t="s">
+        <v>687</v>
+      </c>
+      <c r="T11" s="158" t="s">
+        <v>688</v>
+      </c>
       <c r="U11" s="205"/>
-      <c r="V11" s="85"/>
-      <c r="W11" s="85"/>
+      <c r="V11" s="103"/>
+      <c r="W11" s="103"/>
     </row>
     <row r="12" spans="1:23" ht="119.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
@@ -13529,13 +12916,13 @@
         <v>568</v>
       </c>
       <c r="N12" s="205"/>
-      <c r="O12" s="262" t="s">
+      <c r="O12" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P12" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q12" s="269"/>
+      <c r="Q12" s="221"/>
       <c r="R12" s="205"/>
       <c r="S12" s="85"/>
       <c r="T12" s="85"/>
@@ -13576,13 +12963,13 @@
         <v>570</v>
       </c>
       <c r="N13" s="205"/>
-      <c r="O13" s="262" t="s">
+      <c r="O13" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P13" s="158" t="s">
         <v>672</v>
       </c>
-      <c r="Q13" s="269" t="s">
+      <c r="Q13" s="221" t="s">
         <v>679</v>
       </c>
       <c r="R13" s="205"/>
@@ -13629,13 +13016,13 @@
         <v>568</v>
       </c>
       <c r="N14" s="205"/>
-      <c r="O14" s="262" t="s">
+      <c r="O14" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P14" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q14" s="269"/>
+      <c r="Q14" s="221"/>
       <c r="R14" s="205"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
@@ -13680,13 +13067,13 @@
         <v>579</v>
       </c>
       <c r="N15" s="205"/>
-      <c r="O15" s="262" t="s">
+      <c r="O15" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P15" s="158" t="s">
         <v>672</v>
       </c>
-      <c r="Q15" s="269" t="s">
+      <c r="Q15" s="221" t="s">
         <v>679</v>
       </c>
       <c r="R15" s="205"/>
@@ -13733,13 +13120,13 @@
         <v>568</v>
       </c>
       <c r="N16" s="205"/>
-      <c r="O16" s="262" t="s">
+      <c r="O16" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P16" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q16" s="269"/>
+      <c r="Q16" s="221"/>
       <c r="R16" s="205"/>
       <c r="S16" s="85"/>
       <c r="T16" s="85"/>
@@ -13780,13 +13167,13 @@
         <v>610</v>
       </c>
       <c r="N17" s="205"/>
-      <c r="O17" s="262" t="s">
+      <c r="O17" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P17" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q17" s="269"/>
+      <c r="Q17" s="221"/>
       <c r="R17" s="205"/>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
@@ -13831,13 +13218,13 @@
         <v>611</v>
       </c>
       <c r="N18" s="205"/>
-      <c r="O18" s="262" t="s">
+      <c r="O18" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P18" s="158" t="s">
         <v>672</v>
       </c>
-      <c r="Q18" s="269" t="s">
+      <c r="Q18" s="221" t="s">
         <v>679</v>
       </c>
       <c r="R18" s="205"/>
@@ -13880,13 +13267,13 @@
         <v>610</v>
       </c>
       <c r="N19" s="205"/>
-      <c r="O19" s="262" t="s">
+      <c r="O19" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P19" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q19" s="269"/>
+      <c r="Q19" s="221"/>
       <c r="R19" s="205"/>
       <c r="S19" s="85"/>
       <c r="T19" s="85"/>
@@ -13927,13 +13314,13 @@
         <v>610</v>
       </c>
       <c r="N20" s="205"/>
-      <c r="O20" s="262" t="s">
+      <c r="O20" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P20" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q20" s="269"/>
+      <c r="Q20" s="221"/>
       <c r="R20" s="205"/>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
@@ -13978,13 +13365,13 @@
         <v>570</v>
       </c>
       <c r="N21" s="205"/>
-      <c r="O21" s="262" t="s">
+      <c r="O21" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P21" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q21" s="269"/>
+      <c r="Q21" s="221"/>
       <c r="R21" s="205"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
@@ -14025,13 +13412,13 @@
         <v>610</v>
       </c>
       <c r="N22" s="205"/>
-      <c r="O22" s="262" t="s">
+      <c r="O22" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P22" s="158" t="s">
         <v>676</v>
       </c>
-      <c r="Q22" s="269"/>
+      <c r="Q22" s="221"/>
       <c r="R22" s="205"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
@@ -14072,13 +13459,13 @@
         <v>570</v>
       </c>
       <c r="N23" s="205"/>
-      <c r="O23" s="262" t="s">
+      <c r="O23" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P23" s="158" t="s">
         <v>672</v>
       </c>
-      <c r="Q23" s="269" t="s">
+      <c r="Q23" s="221" t="s">
         <v>679</v>
       </c>
       <c r="R23" s="205"/>
@@ -14121,13 +13508,13 @@
         <v>610</v>
       </c>
       <c r="N24" s="205"/>
-      <c r="O24" s="262" t="s">
+      <c r="O24" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P24" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q24" s="269"/>
+      <c r="Q24" s="221"/>
       <c r="R24" s="205"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
@@ -14168,13 +13555,13 @@
         <v>610</v>
       </c>
       <c r="N25" s="205"/>
-      <c r="O25" s="262" t="s">
+      <c r="O25" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P25" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q25" s="269"/>
+      <c r="Q25" s="221"/>
       <c r="R25" s="205"/>
       <c r="S25" s="85"/>
       <c r="T25" s="85"/>
@@ -14219,13 +13606,13 @@
         <v>574</v>
       </c>
       <c r="N26" s="205"/>
-      <c r="O26" s="262" t="s">
+      <c r="O26" s="215" t="s">
         <v>631</v>
       </c>
       <c r="P26" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q26" s="270" t="s">
+      <c r="Q26" s="222" t="s">
         <v>681</v>
       </c>
       <c r="R26" s="205"/>
@@ -14272,13 +13659,13 @@
         <v>578</v>
       </c>
       <c r="N27" s="205"/>
-      <c r="O27" s="262" t="s">
+      <c r="O27" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P27" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q27" s="269"/>
+      <c r="Q27" s="221"/>
       <c r="R27" s="205"/>
       <c r="S27" s="85"/>
       <c r="T27" s="85"/>
@@ -14315,13 +13702,13 @@
         <v>586</v>
       </c>
       <c r="N28" s="205"/>
-      <c r="O28" s="262" t="s">
+      <c r="O28" s="215" t="s">
         <v>662</v>
       </c>
       <c r="P28" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q28" s="269"/>
+      <c r="Q28" s="221"/>
       <c r="R28" s="205"/>
       <c r="S28" s="85"/>
       <c r="T28" s="85"/>
@@ -14358,13 +13745,13 @@
         <v>587</v>
       </c>
       <c r="N29" s="205"/>
-      <c r="O29" s="262" t="s">
+      <c r="O29" s="215" t="s">
         <v>662</v>
       </c>
       <c r="P29" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q29" s="269"/>
+      <c r="Q29" s="221"/>
       <c r="R29" s="205"/>
       <c r="S29" s="85"/>
       <c r="T29" s="85"/>
@@ -14405,7 +13792,7 @@
         <v>580</v>
       </c>
       <c r="P30" s="100"/>
-      <c r="Q30" s="271"/>
+      <c r="Q30" s="223"/>
       <c r="R30" s="205"/>
       <c r="S30" s="159"/>
       <c r="T30" s="85"/>
@@ -14442,13 +13829,13 @@
         <v>574</v>
       </c>
       <c r="N31" s="206"/>
-      <c r="O31" s="262" t="s">
+      <c r="O31" s="215" t="s">
         <v>631</v>
       </c>
       <c r="P31" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q31" s="270" t="s">
+      <c r="Q31" s="222" t="s">
         <v>682</v>
       </c>
       <c r="R31" s="206"/>
@@ -14491,13 +13878,13 @@
         <v>568</v>
       </c>
       <c r="N32" s="205"/>
-      <c r="O32" s="262" t="s">
+      <c r="O32" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P32" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q32" s="269"/>
+      <c r="Q32" s="221"/>
       <c r="R32" s="205"/>
       <c r="S32" s="85"/>
       <c r="T32" s="85"/>
@@ -14538,13 +13925,13 @@
         <v>568</v>
       </c>
       <c r="N33" s="205"/>
-      <c r="O33" s="262" t="s">
+      <c r="O33" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P33" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q33" s="269"/>
+      <c r="Q33" s="221"/>
       <c r="R33" s="205"/>
       <c r="S33" s="85"/>
       <c r="T33" s="85"/>
@@ -14585,13 +13972,13 @@
         <v>582</v>
       </c>
       <c r="N34" s="206"/>
-      <c r="O34" s="264" t="s">
+      <c r="O34" s="216" t="s">
         <v>582</v>
       </c>
       <c r="P34" s="158" t="s">
         <v>675</v>
       </c>
-      <c r="Q34" s="276" t="s">
+      <c r="Q34" s="228" t="s">
         <v>683</v>
       </c>
       <c r="R34" s="206"/>
@@ -14634,11 +14021,11 @@
         <v>610</v>
       </c>
       <c r="N35" s="205"/>
-      <c r="O35" s="262" t="s">
+      <c r="O35" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P35" s="158"/>
-      <c r="Q35" s="269"/>
+      <c r="Q35" s="221"/>
       <c r="R35" s="205"/>
       <c r="S35" s="85"/>
       <c r="T35" s="85"/>
@@ -14679,11 +14066,11 @@
         <v>583</v>
       </c>
       <c r="N36" s="207"/>
-      <c r="O36" s="265" t="s">
+      <c r="O36" s="217" t="s">
         <v>583</v>
       </c>
       <c r="P36" s="147"/>
-      <c r="Q36" s="273"/>
+      <c r="Q36" s="225"/>
       <c r="R36" s="207"/>
       <c r="S36" s="85"/>
       <c r="T36" s="85"/>
@@ -14724,13 +14111,13 @@
         <v>611</v>
       </c>
       <c r="N37" s="205"/>
-      <c r="O37" s="262" t="s">
+      <c r="O37" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P37" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q37" s="269"/>
+      <c r="Q37" s="221"/>
       <c r="R37" s="205"/>
       <c r="S37" s="85"/>
       <c r="T37" s="85"/>
@@ -14775,13 +14162,13 @@
         <v>606</v>
       </c>
       <c r="N38" s="205"/>
-      <c r="O38" s="262" t="s">
+      <c r="O38" s="215" t="s">
         <v>665</v>
       </c>
       <c r="P38" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q38" s="277" t="s">
+      <c r="Q38" s="229" t="s">
         <v>684</v>
       </c>
       <c r="R38" s="205"/>
@@ -14824,13 +14211,13 @@
         <v>461</v>
       </c>
       <c r="N39" s="205"/>
-      <c r="O39" s="262" t="s">
+      <c r="O39" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P39" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q39" s="269"/>
+      <c r="Q39" s="221"/>
       <c r="R39" s="205"/>
       <c r="S39" s="85"/>
       <c r="T39" s="85"/>
@@ -14857,9 +14244,9 @@
       </c>
       <c r="M40" s="102"/>
       <c r="N40" s="205"/>
-      <c r="O40" s="266"/>
+      <c r="O40" s="218"/>
       <c r="P40" s="102"/>
-      <c r="Q40" s="274"/>
+      <c r="Q40" s="226"/>
       <c r="R40" s="205"/>
       <c r="S40" s="103"/>
       <c r="T40" s="85"/>
@@ -14904,7 +14291,7 @@
         <v>580</v>
       </c>
       <c r="P41" s="100"/>
-      <c r="Q41" s="271"/>
+      <c r="Q41" s="223"/>
       <c r="R41" s="205"/>
       <c r="S41" s="159"/>
       <c r="T41" s="85"/>
@@ -14947,13 +14334,13 @@
         <v>570</v>
       </c>
       <c r="N42" s="205"/>
-      <c r="O42" s="262" t="s">
+      <c r="O42" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P42" s="158" t="s">
         <v>673</v>
       </c>
-      <c r="Q42" s="269"/>
+      <c r="Q42" s="221"/>
       <c r="R42" s="205"/>
       <c r="S42" s="85"/>
       <c r="T42" s="85"/>
@@ -15002,7 +14389,7 @@
         <v>580</v>
       </c>
       <c r="P43" s="100"/>
-      <c r="Q43" s="271"/>
+      <c r="Q43" s="223"/>
       <c r="R43" s="205"/>
       <c r="S43" s="159"/>
       <c r="T43" s="85"/>
@@ -15043,13 +14430,13 @@
         <v>610</v>
       </c>
       <c r="N44" s="205"/>
-      <c r="O44" s="262" t="s">
+      <c r="O44" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P44" s="158" t="s">
         <v>678</v>
       </c>
-      <c r="Q44" s="269"/>
+      <c r="Q44" s="221"/>
       <c r="R44" s="205"/>
       <c r="S44" s="85"/>
       <c r="T44" s="85"/>
@@ -15090,11 +14477,11 @@
         <v>594</v>
       </c>
       <c r="N45" s="205"/>
-      <c r="O45" s="262" t="s">
+      <c r="O45" s="215" t="s">
         <v>634</v>
       </c>
       <c r="P45" s="158"/>
-      <c r="Q45" s="269"/>
+      <c r="Q45" s="221"/>
       <c r="R45" s="205"/>
       <c r="S45" s="85"/>
       <c r="T45" s="85"/>
@@ -15139,7 +14526,7 @@
         <v>580</v>
       </c>
       <c r="P46" s="100"/>
-      <c r="Q46" s="271"/>
+      <c r="Q46" s="223"/>
       <c r="R46" s="205"/>
       <c r="S46" s="159"/>
       <c r="T46" s="85"/>
@@ -15180,11 +14567,11 @@
         <v>585</v>
       </c>
       <c r="N47" s="205"/>
-      <c r="O47" s="262" t="s">
+      <c r="O47" s="215" t="s">
         <v>663</v>
       </c>
       <c r="P47" s="158"/>
-      <c r="Q47" s="269"/>
+      <c r="Q47" s="221"/>
       <c r="R47" s="205"/>
       <c r="S47" s="85"/>
       <c r="T47" s="85"/>
@@ -15269,11 +14656,11 @@
         <v>601</v>
       </c>
       <c r="N49" s="205"/>
-      <c r="O49" s="262" t="s">
+      <c r="O49" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P49" s="158"/>
-      <c r="Q49" s="269"/>
+      <c r="Q49" s="221"/>
       <c r="R49" s="205"/>
       <c r="S49" s="85"/>
       <c r="T49" s="85"/>
@@ -15314,11 +14701,11 @@
         <v>610</v>
       </c>
       <c r="N50" s="205"/>
-      <c r="O50" s="262" t="s">
+      <c r="O50" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P50" s="158"/>
-      <c r="Q50" s="269"/>
+      <c r="Q50" s="221"/>
       <c r="R50" s="205"/>
       <c r="S50" s="85"/>
       <c r="T50" s="85"/>
@@ -15363,11 +14750,11 @@
         <v>612</v>
       </c>
       <c r="N51" s="205"/>
-      <c r="O51" s="262" t="s">
+      <c r="O51" s="215" t="s">
         <v>631</v>
       </c>
       <c r="P51" s="158"/>
-      <c r="Q51" s="269"/>
+      <c r="Q51" s="221"/>
       <c r="R51" s="205"/>
       <c r="S51" s="85"/>
       <c r="T51" s="85"/>
@@ -15408,11 +14795,11 @@
         <v>613</v>
       </c>
       <c r="N52" s="205"/>
-      <c r="O52" s="262" t="s">
+      <c r="O52" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P52" s="158"/>
-      <c r="Q52" s="269"/>
+      <c r="Q52" s="221"/>
       <c r="R52" s="205"/>
       <c r="S52" s="85"/>
       <c r="T52" s="85"/>
@@ -15459,11 +14846,11 @@
         <v>588</v>
       </c>
       <c r="N53" s="205"/>
-      <c r="O53" s="262" t="s">
+      <c r="O53" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P53" s="158"/>
-      <c r="Q53" s="269"/>
+      <c r="Q53" s="221"/>
       <c r="R53" s="205"/>
       <c r="S53" s="85"/>
       <c r="T53" s="85"/>
@@ -15504,11 +14891,11 @@
         <v>605</v>
       </c>
       <c r="N54" s="205"/>
-      <c r="O54" s="262" t="s">
+      <c r="O54" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P54" s="158"/>
-      <c r="Q54" s="269"/>
+      <c r="Q54" s="221"/>
       <c r="R54" s="205"/>
       <c r="S54" s="85"/>
       <c r="T54" s="85"/>
@@ -15549,11 +14936,11 @@
         <v>581</v>
       </c>
       <c r="N55" s="206"/>
-      <c r="O55" s="264" t="s">
+      <c r="O55" s="216" t="s">
         <v>581</v>
       </c>
       <c r="P55" s="147"/>
-      <c r="Q55" s="272"/>
+      <c r="Q55" s="224"/>
       <c r="R55" s="206"/>
       <c r="S55" s="85"/>
       <c r="T55" s="85"/>
@@ -15594,11 +14981,11 @@
         <v>610</v>
       </c>
       <c r="N56" s="205"/>
-      <c r="O56" s="262" t="s">
+      <c r="O56" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P56" s="158"/>
-      <c r="Q56" s="269"/>
+      <c r="Q56" s="221"/>
       <c r="R56" s="205"/>
       <c r="S56" s="85"/>
       <c r="T56" s="85"/>
@@ -15639,11 +15026,11 @@
         <v>610</v>
       </c>
       <c r="N57" s="205"/>
-      <c r="O57" s="262" t="s">
+      <c r="O57" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P57" s="158"/>
-      <c r="Q57" s="269"/>
+      <c r="Q57" s="221"/>
       <c r="R57" s="205"/>
       <c r="S57" s="85"/>
       <c r="T57" s="85"/>
@@ -15688,11 +15075,11 @@
         <v>589</v>
       </c>
       <c r="N58" s="205"/>
-      <c r="O58" s="262" t="s">
+      <c r="O58" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P58" s="158"/>
-      <c r="Q58" s="269"/>
+      <c r="Q58" s="221"/>
       <c r="R58" s="205"/>
       <c r="S58" s="85"/>
       <c r="T58" s="85"/>
@@ -15733,11 +15120,11 @@
         <v>581</v>
       </c>
       <c r="N59" s="206"/>
-      <c r="O59" s="264" t="s">
+      <c r="O59" s="216" t="s">
         <v>581</v>
       </c>
       <c r="P59" s="147"/>
-      <c r="Q59" s="272"/>
+      <c r="Q59" s="224"/>
       <c r="R59" s="206"/>
       <c r="S59" s="85"/>
       <c r="T59" s="85"/>
@@ -15778,11 +15165,11 @@
         <v>591</v>
       </c>
       <c r="N60" s="205"/>
-      <c r="O60" s="262" t="s">
+      <c r="O60" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P60" s="158"/>
-      <c r="Q60" s="269"/>
+      <c r="Q60" s="221"/>
       <c r="R60" s="205"/>
       <c r="S60" s="85"/>
       <c r="T60" s="85"/>
@@ -15827,11 +15214,11 @@
         <v>568</v>
       </c>
       <c r="N61" s="205"/>
-      <c r="O61" s="262" t="s">
+      <c r="O61" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P61" s="158"/>
-      <c r="Q61" s="269"/>
+      <c r="Q61" s="221"/>
       <c r="R61" s="205"/>
       <c r="S61" s="85"/>
       <c r="T61" s="85"/>
@@ -15876,11 +15263,11 @@
         <v>568</v>
       </c>
       <c r="N62" s="205"/>
-      <c r="O62" s="262" t="s">
+      <c r="O62" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P62" s="158"/>
-      <c r="Q62" s="269"/>
+      <c r="Q62" s="221"/>
       <c r="R62" s="205"/>
       <c r="S62" s="85"/>
       <c r="T62" s="85"/>
@@ -15925,11 +15312,11 @@
         <v>612</v>
       </c>
       <c r="N63" s="205"/>
-      <c r="O63" s="262" t="s">
+      <c r="O63" s="215" t="s">
         <v>631</v>
       </c>
       <c r="P63" s="158"/>
-      <c r="Q63" s="269"/>
+      <c r="Q63" s="221"/>
       <c r="R63" s="205"/>
       <c r="S63" s="85"/>
       <c r="T63" s="85"/>
@@ -15970,11 +15357,11 @@
         <v>605</v>
       </c>
       <c r="N64" s="205"/>
-      <c r="O64" s="262" t="s">
+      <c r="O64" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P64" s="158"/>
-      <c r="Q64" s="269"/>
+      <c r="Q64" s="221"/>
       <c r="R64" s="205"/>
       <c r="S64" s="85"/>
       <c r="T64" s="85"/>
@@ -15994,10 +15381,10 @@
       <c r="E65" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="229" t="s">
+      <c r="F65" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="230"/>
+      <c r="G65" s="246"/>
       <c r="H65" s="93"/>
       <c r="I65" s="111"/>
       <c r="J65" s="101" t="s">
@@ -16013,11 +15400,11 @@
         <v>619</v>
       </c>
       <c r="N65" s="205"/>
-      <c r="O65" s="262" t="s">
+      <c r="O65" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P65" s="158"/>
-      <c r="Q65" s="269"/>
+      <c r="Q65" s="221"/>
       <c r="R65" s="205"/>
       <c r="S65" s="85"/>
       <c r="T65" s="85"/>
@@ -16058,11 +15445,11 @@
         <v>581</v>
       </c>
       <c r="N66" s="206"/>
-      <c r="O66" s="264" t="s">
+      <c r="O66" s="216" t="s">
         <v>581</v>
       </c>
-      <c r="P66" s="272"/>
-      <c r="Q66" s="272"/>
+      <c r="P66" s="224"/>
+      <c r="Q66" s="224"/>
       <c r="R66" s="206"/>
       <c r="S66" s="85"/>
       <c r="T66" s="85"/>
@@ -16082,10 +15469,10 @@
       <c r="E67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F67" s="231" t="s">
+      <c r="F67" s="247" t="s">
         <v>235</v>
       </c>
-      <c r="G67" s="232"/>
+      <c r="G67" s="248"/>
       <c r="H67" s="93"/>
       <c r="I67" s="121"/>
       <c r="J67" s="101" t="s">
@@ -16105,7 +15492,7 @@
         <v>580</v>
       </c>
       <c r="P67" s="100"/>
-      <c r="Q67" s="271"/>
+      <c r="Q67" s="223"/>
       <c r="R67" s="205"/>
       <c r="S67" s="159"/>
       <c r="T67" s="85"/>
@@ -16146,11 +15533,11 @@
         <v>620</v>
       </c>
       <c r="N68" s="205"/>
-      <c r="O68" s="262" t="s">
+      <c r="O68" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P68" s="158"/>
-      <c r="Q68" s="269"/>
+      <c r="Q68" s="221"/>
       <c r="R68" s="205"/>
       <c r="S68" s="85"/>
       <c r="T68" s="85"/>
@@ -16195,7 +15582,7 @@
         <v>580</v>
       </c>
       <c r="P69" s="100"/>
-      <c r="Q69" s="271"/>
+      <c r="Q69" s="223"/>
       <c r="R69" s="205"/>
       <c r="S69" s="159"/>
       <c r="T69" s="85"/>
@@ -16240,7 +15627,7 @@
         <v>580</v>
       </c>
       <c r="P70" s="100"/>
-      <c r="Q70" s="271"/>
+      <c r="Q70" s="223"/>
       <c r="R70" s="205"/>
       <c r="S70" s="159"/>
       <c r="T70" s="85"/>
@@ -16285,7 +15672,7 @@
         <v>580</v>
       </c>
       <c r="P71" s="100"/>
-      <c r="Q71" s="271"/>
+      <c r="Q71" s="223"/>
       <c r="R71" s="205"/>
       <c r="S71" s="159"/>
       <c r="T71" s="85"/>
@@ -16305,10 +15692,10 @@
       <c r="E72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="229" t="s">
+      <c r="F72" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="230"/>
+      <c r="G72" s="246"/>
       <c r="H72" s="93"/>
       <c r="I72" s="111"/>
       <c r="J72" s="101" t="s">
@@ -16324,11 +15711,11 @@
         <v>617</v>
       </c>
       <c r="N72" s="205"/>
-      <c r="O72" s="262" t="s">
+      <c r="O72" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P72" s="158"/>
-      <c r="Q72" s="269"/>
+      <c r="Q72" s="221"/>
       <c r="R72" s="205"/>
       <c r="S72" s="85"/>
       <c r="T72" s="85"/>
@@ -16369,11 +15756,11 @@
         <v>592</v>
       </c>
       <c r="N73" s="205"/>
-      <c r="O73" s="262" t="s">
+      <c r="O73" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P73" s="158"/>
-      <c r="Q73" s="269"/>
+      <c r="Q73" s="221"/>
       <c r="R73" s="205"/>
       <c r="S73" s="85"/>
       <c r="T73" s="85"/>
@@ -16418,11 +15805,11 @@
         <v>621</v>
       </c>
       <c r="N74" s="205"/>
-      <c r="O74" s="262" t="s">
+      <c r="O74" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P74" s="158"/>
-      <c r="Q74" s="269"/>
+      <c r="Q74" s="221"/>
       <c r="R74" s="205"/>
       <c r="S74" s="85"/>
       <c r="T74" s="85"/>
@@ -16467,7 +15854,7 @@
         <v>580</v>
       </c>
       <c r="P75" s="100"/>
-      <c r="Q75" s="271"/>
+      <c r="Q75" s="223"/>
       <c r="R75" s="205"/>
       <c r="S75" s="159"/>
       <c r="T75" s="85"/>
@@ -16516,7 +15903,7 @@
         <v>580</v>
       </c>
       <c r="P76" s="100"/>
-      <c r="Q76" s="271"/>
+      <c r="Q76" s="223"/>
       <c r="R76" s="205"/>
       <c r="S76" s="159"/>
       <c r="T76" s="85"/>
@@ -16536,10 +15923,10 @@
       <c r="E77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F77" s="229" t="s">
+      <c r="F77" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G77" s="230"/>
+      <c r="G77" s="246"/>
       <c r="H77" s="93"/>
       <c r="I77" s="111"/>
       <c r="J77" s="101" t="s">
@@ -16555,11 +15942,11 @@
         <v>618</v>
       </c>
       <c r="N77" s="205"/>
-      <c r="O77" s="262" t="s">
+      <c r="O77" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P77" s="158"/>
-      <c r="Q77" s="269"/>
+      <c r="Q77" s="221"/>
       <c r="R77" s="205"/>
       <c r="S77" s="85"/>
       <c r="T77" s="85"/>
@@ -16600,11 +15987,11 @@
         <v>605</v>
       </c>
       <c r="N78" s="205"/>
-      <c r="O78" s="262" t="s">
+      <c r="O78" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P78" s="158"/>
-      <c r="Q78" s="269"/>
+      <c r="Q78" s="221"/>
       <c r="R78" s="205"/>
       <c r="S78" s="85"/>
       <c r="T78" s="85"/>
@@ -16645,11 +16032,11 @@
         <v>605</v>
       </c>
       <c r="N79" s="205"/>
-      <c r="O79" s="262" t="s">
+      <c r="O79" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P79" s="158"/>
-      <c r="Q79" s="269"/>
+      <c r="Q79" s="221"/>
       <c r="R79" s="205"/>
       <c r="S79" s="85"/>
       <c r="T79" s="85"/>
@@ -16669,10 +16056,10 @@
       <c r="E80" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F80" s="229" t="s">
+      <c r="F80" s="245" t="s">
         <v>278</v>
       </c>
-      <c r="G80" s="230"/>
+      <c r="G80" s="246"/>
       <c r="H80" s="93"/>
       <c r="I80" s="111"/>
       <c r="J80" s="99" t="s">
@@ -16692,7 +16079,7 @@
         <v>580</v>
       </c>
       <c r="P80" s="158"/>
-      <c r="Q80" s="271"/>
+      <c r="Q80" s="223"/>
       <c r="R80" s="205"/>
       <c r="S80" s="159"/>
       <c r="T80" s="85"/>
@@ -16733,11 +16120,11 @@
         <v>621</v>
       </c>
       <c r="N81" s="205"/>
-      <c r="O81" s="262" t="s">
+      <c r="O81" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P81" s="158"/>
-      <c r="Q81" s="269"/>
+      <c r="Q81" s="221"/>
       <c r="R81" s="205"/>
       <c r="S81" s="85"/>
       <c r="T81" s="85"/>
@@ -16782,11 +16169,11 @@
         <v>604</v>
       </c>
       <c r="N82" s="205"/>
-      <c r="O82" s="262" t="s">
+      <c r="O82" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P82" s="158"/>
-      <c r="Q82" s="269"/>
+      <c r="Q82" s="221"/>
       <c r="R82" s="205"/>
       <c r="S82" s="85"/>
       <c r="T82" s="85"/>
@@ -16831,7 +16218,7 @@
         <v>580</v>
       </c>
       <c r="P83" s="100"/>
-      <c r="Q83" s="271"/>
+      <c r="Q83" s="223"/>
       <c r="R83" s="205"/>
       <c r="S83" s="159"/>
       <c r="T83" s="85"/>
@@ -16872,11 +16259,11 @@
         <v>621</v>
       </c>
       <c r="N84" s="205"/>
-      <c r="O84" s="262" t="s">
+      <c r="O84" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P84" s="158"/>
-      <c r="Q84" s="269"/>
+      <c r="Q84" s="221"/>
       <c r="R84" s="205"/>
       <c r="S84" s="85"/>
       <c r="T84" s="85"/>
@@ -16919,7 +16306,7 @@
         <v>580</v>
       </c>
       <c r="P85" s="100"/>
-      <c r="Q85" s="271"/>
+      <c r="Q85" s="223"/>
       <c r="R85" s="205"/>
       <c r="S85" s="159"/>
       <c r="T85" s="85"/>
@@ -16960,11 +16347,11 @@
         <v>605</v>
       </c>
       <c r="N86" s="205"/>
-      <c r="O86" s="262" t="s">
+      <c r="O86" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P86" s="158"/>
-      <c r="Q86" s="269"/>
+      <c r="Q86" s="221"/>
       <c r="R86" s="205"/>
       <c r="S86" s="85"/>
       <c r="T86" s="85"/>
@@ -17005,11 +16392,11 @@
         <v>605</v>
       </c>
       <c r="N87" s="205"/>
-      <c r="O87" s="262" t="s">
+      <c r="O87" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P87" s="158"/>
-      <c r="Q87" s="269"/>
+      <c r="Q87" s="221"/>
       <c r="R87" s="205"/>
       <c r="S87" s="85"/>
       <c r="T87" s="85"/>
@@ -17050,11 +16437,11 @@
         <v>605</v>
       </c>
       <c r="N88" s="205"/>
-      <c r="O88" s="262" t="s">
+      <c r="O88" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P88" s="158"/>
-      <c r="Q88" s="269"/>
+      <c r="Q88" s="221"/>
       <c r="R88" s="205"/>
       <c r="S88" s="85"/>
       <c r="T88" s="85"/>
@@ -17095,11 +16482,11 @@
         <v>593</v>
       </c>
       <c r="N89" s="205"/>
-      <c r="O89" s="262" t="s">
+      <c r="O89" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P89" s="158"/>
-      <c r="Q89" s="269"/>
+      <c r="Q89" s="221"/>
       <c r="R89" s="205"/>
       <c r="S89" s="85"/>
       <c r="T89" s="85"/>
@@ -17123,13 +16510,13 @@
       <c r="E90" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="229" t="s">
+      <c r="F90" s="245" t="s">
         <v>310</v>
       </c>
-      <c r="G90" s="230"/>
+      <c r="G90" s="246"/>
       <c r="H90" s="97"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="235" t="s">
+      <c r="J90" s="251" t="s">
         <v>311</v>
       </c>
       <c r="K90" s="137" t="s">
@@ -17138,7 +16525,7 @@
       <c r="L90" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="242" t="s">
+      <c r="M90" s="258" t="s">
         <v>580</v>
       </c>
       <c r="N90" s="205"/>
@@ -17146,7 +16533,7 @@
         <v>580</v>
       </c>
       <c r="P90" s="100"/>
-      <c r="Q90" s="271"/>
+      <c r="Q90" s="223"/>
       <c r="R90" s="205"/>
       <c r="S90" s="159"/>
       <c r="T90" s="85"/>
@@ -17178,20 +16565,20 @@
       </c>
       <c r="H91" s="97"/>
       <c r="I91" s="111"/>
-      <c r="J91" s="235"/>
+      <c r="J91" s="251"/>
       <c r="K91" s="137" t="s">
         <v>498</v>
       </c>
       <c r="L91" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M91" s="243"/>
+      <c r="M91" s="259"/>
       <c r="N91" s="205"/>
       <c r="O91" s="111" t="s">
         <v>580</v>
       </c>
       <c r="P91" s="100"/>
-      <c r="Q91" s="271"/>
+      <c r="Q91" s="223"/>
       <c r="R91" s="205"/>
       <c r="S91" s="159"/>
       <c r="T91" s="85"/>
@@ -17232,11 +16619,11 @@
         <v>594</v>
       </c>
       <c r="N92" s="205"/>
-      <c r="O92" s="262" t="s">
+      <c r="O92" s="215" t="s">
         <v>635</v>
       </c>
       <c r="P92" s="158"/>
-      <c r="Q92" s="269"/>
+      <c r="Q92" s="221"/>
       <c r="R92" s="205"/>
       <c r="S92" s="85"/>
       <c r="T92" s="85"/>
@@ -17277,11 +16664,11 @@
         <v>623</v>
       </c>
       <c r="N93" s="205"/>
-      <c r="O93" s="262" t="s">
+      <c r="O93" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P93" s="158"/>
-      <c r="Q93" s="269"/>
+      <c r="Q93" s="221"/>
       <c r="R93" s="205"/>
       <c r="S93" s="85"/>
       <c r="T93" s="85"/>
@@ -17322,11 +16709,11 @@
         <v>624</v>
       </c>
       <c r="N94" s="205"/>
-      <c r="O94" s="262" t="s">
+      <c r="O94" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P94" s="158"/>
-      <c r="Q94" s="269"/>
+      <c r="Q94" s="221"/>
       <c r="R94" s="205"/>
       <c r="S94" s="85"/>
       <c r="T94" s="85"/>
@@ -17371,11 +16758,11 @@
         <v>596</v>
       </c>
       <c r="N95" s="205"/>
-      <c r="O95" s="262" t="s">
+      <c r="O95" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P95" s="158"/>
-      <c r="Q95" s="269"/>
+      <c r="Q95" s="221"/>
       <c r="R95" s="205"/>
       <c r="S95" s="85"/>
       <c r="T95" s="85"/>
@@ -17420,11 +16807,11 @@
         <v>597</v>
       </c>
       <c r="N96" s="205"/>
-      <c r="O96" s="262" t="s">
+      <c r="O96" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P96" s="158"/>
-      <c r="Q96" s="269"/>
+      <c r="Q96" s="221"/>
       <c r="R96" s="205"/>
       <c r="S96" s="85"/>
       <c r="T96" s="85"/>
@@ -17465,11 +16852,11 @@
         <v>605</v>
       </c>
       <c r="N97" s="205"/>
-      <c r="O97" s="262" t="s">
+      <c r="O97" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P97" s="158"/>
-      <c r="Q97" s="269"/>
+      <c r="Q97" s="221"/>
       <c r="R97" s="205"/>
       <c r="S97" s="85"/>
       <c r="T97" s="85"/>
@@ -17514,7 +16901,7 @@
         <v>580</v>
       </c>
       <c r="P98" s="100"/>
-      <c r="Q98" s="271"/>
+      <c r="Q98" s="223"/>
       <c r="R98" s="205"/>
       <c r="S98" s="159"/>
       <c r="T98" s="85"/>
@@ -17559,7 +16946,7 @@
         <v>580</v>
       </c>
       <c r="P99" s="100"/>
-      <c r="Q99" s="271"/>
+      <c r="Q99" s="223"/>
       <c r="R99" s="205"/>
       <c r="S99" s="159"/>
       <c r="T99" s="85"/>
@@ -17600,11 +16987,11 @@
         <v>625</v>
       </c>
       <c r="N100" s="205"/>
-      <c r="O100" s="262" t="s">
+      <c r="O100" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P100" s="158"/>
-      <c r="Q100" s="269"/>
+      <c r="Q100" s="221"/>
       <c r="R100" s="205"/>
       <c r="S100" s="85"/>
       <c r="T100" s="85"/>
@@ -17649,11 +17036,11 @@
         <v>598</v>
       </c>
       <c r="N101" s="205"/>
-      <c r="O101" s="262" t="s">
+      <c r="O101" s="215" t="s">
         <v>632</v>
       </c>
       <c r="P101" s="158"/>
-      <c r="Q101" s="269"/>
+      <c r="Q101" s="221"/>
       <c r="R101" s="205"/>
       <c r="S101" s="85"/>
       <c r="T101" s="85"/>
@@ -17694,11 +17081,11 @@
         <v>625</v>
       </c>
       <c r="N102" s="205"/>
-      <c r="O102" s="262" t="s">
+      <c r="O102" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P102" s="158"/>
-      <c r="Q102" s="269"/>
+      <c r="Q102" s="221"/>
       <c r="R102" s="205"/>
       <c r="S102" s="85"/>
       <c r="T102" s="85"/>
@@ -17722,10 +17109,10 @@
       <c r="E103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="244" t="s">
+      <c r="F103" s="231" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="245"/>
+      <c r="G103" s="232"/>
       <c r="H103" s="93"/>
       <c r="I103" s="111"/>
       <c r="J103" s="101" t="s">
@@ -17734,7 +17121,7 @@
       <c r="K103" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L103" s="219" t="s">
+      <c r="L103" s="233" t="s">
         <v>599</v>
       </c>
       <c r="M103" s="100" t="s">
@@ -17745,7 +17132,7 @@
         <v>580</v>
       </c>
       <c r="P103" s="100"/>
-      <c r="Q103" s="271"/>
+      <c r="Q103" s="223"/>
       <c r="R103" s="205"/>
       <c r="S103" s="159"/>
       <c r="T103" s="85"/>
@@ -17783,7 +17170,7 @@
       <c r="K104" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L104" s="220"/>
+      <c r="L104" s="234"/>
       <c r="M104" s="100" t="s">
         <v>580</v>
       </c>
@@ -17792,7 +17179,7 @@
         <v>580</v>
       </c>
       <c r="P104" s="100"/>
-      <c r="Q104" s="271"/>
+      <c r="Q104" s="223"/>
       <c r="R104" s="205"/>
       <c r="S104" s="159"/>
       <c r="T104" s="85"/>
@@ -17812,10 +17199,10 @@
       <c r="E105" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="244" t="s">
+      <c r="F105" s="231" t="s">
         <v>235</v>
       </c>
-      <c r="G105" s="245"/>
+      <c r="G105" s="232"/>
       <c r="H105" s="93"/>
       <c r="I105" s="111"/>
       <c r="J105" s="101" t="s">
@@ -17835,7 +17222,7 @@
         <v>580</v>
       </c>
       <c r="P105" s="100"/>
-      <c r="Q105" s="271"/>
+      <c r="Q105" s="223"/>
       <c r="R105" s="205"/>
       <c r="S105" s="159"/>
       <c r="T105" s="85"/>
@@ -17884,7 +17271,7 @@
         <v>580</v>
       </c>
       <c r="P106" s="100"/>
-      <c r="Q106" s="271"/>
+      <c r="Q106" s="223"/>
       <c r="R106" s="205"/>
       <c r="S106" s="159"/>
       <c r="T106" s="85"/>
@@ -17925,11 +17312,11 @@
         <v>600</v>
       </c>
       <c r="N107" s="205"/>
-      <c r="O107" s="262" t="s">
+      <c r="O107" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P107" s="158"/>
-      <c r="Q107" s="269"/>
+      <c r="Q107" s="221"/>
       <c r="R107" s="205"/>
       <c r="S107" s="85"/>
       <c r="T107" s="85"/>
@@ -17963,18 +17350,18 @@
       <c r="K108" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L108" s="219" t="s">
+      <c r="L108" s="233" t="s">
         <v>563</v>
       </c>
       <c r="M108" s="151" t="s">
         <v>605</v>
       </c>
       <c r="N108" s="205"/>
-      <c r="O108" s="262" t="s">
+      <c r="O108" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P108" s="158"/>
-      <c r="Q108" s="269"/>
+      <c r="Q108" s="221"/>
       <c r="R108" s="205"/>
       <c r="S108" s="85"/>
       <c r="T108" s="85"/>
@@ -18008,16 +17395,16 @@
       <c r="K109" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L109" s="220"/>
+      <c r="L109" s="234"/>
       <c r="M109" s="151" t="s">
         <v>605</v>
       </c>
       <c r="N109" s="205"/>
-      <c r="O109" s="262" t="s">
+      <c r="O109" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P109" s="158"/>
-      <c r="Q109" s="269"/>
+      <c r="Q109" s="221"/>
       <c r="R109" s="205"/>
       <c r="S109" s="85"/>
       <c r="T109" s="85"/>
@@ -18058,11 +17445,11 @@
         <v>570</v>
       </c>
       <c r="N110" s="209"/>
-      <c r="O110" s="267" t="s">
+      <c r="O110" s="219" t="s">
         <v>636</v>
       </c>
       <c r="P110" s="158"/>
-      <c r="Q110" s="275"/>
+      <c r="Q110" s="227"/>
       <c r="R110" s="209"/>
       <c r="S110" s="85"/>
       <c r="T110" s="85"/>
@@ -18103,11 +17490,11 @@
         <v>605</v>
       </c>
       <c r="N111" s="205"/>
-      <c r="O111" s="262" t="s">
+      <c r="O111" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P111" s="158"/>
-      <c r="Q111" s="269"/>
+      <c r="Q111" s="221"/>
       <c r="R111" s="205"/>
       <c r="S111" s="85"/>
       <c r="T111" s="85"/>
@@ -18135,24 +17522,24 @@
       </c>
       <c r="H112" s="93"/>
       <c r="I112" s="111"/>
-      <c r="J112" s="235" t="s">
+      <c r="J112" s="251" t="s">
         <v>517</v>
       </c>
-      <c r="K112" s="246" t="s">
+      <c r="K112" s="235" t="s">
         <v>518</v>
       </c>
       <c r="L112" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M112" s="221" t="s">
+      <c r="M112" s="267" t="s">
         <v>607</v>
       </c>
       <c r="N112" s="205"/>
-      <c r="O112" s="262" t="s">
+      <c r="O112" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P112" s="158"/>
-      <c r="Q112" s="269"/>
+      <c r="Q112" s="221"/>
       <c r="R112" s="205"/>
       <c r="S112" s="85"/>
       <c r="T112" s="85"/>
@@ -18180,18 +17567,18 @@
       </c>
       <c r="H113" s="93"/>
       <c r="I113" s="111"/>
-      <c r="J113" s="235"/>
-      <c r="K113" s="247"/>
+      <c r="J113" s="251"/>
+      <c r="K113" s="236"/>
       <c r="L113" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="222"/>
+      <c r="M113" s="268"/>
       <c r="N113" s="205"/>
-      <c r="O113" s="262" t="s">
+      <c r="O113" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P113" s="158"/>
-      <c r="Q113" s="269"/>
+      <c r="Q113" s="221"/>
       <c r="R113" s="205"/>
       <c r="S113" s="85"/>
       <c r="T113" s="85"/>
@@ -18219,18 +17606,18 @@
       </c>
       <c r="H114" s="93"/>
       <c r="I114" s="111"/>
-      <c r="J114" s="235"/>
-      <c r="K114" s="247"/>
+      <c r="J114" s="251"/>
+      <c r="K114" s="236"/>
       <c r="L114" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="222"/>
+      <c r="M114" s="268"/>
       <c r="N114" s="205"/>
-      <c r="O114" s="262" t="s">
+      <c r="O114" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P114" s="158"/>
-      <c r="Q114" s="269"/>
+      <c r="Q114" s="221"/>
       <c r="R114" s="205"/>
       <c r="S114" s="85"/>
       <c r="T114" s="85"/>
@@ -18258,18 +17645,18 @@
       </c>
       <c r="H115" s="93"/>
       <c r="I115" s="111"/>
-      <c r="J115" s="235"/>
-      <c r="K115" s="247"/>
+      <c r="J115" s="251"/>
+      <c r="K115" s="236"/>
       <c r="L115" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M115" s="222"/>
+      <c r="M115" s="268"/>
       <c r="N115" s="205"/>
-      <c r="O115" s="262" t="s">
+      <c r="O115" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P115" s="158"/>
-      <c r="Q115" s="269"/>
+      <c r="Q115" s="221"/>
       <c r="R115" s="205"/>
       <c r="S115" s="85"/>
       <c r="T115" s="85"/>
@@ -18297,18 +17684,18 @@
       </c>
       <c r="H116" s="93"/>
       <c r="I116" s="111"/>
-      <c r="J116" s="235"/>
-      <c r="K116" s="248"/>
+      <c r="J116" s="251"/>
+      <c r="K116" s="237"/>
       <c r="L116" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M116" s="223"/>
+      <c r="M116" s="269"/>
       <c r="N116" s="205"/>
-      <c r="O116" s="262" t="s">
+      <c r="O116" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P116" s="158"/>
-      <c r="Q116" s="269"/>
+      <c r="Q116" s="221"/>
       <c r="R116" s="205"/>
       <c r="S116" s="85"/>
       <c r="T116" s="85"/>
@@ -18328,10 +17715,10 @@
       <c r="E117" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="233" t="s">
+      <c r="F117" s="249" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="234"/>
+      <c r="G117" s="250"/>
       <c r="H117" s="93"/>
       <c r="I117" s="111"/>
       <c r="J117" s="101" t="s">
@@ -18347,11 +17734,11 @@
         <v>616</v>
       </c>
       <c r="N117" s="205"/>
-      <c r="O117" s="262" t="s">
+      <c r="O117" s="215" t="s">
         <v>635</v>
       </c>
       <c r="P117" s="158"/>
-      <c r="Q117" s="269"/>
+      <c r="Q117" s="221"/>
       <c r="R117" s="205"/>
       <c r="S117" s="85"/>
       <c r="T117" s="85"/>
@@ -18392,11 +17779,11 @@
         <v>626</v>
       </c>
       <c r="N118" s="205"/>
-      <c r="O118" s="262" t="s">
+      <c r="O118" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P118" s="158"/>
-      <c r="Q118" s="269"/>
+      <c r="Q118" s="221"/>
       <c r="R118" s="205"/>
       <c r="S118" s="85"/>
       <c r="T118" s="85"/>
@@ -18441,11 +17828,11 @@
         <v>608</v>
       </c>
       <c r="N119" s="205"/>
-      <c r="O119" s="262" t="s">
+      <c r="O119" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P119" s="158"/>
-      <c r="Q119" s="269"/>
+      <c r="Q119" s="221"/>
       <c r="R119" s="205"/>
       <c r="S119" s="85"/>
       <c r="T119" s="85"/>
@@ -18474,21 +17861,21 @@
       <c r="H120" s="93"/>
       <c r="I120" s="111"/>
       <c r="J120" s="99"/>
-      <c r="K120" s="224" t="s">
+      <c r="K120" s="240" t="s">
         <v>520</v>
       </c>
       <c r="L120" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M120" s="216" t="s">
+      <c r="M120" s="264" t="s">
         <v>581</v>
       </c>
       <c r="N120" s="206"/>
-      <c r="O120" s="264" t="s">
+      <c r="O120" s="216" t="s">
         <v>581</v>
       </c>
       <c r="P120" s="147"/>
-      <c r="Q120" s="272"/>
+      <c r="Q120" s="224"/>
       <c r="R120" s="206"/>
       <c r="S120" s="85"/>
       <c r="T120" s="85"/>
@@ -18519,17 +17906,17 @@
       <c r="J121" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K121" s="225"/>
+      <c r="K121" s="241"/>
       <c r="L121" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M121" s="217"/>
+      <c r="M121" s="265"/>
       <c r="N121" s="206"/>
-      <c r="O121" s="264" t="s">
+      <c r="O121" s="216" t="s">
         <v>581</v>
       </c>
       <c r="P121" s="147"/>
-      <c r="Q121" s="272"/>
+      <c r="Q121" s="224"/>
       <c r="R121" s="206"/>
       <c r="S121" s="85"/>
       <c r="T121" s="85"/>
@@ -18560,17 +17947,17 @@
       <c r="J122" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K122" s="226"/>
+      <c r="K122" s="242"/>
       <c r="L122" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M122" s="218"/>
+      <c r="M122" s="266"/>
       <c r="N122" s="206"/>
-      <c r="O122" s="264" t="s">
+      <c r="O122" s="216" t="s">
         <v>581</v>
       </c>
       <c r="P122" s="147"/>
-      <c r="Q122" s="272"/>
+      <c r="Q122" s="224"/>
       <c r="R122" s="206"/>
       <c r="S122" s="85"/>
       <c r="T122" s="85"/>
@@ -18611,11 +17998,11 @@
         <v>626</v>
       </c>
       <c r="N123" s="205"/>
-      <c r="O123" s="262" t="s">
+      <c r="O123" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P123" s="158"/>
-      <c r="Q123" s="269"/>
+      <c r="Q123" s="221"/>
       <c r="R123" s="205"/>
       <c r="S123" s="85"/>
       <c r="T123" s="85"/>
@@ -18660,11 +18047,11 @@
         <v>626</v>
       </c>
       <c r="N124" s="205"/>
-      <c r="O124" s="262" t="s">
+      <c r="O124" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P124" s="158"/>
-      <c r="Q124" s="269"/>
+      <c r="Q124" s="221"/>
       <c r="R124" s="205"/>
       <c r="S124" s="85"/>
       <c r="T124" s="85"/>
@@ -18713,7 +18100,7 @@
         <v>580</v>
       </c>
       <c r="P125" s="100"/>
-      <c r="Q125" s="271"/>
+      <c r="Q125" s="223"/>
       <c r="R125" s="205"/>
       <c r="S125" s="159"/>
       <c r="T125" s="85"/>
@@ -18758,11 +18145,11 @@
         <v>612</v>
       </c>
       <c r="N126" s="205"/>
-      <c r="O126" s="262" t="s">
+      <c r="O126" s="215" t="s">
         <v>631</v>
       </c>
       <c r="P126" s="158"/>
-      <c r="Q126" s="269"/>
+      <c r="Q126" s="221"/>
       <c r="R126" s="205"/>
       <c r="S126" s="85"/>
       <c r="T126" s="85"/>
@@ -18807,11 +18194,11 @@
         <v>609</v>
       </c>
       <c r="N127" s="205"/>
-      <c r="O127" s="262" t="s">
+      <c r="O127" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P127" s="158"/>
-      <c r="Q127" s="269"/>
+      <c r="Q127" s="221"/>
       <c r="R127" s="205"/>
       <c r="S127" s="85"/>
       <c r="T127" s="85"/>
@@ -18856,7 +18243,7 @@
         <v>580</v>
       </c>
       <c r="P128" s="100"/>
-      <c r="Q128" s="271"/>
+      <c r="Q128" s="223"/>
       <c r="R128" s="205"/>
       <c r="S128" s="159"/>
       <c r="T128" s="85"/>
@@ -18897,11 +18284,11 @@
         <v>570</v>
       </c>
       <c r="N129" s="205"/>
-      <c r="O129" s="262" t="s">
+      <c r="O129" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P129" s="158"/>
-      <c r="Q129" s="269"/>
+      <c r="Q129" s="221"/>
       <c r="R129" s="205"/>
       <c r="S129" s="85"/>
       <c r="T129" s="85"/>
@@ -18946,7 +18333,7 @@
         <v>614</v>
       </c>
       <c r="P130" s="158"/>
-      <c r="Q130" s="271"/>
+      <c r="Q130" s="223"/>
       <c r="R130" s="205"/>
       <c r="S130" s="159"/>
       <c r="T130" s="85"/>
@@ -18991,11 +18378,11 @@
         <v>627</v>
       </c>
       <c r="N131" s="205"/>
-      <c r="O131" s="262" t="s">
+      <c r="O131" s="215" t="s">
         <v>630</v>
       </c>
       <c r="P131" s="158"/>
-      <c r="Q131" s="269"/>
+      <c r="Q131" s="221"/>
       <c r="R131" s="205"/>
       <c r="S131" s="85"/>
       <c r="T131" s="85"/>
@@ -19036,11 +18423,11 @@
         <v>628</v>
       </c>
       <c r="N132" s="205"/>
-      <c r="O132" s="262" t="s">
+      <c r="O132" s="215" t="s">
         <v>633</v>
       </c>
       <c r="P132" s="158"/>
-      <c r="Q132" s="269"/>
+      <c r="Q132" s="221"/>
       <c r="R132" s="205"/>
       <c r="S132" s="85"/>
       <c r="T132" s="85"/>
@@ -19081,11 +18468,11 @@
         <v>601</v>
       </c>
       <c r="N133" s="205"/>
-      <c r="O133" s="262" t="s">
+      <c r="O133" s="215" t="s">
         <v>661</v>
       </c>
       <c r="P133" s="158"/>
-      <c r="Q133" s="269"/>
+      <c r="Q133" s="221"/>
       <c r="R133" s="205"/>
       <c r="S133" s="85"/>
       <c r="T133" s="85"/>
@@ -19126,11 +18513,11 @@
         <v>605</v>
       </c>
       <c r="N134" s="205"/>
-      <c r="O134" s="262" t="s">
+      <c r="O134" s="215" t="s">
         <v>664</v>
       </c>
       <c r="P134" s="158"/>
-      <c r="Q134" s="269"/>
+      <c r="Q134" s="221"/>
       <c r="R134" s="205"/>
       <c r="S134" s="85"/>
       <c r="T134" s="85"/>
@@ -19150,10 +18537,10 @@
       <c r="E135" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="229" t="s">
+      <c r="F135" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G135" s="230"/>
+      <c r="G135" s="246"/>
       <c r="H135" s="93"/>
       <c r="I135" s="111"/>
       <c r="J135" s="101" t="s">
@@ -19169,11 +18556,11 @@
         <v>615</v>
       </c>
       <c r="N135" s="205"/>
-      <c r="O135" s="262" t="s">
+      <c r="O135" s="215" t="s">
         <v>635</v>
       </c>
       <c r="P135" s="158"/>
-      <c r="Q135" s="269"/>
+      <c r="Q135" s="221"/>
       <c r="R135" s="205"/>
       <c r="S135" s="85"/>
       <c r="T135" s="85"/>
@@ -19183,11 +18570,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K112:K116"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="M120:M122"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M112:M116"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="K120:K122"/>
     <mergeCell ref="I1:M5"/>
     <mergeCell ref="F135:G135"/>
@@ -19204,13 +18593,11 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="M90:M91"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="M120:M122"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M112:M116"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K112:K116"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:P29 P37:P54 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
@@ -19322,38 +18709,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="236" t="s">
+      <c r="F1" s="252" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="236"/>
+      <c r="G1" s="252"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="243" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="237" t="s">
+      <c r="F2" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="238"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="249" t="s">
+      <c r="I2" s="275" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
-      <c r="N2" s="250"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="239"/>
-      <c r="G3" s="240"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -19363,10 +18750,10 @@
       <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="241"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -20432,10 +19819,10 @@
       <c r="E37" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="229" t="s">
+      <c r="F37" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="230"/>
+      <c r="G37" s="246"/>
       <c r="H37" s="93"/>
       <c r="I37" s="111"/>
       <c r="J37" s="101" t="s">
@@ -20496,10 +19883,10 @@
       <c r="E39" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="229" t="s">
+      <c r="F39" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="230"/>
+      <c r="G39" s="246"/>
       <c r="H39" s="93"/>
       <c r="I39" s="111"/>
       <c r="J39" s="101" t="s">
@@ -20560,10 +19947,10 @@
       <c r="E41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="229" t="s">
+      <c r="F41" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="230"/>
+      <c r="G41" s="246"/>
       <c r="H41" s="93"/>
       <c r="I41" s="111"/>
       <c r="J41" s="101" t="s">
@@ -20801,16 +20188,16 @@
       </c>
       <c r="H48" s="93"/>
       <c r="I48" s="111"/>
-      <c r="J48" s="235" t="s">
+      <c r="J48" s="251" t="s">
         <v>517</v>
       </c>
-      <c r="K48" s="246" t="s">
+      <c r="K48" s="235" t="s">
         <v>518</v>
       </c>
       <c r="L48" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M48" s="251" t="s">
+      <c r="M48" s="272" t="s">
         <v>607</v>
       </c>
       <c r="N48" s="85"/>
@@ -20834,12 +20221,12 @@
       </c>
       <c r="H49" s="93"/>
       <c r="I49" s="111"/>
-      <c r="J49" s="235"/>
-      <c r="K49" s="247"/>
+      <c r="J49" s="251"/>
+      <c r="K49" s="236"/>
       <c r="L49" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M49" s="252"/>
+      <c r="M49" s="273"/>
       <c r="N49" s="85"/>
     </row>
     <row r="50" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20861,12 +20248,12 @@
       </c>
       <c r="H50" s="93"/>
       <c r="I50" s="111"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="247"/>
+      <c r="J50" s="251"/>
+      <c r="K50" s="236"/>
       <c r="L50" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M50" s="252"/>
+      <c r="M50" s="273"/>
       <c r="N50" s="85"/>
     </row>
     <row r="51" spans="2:14" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20888,12 +20275,12 @@
       </c>
       <c r="H51" s="93"/>
       <c r="I51" s="111"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="247"/>
+      <c r="J51" s="251"/>
+      <c r="K51" s="236"/>
       <c r="L51" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M51" s="252"/>
+      <c r="M51" s="273"/>
       <c r="N51" s="85"/>
     </row>
     <row r="52" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20915,12 +20302,12 @@
       </c>
       <c r="H52" s="93"/>
       <c r="I52" s="111"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="248"/>
+      <c r="J52" s="251"/>
+      <c r="K52" s="237"/>
       <c r="L52" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M52" s="253"/>
+      <c r="M52" s="274"/>
       <c r="N52" s="85"/>
     </row>
     <row r="53" spans="2:14" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20934,10 +20321,10 @@
       <c r="E53" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="233" t="s">
+      <c r="F53" s="249" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="234"/>
+      <c r="G53" s="250"/>
       <c r="H53" s="93"/>
       <c r="I53" s="111"/>
       <c r="J53" s="101" t="s">
@@ -21000,10 +20387,10 @@
       <c r="E55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="229" t="s">
+      <c r="F55" s="245" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="230"/>
+      <c r="G55" s="246"/>
       <c r="H55" s="93"/>
       <c r="I55" s="111"/>
       <c r="J55" s="101" t="s">
@@ -21487,6 +20874,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="M48:M52"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F37:G37"/>
@@ -21495,11 +20887,6 @@
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="J48:J52"/>
     <mergeCell ref="K48:K52"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21529,36 +20916,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="236" t="s">
+      <c r="F1" s="252" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="236"/>
+      <c r="G1" s="252"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="227" t="s">
+      <c r="I1" s="243" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F2" s="237" t="s">
+      <c r="F2" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="238"/>
+      <c r="G2" s="254"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="249" t="s">
+      <c r="I2" s="275" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="250"/>
-      <c r="K2" s="250"/>
-      <c r="L2" s="250"/>
-      <c r="M2" s="250"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="239"/>
-      <c r="G3" s="240"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="256"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -21567,10 +20954,10 @@
       <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="241" t="s">
+      <c r="F4" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="241"/>
+      <c r="G4" s="257"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -22536,7 +21923,7 @@
       <c r="K32" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L32" s="254" t="s">
+      <c r="L32" s="277" t="s">
         <v>563</v>
       </c>
       <c r="M32" s="151" t="s">
@@ -22571,7 +21958,7 @@
       <c r="K33" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L33" s="255"/>
+      <c r="L33" s="278"/>
       <c r="M33" s="151" t="s">
         <v>605</v>
       </c>
@@ -22814,154 +22201,154 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D1" s="256" t="s">
+      <c r="D1" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="256"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="256"/>
+      <c r="E1" s="279"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="279"/>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="256"/>
-      <c r="E5" s="256"/>
-      <c r="F5" s="256"/>
-      <c r="G5" s="256"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="279"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="256"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="256"/>
-      <c r="G7" s="256"/>
+      <c r="D7" s="279"/>
+      <c r="E7" s="279"/>
+      <c r="F7" s="279"/>
+      <c r="G7" s="279"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
+      <c r="D8" s="279"/>
+      <c r="E8" s="279"/>
+      <c r="F8" s="279"/>
+      <c r="G8" s="279"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="256" t="s">
+      <c r="D12" s="279" t="s">
         <v>659</v>
       </c>
-      <c r="E12" s="256"/>
-      <c r="F12" s="256"/>
-      <c r="G12" s="256"/>
+      <c r="E12" s="279"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="279"/>
     </row>
     <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="256"/>
-      <c r="E13" s="256"/>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
+      <c r="D13" s="279"/>
+      <c r="E13" s="279"/>
+      <c r="F13" s="279"/>
+      <c r="G13" s="279"/>
     </row>
     <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
+      <c r="D14" s="279"/>
+      <c r="E14" s="279"/>
+      <c r="F14" s="279"/>
+      <c r="G14" s="279"/>
     </row>
     <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
+      <c r="D15" s="279"/>
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
     </row>
     <row r="16" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
     </row>
     <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="256"/>
-      <c r="E19" s="256"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="256"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="256" t="s">
+      <c r="D24" s="279" t="s">
         <v>660</v>
       </c>
-      <c r="E24" s="256"/>
-      <c r="F24" s="256"/>
-      <c r="G24" s="256"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="279"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="256"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="256"/>
-      <c r="E26" s="256"/>
-      <c r="F26" s="256"/>
-      <c r="G26" s="256"/>
+      <c r="D26" s="279"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="279"/>
+      <c r="G26" s="279"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="256"/>
-      <c r="E27" s="256"/>
-      <c r="F27" s="256"/>
-      <c r="G27" s="256"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="256"/>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
+      <c r="D28" s="279"/>
+      <c r="E28" s="279"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="256"/>
-      <c r="E29" s="256"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="256"/>
+      <c r="D29" s="279"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="279"/>
+      <c r="G29" s="279"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="256"/>
-      <c r="E30" s="256"/>
-      <c r="F30" s="256"/>
-      <c r="G30" s="256"/>
+      <c r="D30" s="279"/>
+      <c r="E30" s="279"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="256"/>
-      <c r="E31" s="256"/>
-      <c r="F31" s="256"/>
-      <c r="G31" s="256"/>
+      <c r="D31" s="279"/>
+      <c r="E31" s="279"/>
+      <c r="F31" s="279"/>
+      <c r="G31" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
+++ b/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="690">
   <si>
     <t>Impact on Portrayal</t>
   </si>
@@ -7360,9 +7360,6 @@
   </si>
   <si>
     <t>Pending - Pass discussion to DCEG WG</t>
-  </si>
-  <si>
-    <t>Pending - Email S-401 Chair for further discussions</t>
   </si>
   <si>
     <t>Allocate prototyping to KHOA and NIWC</t>
@@ -9433,6 +9430,12 @@
   </si>
   <si>
     <t>No changes to portrayal</t>
+  </si>
+  <si>
+    <t>Refer to Github Issue # 41</t>
+  </si>
+  <si>
+    <t>Refer to Github Issue # 42</t>
   </si>
 </sst>
 </file>
@@ -11700,6 +11703,121 @@
     <xf numFmtId="0" fontId="59" fillId="9" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11707,10 +11825,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11725,101 +11839,11 @@
     <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11830,12 +11854,6 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11844,21 +11862,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -12422,7 +12425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12433,10 +12436,10 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12465,18 +12468,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="262" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="252"/>
+      <c r="G1" s="262"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="243" t="s">
-        <v>666</v>
-      </c>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
+      <c r="I1" s="253" t="s">
+        <v>665</v>
+      </c>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
       <c r="N1" s="201"/>
       <c r="O1" s="198"/>
       <c r="P1" s="198"/>
@@ -12485,22 +12488,22 @@
       <c r="S1" s="200"/>
       <c r="T1" s="200"/>
       <c r="U1" s="201"/>
-      <c r="V1" s="260" t="s">
-        <v>668</v>
-      </c>
-      <c r="W1" s="260"/>
+      <c r="V1" s="236" t="s">
+        <v>667</v>
+      </c>
+      <c r="W1" s="236"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="253" t="s">
+      <c r="F2" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="254"/>
+      <c r="G2" s="264"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="243"/>
-      <c r="L2" s="243"/>
-      <c r="M2" s="243"/>
+      <c r="I2" s="253"/>
+      <c r="J2" s="253"/>
+      <c r="K2" s="253"/>
+      <c r="L2" s="253"/>
+      <c r="M2" s="253"/>
       <c r="N2" s="201"/>
       <c r="O2" s="198"/>
       <c r="P2" s="198"/>
@@ -12509,18 +12512,18 @@
       <c r="S2" s="200"/>
       <c r="T2" s="200"/>
       <c r="U2" s="201"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="260"/>
+      <c r="V2" s="236"/>
+      <c r="W2" s="236"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="253"/>
       <c r="N3" s="201"/>
       <c r="O3" s="198"/>
       <c r="P3" s="198"/>
@@ -12529,20 +12532,20 @@
       <c r="S3" s="200"/>
       <c r="T3" s="200"/>
       <c r="U3" s="201"/>
-      <c r="V3" s="260"/>
-      <c r="W3" s="260"/>
+      <c r="V3" s="236"/>
+      <c r="W3" s="236"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="257"/>
+      <c r="G4" s="267"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="253"/>
       <c r="N4" s="201"/>
       <c r="O4" s="198"/>
       <c r="P4" s="198"/>
@@ -12551,11 +12554,11 @@
       <c r="S4" s="200"/>
       <c r="T4" s="200"/>
       <c r="U4" s="201"/>
-      <c r="V4" s="261" t="s">
+      <c r="V4" s="237" t="s">
+        <v>668</v>
+      </c>
+      <c r="W4" s="237" t="s">
         <v>669</v>
-      </c>
-      <c r="W4" s="261" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12566,25 +12569,25 @@
         <v>17</v>
       </c>
       <c r="H5" s="94"/>
-      <c r="I5" s="244"/>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244"/>
-      <c r="L5" s="244"/>
-      <c r="M5" s="244"/>
+      <c r="I5" s="254"/>
+      <c r="J5" s="254"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="254"/>
+      <c r="M5" s="254"/>
       <c r="N5" s="202"/>
       <c r="O5" s="199"/>
-      <c r="P5" s="238" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q5" s="239"/>
+      <c r="P5" s="275" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q5" s="276"/>
       <c r="R5" s="202"/>
-      <c r="S5" s="270" t="s">
-        <v>686</v>
-      </c>
-      <c r="T5" s="271"/>
+      <c r="S5" s="248" t="s">
+        <v>685</v>
+      </c>
+      <c r="T5" s="249"/>
       <c r="U5" s="202"/>
-      <c r="V5" s="262"/>
-      <c r="W5" s="262"/>
+      <c r="V5" s="238"/>
+      <c r="W5" s="238"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -12617,28 +12620,28 @@
         <v>530</v>
       </c>
       <c r="M6" s="210" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N6" s="203"/>
       <c r="O6" s="212" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="P6" s="213" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q6" s="213" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="203"/>
       <c r="S6" s="230" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="T6" s="230" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="203"/>
-      <c r="V6" s="263"/>
-      <c r="W6" s="263"/>
+      <c r="V6" s="239"/>
+      <c r="W6" s="239"/>
     </row>
     <row r="7" spans="1:23" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -12674,10 +12677,10 @@
       </c>
       <c r="N7" s="204"/>
       <c r="O7" s="214" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P7" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q7" s="220"/>
       <c r="R7" s="204"/>
@@ -12723,14 +12726,14 @@
         <v>531</v>
       </c>
       <c r="M8" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N8" s="205"/>
       <c r="O8" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P8" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q8" s="221"/>
       <c r="R8" s="205"/>
@@ -12774,10 +12777,10 @@
       </c>
       <c r="N9" s="205"/>
       <c r="O9" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P9" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q9" s="221"/>
       <c r="R9" s="205"/>
@@ -12816,17 +12819,19 @@
       <c r="L10" s="141" t="s">
         <v>539</v>
       </c>
-      <c r="M10" s="148" t="s">
-        <v>569</v>
+      <c r="M10" s="154" t="s">
+        <v>573</v>
       </c>
       <c r="N10" s="205"/>
       <c r="O10" s="215" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P10" s="158" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q10" s="221"/>
+        <v>672</v>
+      </c>
+      <c r="Q10" s="222" t="s">
+        <v>688</v>
+      </c>
       <c r="R10" s="205"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
@@ -12835,7 +12840,7 @@
       <c r="W10" s="85"/>
     </row>
     <row r="11" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="284" t="s">
+      <c r="A11" s="235" t="s">
         <v>429</v>
       </c>
       <c r="B11" s="46"/>
@@ -12857,27 +12862,27 @@
         <v>451</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="M11" s="280" t="s">
         <v>570</v>
       </c>
+      <c r="M11" s="231" t="s">
+        <v>569</v>
+      </c>
       <c r="N11" s="205"/>
-      <c r="O11" s="281" t="s">
-        <v>631</v>
-      </c>
-      <c r="P11" s="282" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q11" s="283" t="s">
-        <v>680</v>
+      <c r="O11" s="232" t="s">
+        <v>630</v>
+      </c>
+      <c r="P11" s="233" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q11" s="234" t="s">
+        <v>679</v>
       </c>
       <c r="R11" s="205"/>
       <c r="S11" s="158" t="s">
+        <v>686</v>
+      </c>
+      <c r="T11" s="158" t="s">
         <v>687</v>
-      </c>
-      <c r="T11" s="158" t="s">
-        <v>688</v>
       </c>
       <c r="U11" s="205"/>
       <c r="V11" s="103"/>
@@ -12917,10 +12922,10 @@
       </c>
       <c r="N12" s="205"/>
       <c r="O12" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P12" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q12" s="221"/>
       <c r="R12" s="205"/>
@@ -12957,20 +12962,20 @@
         <v>454</v>
       </c>
       <c r="L13" s="141" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M13" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N13" s="205"/>
       <c r="O13" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P13" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q13" s="221" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R13" s="205"/>
       <c r="S13" s="158" t="s">
@@ -13017,10 +13022,10 @@
       </c>
       <c r="N14" s="205"/>
       <c r="O14" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P14" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q14" s="221"/>
       <c r="R14" s="205"/>
@@ -13061,20 +13066,20 @@
         <v>455</v>
       </c>
       <c r="L15" s="141" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M15" s="145" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="N15" s="205"/>
       <c r="O15" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P15" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q15" s="221" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R15" s="205"/>
       <c r="S15" s="158" t="s">
@@ -13121,10 +13126,10 @@
       </c>
       <c r="N16" s="205"/>
       <c r="O16" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P16" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q16" s="221"/>
       <c r="R16" s="205"/>
@@ -13164,14 +13169,14 @@
         <v>567</v>
       </c>
       <c r="M17" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N17" s="205"/>
       <c r="O17" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P17" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q17" s="221"/>
       <c r="R17" s="205"/>
@@ -13215,17 +13220,17 @@
         <v>567</v>
       </c>
       <c r="M18" s="149" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N18" s="205"/>
       <c r="O18" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P18" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q18" s="221" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R18" s="205"/>
       <c r="S18" s="85"/>
@@ -13264,14 +13269,14 @@
         <v>567</v>
       </c>
       <c r="M19" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N19" s="205"/>
       <c r="O19" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P19" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q19" s="221"/>
       <c r="R19" s="205"/>
@@ -13311,14 +13316,14 @@
         <v>567</v>
       </c>
       <c r="M20" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N20" s="205"/>
       <c r="O20" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P20" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q20" s="221"/>
       <c r="R20" s="205"/>
@@ -13361,17 +13366,19 @@
       <c r="L21" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M21" s="149" t="s">
-        <v>570</v>
+      <c r="M21" s="154" t="s">
+        <v>573</v>
       </c>
       <c r="N21" s="205"/>
       <c r="O21" s="215" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P21" s="158" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q21" s="221"/>
+        <v>672</v>
+      </c>
+      <c r="Q21" s="222" t="s">
+        <v>689</v>
+      </c>
       <c r="R21" s="205"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
@@ -13409,14 +13416,14 @@
         <v>567</v>
       </c>
       <c r="M22" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N22" s="205"/>
       <c r="O22" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P22" s="158" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="Q22" s="221"/>
       <c r="R22" s="205"/>
@@ -13456,17 +13463,17 @@
         <v>531</v>
       </c>
       <c r="M23" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N23" s="205"/>
       <c r="O23" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P23" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q23" s="221" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R23" s="205"/>
       <c r="S23" s="85"/>
@@ -13505,14 +13512,14 @@
         <v>567</v>
       </c>
       <c r="M24" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N24" s="205"/>
       <c r="O24" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P24" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q24" s="221"/>
       <c r="R24" s="205"/>
@@ -13552,14 +13559,14 @@
         <v>567</v>
       </c>
       <c r="M25" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N25" s="205"/>
       <c r="O25" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P25" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q25" s="221"/>
       <c r="R25" s="205"/>
@@ -13600,20 +13607,20 @@
         <v>464</v>
       </c>
       <c r="L26" s="141" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M26" s="154" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N26" s="205"/>
       <c r="O26" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P26" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q26" s="222" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R26" s="205"/>
       <c r="S26" s="85"/>
@@ -13653,17 +13660,17 @@
         <v>461</v>
       </c>
       <c r="L27" s="141" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M27" s="145" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N27" s="205"/>
       <c r="O27" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P27" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q27" s="221"/>
       <c r="R27" s="205"/>
@@ -13699,14 +13706,14 @@
         <v>540</v>
       </c>
       <c r="M28" s="145" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N28" s="205"/>
       <c r="O28" s="215" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P28" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q28" s="221"/>
       <c r="R28" s="205"/>
@@ -13742,14 +13749,14 @@
         <v>540</v>
       </c>
       <c r="M29" s="145" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N29" s="205"/>
       <c r="O29" s="215" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P29" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q29" s="221"/>
       <c r="R29" s="205"/>
@@ -13785,11 +13792,11 @@
         <v>541</v>
       </c>
       <c r="M30" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N30" s="205"/>
       <c r="O30" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P30" s="100"/>
       <c r="Q30" s="223"/>
@@ -13826,17 +13833,17 @@
         <v>542</v>
       </c>
       <c r="M31" s="154" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N31" s="206"/>
       <c r="O31" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P31" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q31" s="222" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R31" s="206"/>
       <c r="S31" s="85"/>
@@ -13879,10 +13886,10 @@
       </c>
       <c r="N32" s="205"/>
       <c r="O32" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P32" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q32" s="221"/>
       <c r="R32" s="205"/>
@@ -13926,10 +13933,10 @@
       </c>
       <c r="N33" s="205"/>
       <c r="O33" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P33" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q33" s="221"/>
       <c r="R33" s="205"/>
@@ -13969,17 +13976,17 @@
         <v>543</v>
       </c>
       <c r="M34" s="147" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N34" s="206"/>
       <c r="O34" s="216" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P34" s="158" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q34" s="228" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R34" s="206"/>
       <c r="S34" s="85"/>
@@ -14018,11 +14025,11 @@
         <v>531</v>
       </c>
       <c r="M35" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N35" s="205"/>
       <c r="O35" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P35" s="158"/>
       <c r="Q35" s="221"/>
@@ -14063,11 +14070,11 @@
         <v>534</v>
       </c>
       <c r="M36" s="150" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="N36" s="207"/>
       <c r="O36" s="217" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P36" s="147"/>
       <c r="Q36" s="225"/>
@@ -14108,14 +14115,14 @@
         <v>531</v>
       </c>
       <c r="M37" s="149" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N37" s="205"/>
       <c r="O37" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P37" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q37" s="221"/>
       <c r="R37" s="205"/>
@@ -14159,17 +14166,17 @@
         <v>536</v>
       </c>
       <c r="M38" s="151" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N38" s="205"/>
       <c r="O38" s="215" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="P38" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q38" s="229" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R38" s="205"/>
       <c r="S38" s="85"/>
@@ -14212,10 +14219,10 @@
       </c>
       <c r="N39" s="205"/>
       <c r="O39" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P39" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q39" s="221"/>
       <c r="R39" s="205"/>
@@ -14284,11 +14291,11 @@
         <v>531</v>
       </c>
       <c r="M41" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N41" s="205"/>
       <c r="O41" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P41" s="100"/>
       <c r="Q41" s="223"/>
@@ -14331,14 +14338,14 @@
         <v>537</v>
       </c>
       <c r="M42" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N42" s="205"/>
       <c r="O42" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P42" s="158" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q42" s="221"/>
       <c r="R42" s="205"/>
@@ -14382,11 +14389,11 @@
         <v>567</v>
       </c>
       <c r="M43" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N43" s="205"/>
       <c r="O43" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P43" s="100"/>
       <c r="Q43" s="223"/>
@@ -14427,14 +14434,14 @@
         <v>567</v>
       </c>
       <c r="M44" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N44" s="205"/>
       <c r="O44" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P44" s="158" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q44" s="221"/>
       <c r="R44" s="205"/>
@@ -14474,11 +14481,11 @@
         <v>531</v>
       </c>
       <c r="M45" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N45" s="205"/>
       <c r="O45" s="215" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P45" s="158"/>
       <c r="Q45" s="221"/>
@@ -14519,11 +14526,11 @@
         <v>531</v>
       </c>
       <c r="M46" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N46" s="205"/>
       <c r="O46" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P46" s="100"/>
       <c r="Q46" s="223"/>
@@ -14558,17 +14565,17 @@
       </c>
       <c r="J47" s="100"/>
       <c r="K47" s="137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L47" s="139" t="s">
         <v>544</v>
       </c>
       <c r="M47" s="151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N47" s="205"/>
       <c r="O47" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P47" s="158"/>
       <c r="Q47" s="221"/>
@@ -14609,11 +14616,11 @@
         <v>567</v>
       </c>
       <c r="M48" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N48" s="208"/>
       <c r="O48" s="18" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P48" s="158"/>
       <c r="R48" s="208"/>
@@ -14650,14 +14657,14 @@
         <v>510</v>
       </c>
       <c r="L49" s="139" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M49" s="145" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N49" s="205"/>
       <c r="O49" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P49" s="158"/>
       <c r="Q49" s="221"/>
@@ -14698,11 +14705,11 @@
         <v>567</v>
       </c>
       <c r="M50" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N50" s="205"/>
       <c r="O50" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P50" s="158"/>
       <c r="Q50" s="221"/>
@@ -14747,11 +14754,11 @@
         <v>567</v>
       </c>
       <c r="M51" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N51" s="205"/>
       <c r="O51" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P51" s="158"/>
       <c r="Q51" s="221"/>
@@ -14792,11 +14799,11 @@
         <v>567</v>
       </c>
       <c r="M52" s="151" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N52" s="205"/>
       <c r="O52" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P52" s="158"/>
       <c r="Q52" s="221"/>
@@ -14843,11 +14850,11 @@
         <v>545</v>
       </c>
       <c r="M53" s="151" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N53" s="205"/>
       <c r="O53" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P53" s="158"/>
       <c r="Q53" s="221"/>
@@ -14888,11 +14895,11 @@
         <v>563</v>
       </c>
       <c r="M54" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N54" s="205"/>
       <c r="O54" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P54" s="158"/>
       <c r="Q54" s="221"/>
@@ -14933,11 +14940,11 @@
         <v>567</v>
       </c>
       <c r="M55" s="147" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N55" s="206"/>
       <c r="O55" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P55" s="147"/>
       <c r="Q55" s="224"/>
@@ -14978,11 +14985,11 @@
         <v>567</v>
       </c>
       <c r="M56" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N56" s="205"/>
       <c r="O56" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P56" s="158"/>
       <c r="Q56" s="221"/>
@@ -15023,11 +15030,11 @@
         <v>567</v>
       </c>
       <c r="M57" s="149" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N57" s="205"/>
       <c r="O57" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P57" s="158"/>
       <c r="Q57" s="221"/>
@@ -15069,14 +15076,14 @@
         <v>451</v>
       </c>
       <c r="L58" s="141" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M58" s="151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N58" s="205"/>
       <c r="O58" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P58" s="158"/>
       <c r="Q58" s="221"/>
@@ -15117,11 +15124,11 @@
         <v>567</v>
       </c>
       <c r="M59" s="147" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N59" s="206"/>
       <c r="O59" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P59" s="147"/>
       <c r="Q59" s="224"/>
@@ -15162,11 +15169,11 @@
         <v>547</v>
       </c>
       <c r="M60" s="151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N60" s="205"/>
       <c r="O60" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P60" s="158"/>
       <c r="Q60" s="221"/>
@@ -15215,7 +15222,7 @@
       </c>
       <c r="N61" s="205"/>
       <c r="O61" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P61" s="158"/>
       <c r="Q61" s="221"/>
@@ -15264,7 +15271,7 @@
       </c>
       <c r="N62" s="205"/>
       <c r="O62" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P62" s="158"/>
       <c r="Q62" s="221"/>
@@ -15309,11 +15316,11 @@
         <v>567</v>
       </c>
       <c r="M63" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N63" s="205"/>
       <c r="O63" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P63" s="158"/>
       <c r="Q63" s="221"/>
@@ -15354,11 +15361,11 @@
         <v>563</v>
       </c>
       <c r="M64" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N64" s="205"/>
       <c r="O64" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P64" s="158"/>
       <c r="Q64" s="221"/>
@@ -15381,10 +15388,10 @@
       <c r="E65" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="245" t="s">
+      <c r="F65" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="246"/>
+      <c r="G65" s="256"/>
       <c r="H65" s="93"/>
       <c r="I65" s="111"/>
       <c r="J65" s="101" t="s">
@@ -15397,11 +15404,11 @@
         <v>567</v>
       </c>
       <c r="M65" s="151" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N65" s="205"/>
       <c r="O65" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P65" s="158"/>
       <c r="Q65" s="221"/>
@@ -15442,11 +15449,11 @@
         <v>567</v>
       </c>
       <c r="M66" s="147" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N66" s="206"/>
       <c r="O66" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P66" s="224"/>
       <c r="Q66" s="224"/>
@@ -15469,10 +15476,10 @@
       <c r="E67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F67" s="247" t="s">
+      <c r="F67" s="257" t="s">
         <v>235</v>
       </c>
-      <c r="G67" s="248"/>
+      <c r="G67" s="258"/>
       <c r="H67" s="93"/>
       <c r="I67" s="121"/>
       <c r="J67" s="101" t="s">
@@ -15485,11 +15492,11 @@
         <v>546</v>
       </c>
       <c r="M67" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N67" s="205"/>
       <c r="O67" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P67" s="100"/>
       <c r="Q67" s="223"/>
@@ -15530,11 +15537,11 @@
         <v>531</v>
       </c>
       <c r="M68" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N68" s="205"/>
       <c r="O68" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P68" s="158"/>
       <c r="Q68" s="221"/>
@@ -15575,11 +15582,11 @@
         <v>567</v>
       </c>
       <c r="M69" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N69" s="205"/>
       <c r="O69" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P69" s="100"/>
       <c r="Q69" s="223"/>
@@ -15620,11 +15627,11 @@
         <v>549</v>
       </c>
       <c r="M70" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N70" s="205"/>
       <c r="O70" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P70" s="100"/>
       <c r="Q70" s="223"/>
@@ -15665,11 +15672,11 @@
         <v>550</v>
       </c>
       <c r="M71" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N71" s="205"/>
       <c r="O71" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P71" s="100"/>
       <c r="Q71" s="223"/>
@@ -15692,10 +15699,10 @@
       <c r="E72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="245" t="s">
+      <c r="F72" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="246"/>
+      <c r="G72" s="256"/>
       <c r="H72" s="93"/>
       <c r="I72" s="111"/>
       <c r="J72" s="101" t="s">
@@ -15708,11 +15715,11 @@
         <v>567</v>
       </c>
       <c r="M72" s="151" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N72" s="205"/>
       <c r="O72" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P72" s="158"/>
       <c r="Q72" s="221"/>
@@ -15753,11 +15760,11 @@
         <v>551</v>
       </c>
       <c r="M73" s="151" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N73" s="205"/>
       <c r="O73" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P73" s="158"/>
       <c r="Q73" s="221"/>
@@ -15802,11 +15809,11 @@
         <v>567</v>
       </c>
       <c r="M74" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N74" s="205"/>
       <c r="O74" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P74" s="158"/>
       <c r="Q74" s="221"/>
@@ -15847,11 +15854,11 @@
         <v>552</v>
       </c>
       <c r="M75" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N75" s="205"/>
       <c r="O75" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P75" s="100"/>
       <c r="Q75" s="223"/>
@@ -15896,11 +15903,11 @@
         <v>567</v>
       </c>
       <c r="M76" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N76" s="205"/>
       <c r="O76" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P76" s="100"/>
       <c r="Q76" s="223"/>
@@ -15923,10 +15930,10 @@
       <c r="E77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F77" s="245" t="s">
+      <c r="F77" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G77" s="246"/>
+      <c r="G77" s="256"/>
       <c r="H77" s="93"/>
       <c r="I77" s="111"/>
       <c r="J77" s="101" t="s">
@@ -15939,11 +15946,11 @@
         <v>567</v>
       </c>
       <c r="M77" s="151" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N77" s="205"/>
       <c r="O77" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P77" s="158"/>
       <c r="Q77" s="221"/>
@@ -15984,11 +15991,11 @@
         <v>563</v>
       </c>
       <c r="M78" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N78" s="205"/>
       <c r="O78" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P78" s="158"/>
       <c r="Q78" s="221"/>
@@ -16029,11 +16036,11 @@
         <v>563</v>
       </c>
       <c r="M79" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N79" s="205"/>
       <c r="O79" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P79" s="158"/>
       <c r="Q79" s="221"/>
@@ -16056,10 +16063,10 @@
       <c r="E80" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F80" s="245" t="s">
+      <c r="F80" s="255" t="s">
         <v>278</v>
       </c>
-      <c r="G80" s="246"/>
+      <c r="G80" s="256"/>
       <c r="H80" s="93"/>
       <c r="I80" s="111"/>
       <c r="J80" s="99" t="s">
@@ -16072,11 +16079,11 @@
         <v>553</v>
       </c>
       <c r="M80" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N80" s="205"/>
       <c r="O80" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P80" s="158"/>
       <c r="Q80" s="223"/>
@@ -16117,11 +16124,11 @@
         <v>567</v>
       </c>
       <c r="M81" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N81" s="205"/>
       <c r="O81" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P81" s="158"/>
       <c r="Q81" s="221"/>
@@ -16166,11 +16173,11 @@
         <v>554</v>
       </c>
       <c r="M82" s="145" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N82" s="205"/>
       <c r="O82" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P82" s="158"/>
       <c r="Q82" s="221"/>
@@ -16211,11 +16218,11 @@
         <v>567</v>
       </c>
       <c r="M83" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N83" s="205"/>
       <c r="O83" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P83" s="100"/>
       <c r="Q83" s="223"/>
@@ -16256,11 +16263,11 @@
         <v>567</v>
       </c>
       <c r="M84" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N84" s="205"/>
       <c r="O84" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P84" s="158"/>
       <c r="Q84" s="221"/>
@@ -16299,11 +16306,11 @@
         <v>567</v>
       </c>
       <c r="M85" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N85" s="205"/>
       <c r="O85" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P85" s="100"/>
       <c r="Q85" s="223"/>
@@ -16344,11 +16351,11 @@
         <v>567</v>
       </c>
       <c r="M86" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N86" s="205"/>
       <c r="O86" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P86" s="158"/>
       <c r="Q86" s="221"/>
@@ -16389,11 +16396,11 @@
         <v>567</v>
       </c>
       <c r="M87" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N87" s="205"/>
       <c r="O87" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P87" s="158"/>
       <c r="Q87" s="221"/>
@@ -16434,11 +16441,11 @@
         <v>567</v>
       </c>
       <c r="M88" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N88" s="205"/>
       <c r="O88" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P88" s="158"/>
       <c r="Q88" s="221"/>
@@ -16479,11 +16486,11 @@
         <v>557</v>
       </c>
       <c r="M89" s="151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N89" s="205"/>
       <c r="O89" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P89" s="158"/>
       <c r="Q89" s="221"/>
@@ -16510,13 +16517,13 @@
       <c r="E90" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="245" t="s">
+      <c r="F90" s="255" t="s">
         <v>310</v>
       </c>
-      <c r="G90" s="246"/>
+      <c r="G90" s="256"/>
       <c r="H90" s="97"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="251" t="s">
+      <c r="J90" s="261" t="s">
         <v>311</v>
       </c>
       <c r="K90" s="137" t="s">
@@ -16525,12 +16532,12 @@
       <c r="L90" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="258" t="s">
-        <v>580</v>
+      <c r="M90" s="268" t="s">
+        <v>579</v>
       </c>
       <c r="N90" s="205"/>
       <c r="O90" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P90" s="100"/>
       <c r="Q90" s="223"/>
@@ -16565,17 +16572,17 @@
       </c>
       <c r="H91" s="97"/>
       <c r="I91" s="111"/>
-      <c r="J91" s="251"/>
+      <c r="J91" s="261"/>
       <c r="K91" s="137" t="s">
         <v>498</v>
       </c>
       <c r="L91" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M91" s="259"/>
+      <c r="M91" s="269"/>
       <c r="N91" s="205"/>
       <c r="O91" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P91" s="100"/>
       <c r="Q91" s="223"/>
@@ -16616,11 +16623,11 @@
         <v>559</v>
       </c>
       <c r="M92" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N92" s="205"/>
       <c r="O92" s="215" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P92" s="158"/>
       <c r="Q92" s="221"/>
@@ -16655,17 +16662,17 @@
         <v>319</v>
       </c>
       <c r="K93" s="122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L93" s="85" t="s">
         <v>567</v>
       </c>
       <c r="M93" s="151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N93" s="205"/>
       <c r="O93" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P93" s="158"/>
       <c r="Q93" s="221"/>
@@ -16706,11 +16713,11 @@
         <v>567</v>
       </c>
       <c r="M94" s="151" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N94" s="205"/>
       <c r="O94" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P94" s="158"/>
       <c r="Q94" s="221"/>
@@ -16746,7 +16753,7 @@
       <c r="H95" s="93"/>
       <c r="I95" s="111"/>
       <c r="J95" s="99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K95" s="137" t="s">
         <v>498</v>
@@ -16755,11 +16762,11 @@
         <v>560</v>
       </c>
       <c r="M95" s="151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N95" s="205"/>
       <c r="O95" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P95" s="158"/>
       <c r="Q95" s="221"/>
@@ -16804,11 +16811,11 @@
         <v>560</v>
       </c>
       <c r="M96" s="151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N96" s="205"/>
       <c r="O96" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P96" s="158"/>
       <c r="Q96" s="221"/>
@@ -16849,11 +16856,11 @@
         <v>567</v>
       </c>
       <c r="M97" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N97" s="205"/>
       <c r="O97" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P97" s="158"/>
       <c r="Q97" s="221"/>
@@ -16894,11 +16901,11 @@
         <v>567</v>
       </c>
       <c r="M98" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N98" s="205"/>
       <c r="O98" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P98" s="100"/>
       <c r="Q98" s="223"/>
@@ -16939,11 +16946,11 @@
         <v>567</v>
       </c>
       <c r="M99" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N99" s="205"/>
       <c r="O99" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P99" s="100"/>
       <c r="Q99" s="223"/>
@@ -16984,11 +16991,11 @@
         <v>567</v>
       </c>
       <c r="M100" s="151" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N100" s="205"/>
       <c r="O100" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P100" s="158"/>
       <c r="Q100" s="221"/>
@@ -17033,11 +17040,11 @@
         <v>561</v>
       </c>
       <c r="M101" s="152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="N101" s="205"/>
       <c r="O101" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P101" s="158"/>
       <c r="Q101" s="221"/>
@@ -17078,11 +17085,11 @@
         <v>567</v>
       </c>
       <c r="M102" s="151" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N102" s="205"/>
       <c r="O102" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P102" s="158"/>
       <c r="Q102" s="221"/>
@@ -17109,10 +17116,10 @@
       <c r="E103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="231" t="s">
+      <c r="F103" s="270" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="232"/>
+      <c r="G103" s="271"/>
       <c r="H103" s="93"/>
       <c r="I103" s="111"/>
       <c r="J103" s="101" t="s">
@@ -17121,15 +17128,15 @@
       <c r="K103" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L103" s="233" t="s">
-        <v>599</v>
+      <c r="L103" s="243" t="s">
+        <v>598</v>
       </c>
       <c r="M103" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N103" s="205"/>
       <c r="O103" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P103" s="100"/>
       <c r="Q103" s="223"/>
@@ -17170,13 +17177,13 @@
       <c r="K104" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L104" s="234"/>
+      <c r="L104" s="244"/>
       <c r="M104" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N104" s="205"/>
       <c r="O104" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P104" s="100"/>
       <c r="Q104" s="223"/>
@@ -17199,10 +17206,10 @@
       <c r="E105" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="231" t="s">
+      <c r="F105" s="270" t="s">
         <v>235</v>
       </c>
-      <c r="G105" s="232"/>
+      <c r="G105" s="271"/>
       <c r="H105" s="93"/>
       <c r="I105" s="111"/>
       <c r="J105" s="101" t="s">
@@ -17215,11 +17222,11 @@
         <v>531</v>
       </c>
       <c r="M105" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N105" s="205"/>
       <c r="O105" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P105" s="100"/>
       <c r="Q105" s="223"/>
@@ -17264,11 +17271,11 @@
         <v>567</v>
       </c>
       <c r="M106" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N106" s="205"/>
       <c r="O106" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P106" s="100"/>
       <c r="Q106" s="223"/>
@@ -17309,11 +17316,11 @@
         <v>555</v>
       </c>
       <c r="M107" s="145" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N107" s="205"/>
       <c r="O107" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P107" s="158"/>
       <c r="Q107" s="221"/>
@@ -17350,15 +17357,15 @@
       <c r="K108" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L108" s="233" t="s">
+      <c r="L108" s="243" t="s">
         <v>563</v>
       </c>
       <c r="M108" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N108" s="205"/>
       <c r="O108" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P108" s="158"/>
       <c r="Q108" s="221"/>
@@ -17395,13 +17402,13 @@
       <c r="K109" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L109" s="234"/>
+      <c r="L109" s="244"/>
       <c r="M109" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N109" s="205"/>
       <c r="O109" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P109" s="158"/>
       <c r="Q109" s="221"/>
@@ -17442,11 +17449,11 @@
         <v>562</v>
       </c>
       <c r="M110" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N110" s="209"/>
       <c r="O110" s="219" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P110" s="158"/>
       <c r="Q110" s="227"/>
@@ -17487,11 +17494,11 @@
         <v>563</v>
       </c>
       <c r="M111" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N111" s="205"/>
       <c r="O111" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P111" s="158"/>
       <c r="Q111" s="221"/>
@@ -17522,21 +17529,21 @@
       </c>
       <c r="H112" s="93"/>
       <c r="I112" s="111"/>
-      <c r="J112" s="251" t="s">
+      <c r="J112" s="261" t="s">
         <v>517</v>
       </c>
-      <c r="K112" s="235" t="s">
+      <c r="K112" s="272" t="s">
         <v>518</v>
       </c>
       <c r="L112" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M112" s="267" t="s">
-        <v>607</v>
+      <c r="M112" s="245" t="s">
+        <v>606</v>
       </c>
       <c r="N112" s="205"/>
       <c r="O112" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P112" s="158"/>
       <c r="Q112" s="221"/>
@@ -17567,15 +17574,15 @@
       </c>
       <c r="H113" s="93"/>
       <c r="I113" s="111"/>
-      <c r="J113" s="251"/>
-      <c r="K113" s="236"/>
+      <c r="J113" s="261"/>
+      <c r="K113" s="273"/>
       <c r="L113" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="268"/>
+      <c r="M113" s="246"/>
       <c r="N113" s="205"/>
       <c r="O113" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P113" s="158"/>
       <c r="Q113" s="221"/>
@@ -17606,15 +17613,15 @@
       </c>
       <c r="H114" s="93"/>
       <c r="I114" s="111"/>
-      <c r="J114" s="251"/>
-      <c r="K114" s="236"/>
+      <c r="J114" s="261"/>
+      <c r="K114" s="273"/>
       <c r="L114" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="268"/>
+      <c r="M114" s="246"/>
       <c r="N114" s="205"/>
       <c r="O114" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P114" s="158"/>
       <c r="Q114" s="221"/>
@@ -17645,15 +17652,15 @@
       </c>
       <c r="H115" s="93"/>
       <c r="I115" s="111"/>
-      <c r="J115" s="251"/>
-      <c r="K115" s="236"/>
+      <c r="J115" s="261"/>
+      <c r="K115" s="273"/>
       <c r="L115" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M115" s="268"/>
+      <c r="M115" s="246"/>
       <c r="N115" s="205"/>
       <c r="O115" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P115" s="158"/>
       <c r="Q115" s="221"/>
@@ -17684,15 +17691,15 @@
       </c>
       <c r="H116" s="93"/>
       <c r="I116" s="111"/>
-      <c r="J116" s="251"/>
-      <c r="K116" s="237"/>
+      <c r="J116" s="261"/>
+      <c r="K116" s="274"/>
       <c r="L116" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M116" s="269"/>
+      <c r="M116" s="247"/>
       <c r="N116" s="205"/>
       <c r="O116" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P116" s="158"/>
       <c r="Q116" s="221"/>
@@ -17715,10 +17722,10 @@
       <c r="E117" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="249" t="s">
+      <c r="F117" s="259" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="250"/>
+      <c r="G117" s="260"/>
       <c r="H117" s="93"/>
       <c r="I117" s="111"/>
       <c r="J117" s="101" t="s">
@@ -17731,11 +17738,11 @@
         <v>565</v>
       </c>
       <c r="M117" s="151" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N117" s="205"/>
       <c r="O117" s="215" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P117" s="158"/>
       <c r="Q117" s="221"/>
@@ -17776,11 +17783,11 @@
         <v>567</v>
       </c>
       <c r="M118" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N118" s="205"/>
       <c r="O118" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P118" s="158"/>
       <c r="Q118" s="221"/>
@@ -17825,11 +17832,11 @@
         <v>556</v>
       </c>
       <c r="M119" s="145" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N119" s="205"/>
       <c r="O119" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P119" s="158"/>
       <c r="Q119" s="221"/>
@@ -17861,18 +17868,18 @@
       <c r="H120" s="93"/>
       <c r="I120" s="111"/>
       <c r="J120" s="99"/>
-      <c r="K120" s="240" t="s">
+      <c r="K120" s="250" t="s">
         <v>520</v>
       </c>
       <c r="L120" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M120" s="264" t="s">
-        <v>581</v>
+      <c r="M120" s="240" t="s">
+        <v>580</v>
       </c>
       <c r="N120" s="206"/>
       <c r="O120" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P120" s="147"/>
       <c r="Q120" s="224"/>
@@ -17906,14 +17913,14 @@
       <c r="J121" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K121" s="241"/>
+      <c r="K121" s="251"/>
       <c r="L121" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M121" s="265"/>
+      <c r="M121" s="241"/>
       <c r="N121" s="206"/>
       <c r="O121" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P121" s="147"/>
       <c r="Q121" s="224"/>
@@ -17947,14 +17954,14 @@
       <c r="J122" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K122" s="242"/>
+      <c r="K122" s="252"/>
       <c r="L122" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M122" s="266"/>
+      <c r="M122" s="242"/>
       <c r="N122" s="206"/>
       <c r="O122" s="216" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P122" s="147"/>
       <c r="Q122" s="224"/>
@@ -17995,11 +18002,11 @@
         <v>567</v>
       </c>
       <c r="M123" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N123" s="205"/>
       <c r="O123" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P123" s="158"/>
       <c r="Q123" s="221"/>
@@ -18044,11 +18051,11 @@
         <v>567</v>
       </c>
       <c r="M124" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N124" s="205"/>
       <c r="O124" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P124" s="158"/>
       <c r="Q124" s="221"/>
@@ -18093,11 +18100,11 @@
         <v>567</v>
       </c>
       <c r="M125" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N125" s="205"/>
       <c r="O125" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P125" s="100"/>
       <c r="Q125" s="223"/>
@@ -18142,11 +18149,11 @@
         <v>567</v>
       </c>
       <c r="M126" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N126" s="205"/>
       <c r="O126" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P126" s="158"/>
       <c r="Q126" s="221"/>
@@ -18191,11 +18198,11 @@
         <v>566</v>
       </c>
       <c r="M127" s="151" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N127" s="205"/>
       <c r="O127" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P127" s="158"/>
       <c r="Q127" s="221"/>
@@ -18236,11 +18243,11 @@
         <v>567</v>
       </c>
       <c r="M128" s="100" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N128" s="205"/>
       <c r="O128" s="111" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P128" s="100"/>
       <c r="Q128" s="223"/>
@@ -18281,11 +18288,11 @@
         <v>567</v>
       </c>
       <c r="M129" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N129" s="205"/>
       <c r="O129" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P129" s="158"/>
       <c r="Q129" s="221"/>
@@ -18326,11 +18333,11 @@
         <v>567</v>
       </c>
       <c r="M130" s="100" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N130" s="205"/>
       <c r="O130" s="111" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P130" s="158"/>
       <c r="Q130" s="223"/>
@@ -18375,11 +18382,11 @@
         <v>567</v>
       </c>
       <c r="M131" s="155" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N131" s="205"/>
       <c r="O131" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P131" s="158"/>
       <c r="Q131" s="221"/>
@@ -18420,11 +18427,11 @@
         <v>567</v>
       </c>
       <c r="M132" s="151" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N132" s="205"/>
       <c r="O132" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P132" s="158"/>
       <c r="Q132" s="221"/>
@@ -18462,14 +18469,14 @@
         <v>510</v>
       </c>
       <c r="L133" s="141" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M133" s="145" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N133" s="205"/>
       <c r="O133" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="221"/>
@@ -18510,11 +18517,11 @@
         <v>563</v>
       </c>
       <c r="M134" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N134" s="205"/>
       <c r="O134" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P134" s="158"/>
       <c r="Q134" s="221"/>
@@ -18537,10 +18544,10 @@
       <c r="E135" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="245" t="s">
+      <c r="F135" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G135" s="246"/>
+      <c r="G135" s="256"/>
       <c r="H135" s="93"/>
       <c r="I135" s="111"/>
       <c r="J135" s="101" t="s">
@@ -18553,11 +18560,11 @@
         <v>567</v>
       </c>
       <c r="M135" s="151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N135" s="205"/>
       <c r="O135" s="215" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P135" s="158"/>
       <c r="Q135" s="221"/>
@@ -18570,13 +18577,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="M120:M122"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M112:M116"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K112:K116"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="K120:K122"/>
     <mergeCell ref="I1:M5"/>
     <mergeCell ref="F135:G135"/>
@@ -18593,11 +18598,13 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="M90:M91"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K112:K116"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="M120:M122"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M112:M116"/>
+    <mergeCell ref="S5:T5"/>
   </mergeCells>
   <conditionalFormatting sqref="P7:P29 P37:P54 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119">
     <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
@@ -18709,38 +18716,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="262" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="252"/>
+      <c r="G1" s="262"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="243" t="s">
+      <c r="I1" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="253" t="s">
+      <c r="F2" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="254"/>
+      <c r="G2" s="264"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="275" t="s">
+      <c r="I2" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -18750,10 +18757,10 @@
       <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="257"/>
+      <c r="G4" s="267"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -18801,7 +18808,7 @@
         <v>530</v>
       </c>
       <c r="M6" s="156" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N6" s="197"/>
     </row>
@@ -18839,7 +18846,7 @@
         <v>531</v>
       </c>
       <c r="M7" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N7" s="85"/>
     </row>
@@ -18871,13 +18878,13 @@
         <v>461</v>
       </c>
       <c r="L8" s="48" t="s">
+        <v>575</v>
+      </c>
+      <c r="M8" s="145" t="s">
+        <v>577</v>
+      </c>
+      <c r="N8" s="146" t="s">
         <v>576</v>
-      </c>
-      <c r="M8" s="145" t="s">
-        <v>578</v>
-      </c>
-      <c r="N8" s="146" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.3">
@@ -18905,7 +18912,7 @@
         <v>540</v>
       </c>
       <c r="M9" s="145" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N9" s="85"/>
     </row>
@@ -18934,7 +18941,7 @@
         <v>540</v>
       </c>
       <c r="M10" s="145" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N10" s="85"/>
     </row>
@@ -18967,7 +18974,7 @@
         <v>531</v>
       </c>
       <c r="M11" s="149" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="N11" s="85"/>
     </row>
@@ -19002,7 +19009,7 @@
         <v>537</v>
       </c>
       <c r="M12" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N12" s="85"/>
     </row>
@@ -19029,13 +19036,13 @@
       </c>
       <c r="J13" s="100"/>
       <c r="K13" s="137" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L13" s="182" t="s">
         <v>544</v>
       </c>
       <c r="M13" s="151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N13" s="85"/>
     </row>
@@ -19070,7 +19077,7 @@
         <v>567</v>
       </c>
       <c r="M14" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N14" s="85"/>
     </row>
@@ -19103,7 +19110,7 @@
         <v>557</v>
       </c>
       <c r="M15" s="151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N15" s="85"/>
     </row>
@@ -19136,7 +19143,7 @@
         <v>567</v>
       </c>
       <c r="M16" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N16" s="85"/>
     </row>
@@ -19171,7 +19178,7 @@
         <v>556</v>
       </c>
       <c r="M17" s="145" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N17" s="85"/>
     </row>
@@ -19204,7 +19211,7 @@
         <v>567</v>
       </c>
       <c r="M18" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N18" s="85"/>
     </row>
@@ -19234,10 +19241,10 @@
         <v>510</v>
       </c>
       <c r="L19" s="48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M19" s="145" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="N19" s="85"/>
     </row>
@@ -19270,7 +19277,7 @@
         <v>567</v>
       </c>
       <c r="M20" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N20" s="85"/>
     </row>
@@ -19303,7 +19310,7 @@
         <v>567</v>
       </c>
       <c r="M21" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N21" s="85"/>
     </row>
@@ -19336,7 +19343,7 @@
         <v>567</v>
       </c>
       <c r="M22" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N22" s="85"/>
     </row>
@@ -19369,7 +19376,7 @@
         <v>567</v>
       </c>
       <c r="M23" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N23" s="85"/>
     </row>
@@ -19402,7 +19409,7 @@
         <v>567</v>
       </c>
       <c r="M24" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N24" s="85"/>
     </row>
@@ -19435,7 +19442,7 @@
         <v>567</v>
       </c>
       <c r="M25" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N25" s="85"/>
     </row>
@@ -19468,7 +19475,7 @@
         <v>531</v>
       </c>
       <c r="M26" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N26" s="85"/>
     </row>
@@ -19534,7 +19541,7 @@
         <v>567</v>
       </c>
       <c r="M28" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N28" s="85"/>
     </row>
@@ -19567,7 +19574,7 @@
         <v>531</v>
       </c>
       <c r="M29" s="161" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N29" s="85"/>
     </row>
@@ -19600,7 +19607,7 @@
         <v>567</v>
       </c>
       <c r="M30" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N30" s="85"/>
     </row>
@@ -19633,7 +19640,7 @@
         <v>567</v>
       </c>
       <c r="M31" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N31" s="85"/>
     </row>
@@ -19670,7 +19677,7 @@
         <v>545</v>
       </c>
       <c r="M32" s="161" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N32" s="85"/>
     </row>
@@ -19703,7 +19710,7 @@
         <v>567</v>
       </c>
       <c r="M33" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N33" s="85"/>
     </row>
@@ -19736,7 +19743,7 @@
         <v>567</v>
       </c>
       <c r="M34" s="173" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N34" s="85"/>
     </row>
@@ -19768,10 +19775,10 @@
         <v>451</v>
       </c>
       <c r="L35" s="48" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M35" s="161" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="N35" s="85"/>
     </row>
@@ -19804,7 +19811,7 @@
         <v>547</v>
       </c>
       <c r="M36" s="161" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N36" s="85"/>
     </row>
@@ -19819,10 +19826,10 @@
       <c r="E37" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="245" t="s">
+      <c r="F37" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="246"/>
+      <c r="G37" s="256"/>
       <c r="H37" s="93"/>
       <c r="I37" s="111"/>
       <c r="J37" s="101" t="s">
@@ -19835,7 +19842,7 @@
         <v>567</v>
       </c>
       <c r="M37" s="161" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N37" s="85"/>
     </row>
@@ -19868,7 +19875,7 @@
         <v>531</v>
       </c>
       <c r="M38" s="161" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N38" s="85"/>
     </row>
@@ -19883,10 +19890,10 @@
       <c r="E39" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="245" t="s">
+      <c r="F39" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="246"/>
+      <c r="G39" s="256"/>
       <c r="H39" s="93"/>
       <c r="I39" s="111"/>
       <c r="J39" s="101" t="s">
@@ -19899,7 +19906,7 @@
         <v>567</v>
       </c>
       <c r="M39" s="161" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N39" s="85"/>
     </row>
@@ -19932,7 +19939,7 @@
         <v>551</v>
       </c>
       <c r="M40" s="161" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N40" s="85"/>
     </row>
@@ -19947,10 +19954,10 @@
       <c r="E41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="245" t="s">
+      <c r="F41" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="246"/>
+      <c r="G41" s="256"/>
       <c r="H41" s="93"/>
       <c r="I41" s="111"/>
       <c r="J41" s="101" t="s">
@@ -19963,7 +19970,7 @@
         <v>567</v>
       </c>
       <c r="M41" s="161" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N41" s="85"/>
     </row>
@@ -19996,7 +20003,7 @@
         <v>559</v>
       </c>
       <c r="M42" s="161" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="N42" s="85"/>
     </row>
@@ -20023,13 +20030,13 @@
         <v>319</v>
       </c>
       <c r="K43" s="122" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="L43" s="162" t="s">
         <v>567</v>
       </c>
       <c r="M43" s="161" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N43" s="85"/>
     </row>
@@ -20055,7 +20062,7 @@
       <c r="H44" s="93"/>
       <c r="I44" s="111"/>
       <c r="J44" s="99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K44" s="137" t="s">
         <v>498</v>
@@ -20064,7 +20071,7 @@
         <v>560</v>
       </c>
       <c r="M44" s="161" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N44" s="85"/>
     </row>
@@ -20099,7 +20106,7 @@
         <v>560</v>
       </c>
       <c r="M45" s="161" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N45" s="85"/>
     </row>
@@ -20132,7 +20139,7 @@
         <v>567</v>
       </c>
       <c r="M46" s="161" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N46" s="85"/>
     </row>
@@ -20165,7 +20172,7 @@
         <v>567</v>
       </c>
       <c r="M47" s="161" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N47" s="85"/>
     </row>
@@ -20188,17 +20195,17 @@
       </c>
       <c r="H48" s="93"/>
       <c r="I48" s="111"/>
-      <c r="J48" s="251" t="s">
+      <c r="J48" s="261" t="s">
         <v>517</v>
       </c>
-      <c r="K48" s="235" t="s">
+      <c r="K48" s="272" t="s">
         <v>518</v>
       </c>
       <c r="L48" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M48" s="272" t="s">
-        <v>607</v>
+      <c r="M48" s="279" t="s">
+        <v>606</v>
       </c>
       <c r="N48" s="85"/>
     </row>
@@ -20221,12 +20228,12 @@
       </c>
       <c r="H49" s="93"/>
       <c r="I49" s="111"/>
-      <c r="J49" s="251"/>
-      <c r="K49" s="236"/>
+      <c r="J49" s="261"/>
+      <c r="K49" s="273"/>
       <c r="L49" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M49" s="273"/>
+      <c r="M49" s="280"/>
       <c r="N49" s="85"/>
     </row>
     <row r="50" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20248,12 +20255,12 @@
       </c>
       <c r="H50" s="93"/>
       <c r="I50" s="111"/>
-      <c r="J50" s="251"/>
-      <c r="K50" s="236"/>
+      <c r="J50" s="261"/>
+      <c r="K50" s="273"/>
       <c r="L50" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M50" s="273"/>
+      <c r="M50" s="280"/>
       <c r="N50" s="85"/>
     </row>
     <row r="51" spans="2:14" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20275,12 +20282,12 @@
       </c>
       <c r="H51" s="93"/>
       <c r="I51" s="111"/>
-      <c r="J51" s="251"/>
-      <c r="K51" s="236"/>
+      <c r="J51" s="261"/>
+      <c r="K51" s="273"/>
       <c r="L51" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M51" s="273"/>
+      <c r="M51" s="280"/>
       <c r="N51" s="85"/>
     </row>
     <row r="52" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20302,12 +20309,12 @@
       </c>
       <c r="H52" s="93"/>
       <c r="I52" s="111"/>
-      <c r="J52" s="251"/>
-      <c r="K52" s="237"/>
+      <c r="J52" s="261"/>
+      <c r="K52" s="274"/>
       <c r="L52" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M52" s="274"/>
+      <c r="M52" s="281"/>
       <c r="N52" s="85"/>
     </row>
     <row r="53" spans="2:14" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20321,10 +20328,10 @@
       <c r="E53" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="249" t="s">
+      <c r="F53" s="259" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="250"/>
+      <c r="G53" s="260"/>
       <c r="H53" s="93"/>
       <c r="I53" s="111"/>
       <c r="J53" s="101" t="s">
@@ -20337,7 +20344,7 @@
         <v>565</v>
       </c>
       <c r="M53" s="161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N53" s="85"/>
     </row>
@@ -20372,7 +20379,7 @@
         <v>566</v>
       </c>
       <c r="M54" s="161" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N54" s="85"/>
     </row>
@@ -20387,10 +20394,10 @@
       <c r="E55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="245" t="s">
+      <c r="F55" s="255" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="246"/>
+      <c r="G55" s="256"/>
       <c r="H55" s="93"/>
       <c r="I55" s="111"/>
       <c r="J55" s="101" t="s">
@@ -20403,7 +20410,7 @@
         <v>567</v>
       </c>
       <c r="M55" s="161" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N55" s="85"/>
     </row>
@@ -20874,11 +20881,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="M48:M52"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F37:G37"/>
@@ -20887,6 +20889,11 @@
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="J48:J52"/>
     <mergeCell ref="K48:K52"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20916,36 +20923,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="262" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="252"/>
+      <c r="G1" s="262"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="243" t="s">
+      <c r="I1" s="253" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="243"/>
-      <c r="K1" s="243"/>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F2" s="253" t="s">
+      <c r="F2" s="263" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="254"/>
+      <c r="G2" s="264"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="275" t="s">
+      <c r="I2" s="277" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="255"/>
-      <c r="G3" s="256"/>
+      <c r="F3" s="265"/>
+      <c r="G3" s="266"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -20954,10 +20961,10 @@
       <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="257" t="s">
+      <c r="F4" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="257"/>
+      <c r="G4" s="267"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -21005,12 +21012,12 @@
         <v>530</v>
       </c>
       <c r="M6" s="156" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="187.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="191" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B7" s="190" t="s">
         <v>50</v>
@@ -21034,18 +21041,18 @@
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="122" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L7" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M7" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="189" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B8" s="190" t="s">
         <v>86</v>
@@ -21075,12 +21082,12 @@
         <v>531</v>
       </c>
       <c r="M8" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="189" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B9" s="190" t="s">
         <v>133</v>
@@ -21112,12 +21119,12 @@
         <v>536</v>
       </c>
       <c r="M9" s="151" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="189" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B10" s="190" t="s">
         <v>183</v>
@@ -21147,12 +21154,12 @@
         <v>567</v>
       </c>
       <c r="M10" s="151" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="189" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B11" s="190" t="s">
         <v>282</v>
@@ -21184,12 +21191,12 @@
         <v>554</v>
       </c>
       <c r="M11" s="145" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="189" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" s="190" t="s">
         <v>350</v>
@@ -21219,12 +21226,12 @@
         <v>555</v>
       </c>
       <c r="M12" s="145" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B13" s="163" t="s">
         <v>357</v>
@@ -21254,12 +21261,12 @@
         <v>562</v>
       </c>
       <c r="M13" s="149" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="189" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B14" s="163" t="s">
         <v>380</v>
@@ -21291,7 +21298,7 @@
         <v>567</v>
       </c>
       <c r="M14" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
@@ -21319,15 +21326,15 @@
         <v>451</v>
       </c>
       <c r="L15" s="186" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M15" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="185" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B16" s="184" t="s">
         <v>59</v>
@@ -21356,15 +21363,15 @@
         <v>455</v>
       </c>
       <c r="L16" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M16" s="145" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="178" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B17" s="163" t="s">
         <v>73</v>
@@ -21396,12 +21403,12 @@
         <v>567</v>
       </c>
       <c r="M17" s="149" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A18" s="183" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B18" s="176" t="s">
         <v>83</v>
@@ -21433,12 +21440,12 @@
         <v>567</v>
       </c>
       <c r="M18" s="149" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A19" s="178" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>174</v>
@@ -21465,15 +21472,15 @@
         <v>510</v>
       </c>
       <c r="L19" s="182" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M19" s="145" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="179" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B20" s="181" t="s">
         <v>180</v>
@@ -21505,12 +21512,12 @@
         <v>567</v>
       </c>
       <c r="M20" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>191</v>
@@ -21540,12 +21547,12 @@
         <v>563</v>
       </c>
       <c r="M21" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="179" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>221</v>
@@ -21577,12 +21584,12 @@
         <v>567</v>
       </c>
       <c r="M22" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>225</v>
@@ -21612,12 +21619,12 @@
         <v>563</v>
       </c>
       <c r="M23" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>272</v>
@@ -21647,12 +21654,12 @@
         <v>563</v>
       </c>
       <c r="M24" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>274</v>
@@ -21682,12 +21689,12 @@
         <v>563</v>
       </c>
       <c r="M25" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="178" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>279</v>
@@ -21717,12 +21724,12 @@
         <v>567</v>
       </c>
       <c r="M26" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>297</v>
@@ -21752,12 +21759,12 @@
         <v>567</v>
       </c>
       <c r="M27" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>299</v>
@@ -21787,12 +21794,12 @@
         <v>567</v>
       </c>
       <c r="M28" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>301</v>
@@ -21822,12 +21829,12 @@
         <v>567</v>
       </c>
       <c r="M29" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="178" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>320</v>
@@ -21857,12 +21864,12 @@
         <v>567</v>
       </c>
       <c r="M30" s="151" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>327</v>
@@ -21892,12 +21899,12 @@
         <v>567</v>
       </c>
       <c r="M31" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>353</v>
@@ -21923,16 +21930,16 @@
       <c r="K32" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L32" s="277" t="s">
+      <c r="L32" s="282" t="s">
         <v>563</v>
       </c>
       <c r="M32" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>355</v>
@@ -21958,14 +21965,14 @@
       <c r="K33" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L33" s="278"/>
+      <c r="L33" s="283"/>
       <c r="M33" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>360</v>
@@ -21995,12 +22002,12 @@
         <v>563</v>
       </c>
       <c r="M34" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A35" s="180" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>368</v>
@@ -22030,12 +22037,12 @@
         <v>567</v>
       </c>
       <c r="M35" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="180" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>378</v>
@@ -22065,12 +22072,12 @@
         <v>567</v>
       </c>
       <c r="M36" s="145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="179" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>389</v>
@@ -22102,12 +22109,12 @@
         <v>567</v>
       </c>
       <c r="M37" s="151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="179" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>410</v>
@@ -22137,12 +22144,12 @@
         <v>567</v>
       </c>
       <c r="M38" s="151" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>415</v>
@@ -22172,7 +22179,7 @@
         <v>563</v>
       </c>
       <c r="M39" s="151" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -22201,154 +22208,154 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D1" s="279" t="s">
+      <c r="D1" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="279"/>
-      <c r="F1" s="279"/>
-      <c r="G1" s="279"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="279"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="279"/>
-      <c r="G3" s="279"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="279"/>
-      <c r="E8" s="279"/>
-      <c r="F8" s="279"/>
-      <c r="G8" s="279"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="279" t="s">
+      <c r="D12" s="284" t="s">
+        <v>658</v>
+      </c>
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="284"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="284"/>
+      <c r="E13" s="284"/>
+      <c r="F13" s="284"/>
+      <c r="G13" s="284"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="284"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="284"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="284"/>
+      <c r="E15" s="284"/>
+      <c r="F15" s="284"/>
+      <c r="G15" s="284"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="284"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="284"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="284"/>
+      <c r="E18" s="284"/>
+      <c r="F18" s="284"/>
+      <c r="G18" s="284"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="284"/>
+      <c r="E19" s="284"/>
+      <c r="F19" s="284"/>
+      <c r="G19" s="284"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="284" t="s">
         <v>659</v>
       </c>
-      <c r="E12" s="279"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="279"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="279"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="279"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="279"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="279"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="279"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="279"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="279"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="279"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="279"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="279"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="279"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="279"/>
-      <c r="E19" s="279"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="279"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="279" t="s">
-        <v>660</v>
-      </c>
-      <c r="E24" s="279"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="279"/>
+      <c r="E24" s="284"/>
+      <c r="F24" s="284"/>
+      <c r="G24" s="284"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="284"/>
+      <c r="F25" s="284"/>
+      <c r="G25" s="284"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="279"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="279"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="284"/>
+      <c r="F26" s="284"/>
+      <c r="G26" s="284"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
+      <c r="D27" s="284"/>
+      <c r="E27" s="284"/>
+      <c r="F27" s="284"/>
+      <c r="G27" s="284"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="279"/>
-      <c r="E28" s="279"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="279"/>
+      <c r="D28" s="284"/>
+      <c r="E28" s="284"/>
+      <c r="F28" s="284"/>
+      <c r="G28" s="284"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
+      <c r="D29" s="284"/>
+      <c r="E29" s="284"/>
+      <c r="F29" s="284"/>
+      <c r="G29" s="284"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="279"/>
-      <c r="E30" s="279"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="279"/>
+      <c r="D30" s="284"/>
+      <c r="E30" s="284"/>
+      <c r="F30" s="284"/>
+      <c r="G30" s="284"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="279"/>
-      <c r="E31" s="279"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="279"/>
+      <c r="D31" s="284"/>
+      <c r="E31" s="284"/>
+      <c r="F31" s="284"/>
+      <c r="G31" s="284"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22376,32 +22383,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
+++ b/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="691">
   <si>
     <t>Impact on Portrayal</t>
   </si>
@@ -8770,22 +8770,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Update 'ECDIS Perfomance requirements log'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Allocate prototyping to KHOA and NIWC</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
     </r>
   </si>
   <si>
@@ -9436,13 +9420,55 @@
   </si>
   <si>
     <t>Refer to Github Issue # 42</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Allocate task to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NIWC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>KHOA</t>
+    </r>
+  </si>
+  <si>
+    <t>Refer to Github Issues # 39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10002,6 +10028,23 @@
       <strike/>
       <sz val="14"/>
       <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11718,6 +11761,91 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -11739,10 +11867,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11758,85 +11882,13 @@
     <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11844,15 +11896,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11874,7 +11917,131 @@
     <cellStyle name="Neutral 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -12425,7 +12592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12436,10 +12603,10 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="M13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12468,18 +12635,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="257" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="262"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="253" t="s">
-        <v>665</v>
-      </c>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="I1" s="248" t="s">
+        <v>664</v>
+      </c>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
       <c r="N1" s="201"/>
       <c r="O1" s="198"/>
       <c r="P1" s="198"/>
@@ -12488,22 +12655,22 @@
       <c r="S1" s="200"/>
       <c r="T1" s="200"/>
       <c r="U1" s="201"/>
-      <c r="V1" s="236" t="s">
-        <v>667</v>
-      </c>
-      <c r="W1" s="236"/>
+      <c r="V1" s="265" t="s">
+        <v>666</v>
+      </c>
+      <c r="W1" s="265"/>
     </row>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="264"/>
+      <c r="G2" s="259"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="253"/>
-      <c r="J2" s="253"/>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
       <c r="N2" s="201"/>
       <c r="O2" s="198"/>
       <c r="P2" s="198"/>
@@ -12512,18 +12679,18 @@
       <c r="S2" s="200"/>
       <c r="T2" s="200"/>
       <c r="U2" s="201"/>
-      <c r="V2" s="236"/>
-      <c r="W2" s="236"/>
+      <c r="V2" s="265"/>
+      <c r="W2" s="265"/>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="90"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
-      <c r="M3" s="253"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
+      <c r="L3" s="248"/>
+      <c r="M3" s="248"/>
       <c r="N3" s="201"/>
       <c r="O3" s="198"/>
       <c r="P3" s="198"/>
@@ -12532,20 +12699,20 @@
       <c r="S3" s="200"/>
       <c r="T3" s="200"/>
       <c r="U3" s="201"/>
-      <c r="V3" s="236"/>
-      <c r="W3" s="236"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
     </row>
     <row r="4" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="262"/>
       <c r="H4" s="94"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
       <c r="N4" s="201"/>
       <c r="O4" s="198"/>
       <c r="P4" s="198"/>
@@ -12554,11 +12721,11 @@
       <c r="S4" s="200"/>
       <c r="T4" s="200"/>
       <c r="U4" s="201"/>
-      <c r="V4" s="237" t="s">
+      <c r="V4" s="266" t="s">
+        <v>667</v>
+      </c>
+      <c r="W4" s="266" t="s">
         <v>668</v>
-      </c>
-      <c r="W4" s="237" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12569,25 +12736,25 @@
         <v>17</v>
       </c>
       <c r="H5" s="94"/>
-      <c r="I5" s="254"/>
-      <c r="J5" s="254"/>
-      <c r="K5" s="254"/>
-      <c r="L5" s="254"/>
-      <c r="M5" s="254"/>
+      <c r="I5" s="249"/>
+      <c r="J5" s="249"/>
+      <c r="K5" s="249"/>
+      <c r="L5" s="249"/>
+      <c r="M5" s="249"/>
       <c r="N5" s="202"/>
       <c r="O5" s="199"/>
-      <c r="P5" s="275" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q5" s="276"/>
+      <c r="P5" s="243" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q5" s="244"/>
       <c r="R5" s="202"/>
-      <c r="S5" s="248" t="s">
-        <v>685</v>
-      </c>
-      <c r="T5" s="249"/>
+      <c r="S5" s="275" t="s">
+        <v>684</v>
+      </c>
+      <c r="T5" s="276"/>
       <c r="U5" s="202"/>
-      <c r="V5" s="238"/>
-      <c r="W5" s="238"/>
+      <c r="V5" s="267"/>
+      <c r="W5" s="267"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -12620,28 +12787,28 @@
         <v>530</v>
       </c>
       <c r="M6" s="210" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N6" s="203"/>
       <c r="O6" s="212" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="P6" s="213" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="Q6" s="213" t="s">
         <v>1</v>
       </c>
       <c r="R6" s="203"/>
       <c r="S6" s="230" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="T6" s="230" t="s">
         <v>1</v>
       </c>
       <c r="U6" s="203"/>
-      <c r="V6" s="239"/>
-      <c r="W6" s="239"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="268"/>
     </row>
     <row r="7" spans="1:23" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -12677,10 +12844,10 @@
       </c>
       <c r="N7" s="204"/>
       <c r="O7" s="214" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P7" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q7" s="220"/>
       <c r="R7" s="204"/>
@@ -12730,10 +12897,10 @@
       </c>
       <c r="N8" s="205"/>
       <c r="O8" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P8" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q8" s="221"/>
       <c r="R8" s="205"/>
@@ -12777,10 +12944,10 @@
       </c>
       <c r="N9" s="205"/>
       <c r="O9" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P9" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q9" s="221"/>
       <c r="R9" s="205"/>
@@ -12824,13 +12991,13 @@
       </c>
       <c r="N10" s="205"/>
       <c r="O10" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P10" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q10" s="222" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R10" s="205"/>
       <c r="S10" s="85"/>
@@ -12869,20 +13036,20 @@
       </c>
       <c r="N11" s="205"/>
       <c r="O11" s="232" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P11" s="233" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Q11" s="234" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R11" s="205"/>
       <c r="S11" s="158" t="s">
+        <v>685</v>
+      </c>
+      <c r="T11" s="158" t="s">
         <v>686</v>
-      </c>
-      <c r="T11" s="158" t="s">
-        <v>687</v>
       </c>
       <c r="U11" s="205"/>
       <c r="V11" s="103"/>
@@ -12922,10 +13089,10 @@
       </c>
       <c r="N12" s="205"/>
       <c r="O12" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P12" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q12" s="221"/>
       <c r="R12" s="205"/>
@@ -12969,13 +13136,13 @@
       </c>
       <c r="N13" s="205"/>
       <c r="O13" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P13" s="158" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q13" s="221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R13" s="205"/>
       <c r="S13" s="158" t="s">
@@ -13022,10 +13189,10 @@
       </c>
       <c r="N14" s="205"/>
       <c r="O14" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P14" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q14" s="221"/>
       <c r="R14" s="205"/>
@@ -13073,13 +13240,13 @@
       </c>
       <c r="N15" s="205"/>
       <c r="O15" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P15" s="158" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q15" s="221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R15" s="205"/>
       <c r="S15" s="158" t="s">
@@ -13126,10 +13293,10 @@
       </c>
       <c r="N16" s="205"/>
       <c r="O16" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P16" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q16" s="221"/>
       <c r="R16" s="205"/>
@@ -13173,10 +13340,10 @@
       </c>
       <c r="N17" s="205"/>
       <c r="O17" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P17" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q17" s="221"/>
       <c r="R17" s="205"/>
@@ -13224,13 +13391,13 @@
       </c>
       <c r="N18" s="205"/>
       <c r="O18" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P18" s="158" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q18" s="221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R18" s="205"/>
       <c r="S18" s="85"/>
@@ -13273,10 +13440,10 @@
       </c>
       <c r="N19" s="205"/>
       <c r="O19" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P19" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q19" s="221"/>
       <c r="R19" s="205"/>
@@ -13320,10 +13487,10 @@
       </c>
       <c r="N20" s="205"/>
       <c r="O20" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P20" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q20" s="221"/>
       <c r="R20" s="205"/>
@@ -13371,13 +13538,13 @@
       </c>
       <c r="N21" s="205"/>
       <c r="O21" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P21" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q21" s="222" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R21" s="205"/>
       <c r="S21" s="85"/>
@@ -13387,7 +13554,7 @@
       <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="129" t="s">
+      <c r="A22" s="176" t="s">
         <v>439</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -13420,10 +13587,10 @@
       </c>
       <c r="N22" s="205"/>
       <c r="O22" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P22" s="158" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Q22" s="221"/>
       <c r="R22" s="205"/>
@@ -13467,13 +13634,13 @@
       </c>
       <c r="N23" s="205"/>
       <c r="O23" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P23" s="158" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="Q23" s="221" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R23" s="205"/>
       <c r="S23" s="85"/>
@@ -13512,16 +13679,18 @@
         <v>567</v>
       </c>
       <c r="M24" s="149" t="s">
-        <v>609</v>
+        <v>689</v>
       </c>
       <c r="N24" s="205"/>
       <c r="O24" s="215" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
       <c r="P24" s="158" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q24" s="221" t="s">
         <v>677</v>
       </c>
-      <c r="Q24" s="221"/>
       <c r="R24" s="205"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
@@ -13563,10 +13732,10 @@
       </c>
       <c r="N25" s="205"/>
       <c r="O25" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P25" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q25" s="221"/>
       <c r="R25" s="205"/>
@@ -13614,13 +13783,13 @@
       </c>
       <c r="N26" s="205"/>
       <c r="O26" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P26" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q26" s="222" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R26" s="205"/>
       <c r="S26" s="85"/>
@@ -13667,10 +13836,10 @@
       </c>
       <c r="N27" s="205"/>
       <c r="O27" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P27" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q27" s="221"/>
       <c r="R27" s="205"/>
@@ -13710,10 +13879,10 @@
       </c>
       <c r="N28" s="205"/>
       <c r="O28" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P28" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q28" s="221"/>
       <c r="R28" s="205"/>
@@ -13753,10 +13922,10 @@
       </c>
       <c r="N29" s="205"/>
       <c r="O29" s="215" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="P29" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q29" s="221"/>
       <c r="R29" s="205"/>
@@ -13837,13 +14006,13 @@
       </c>
       <c r="N31" s="206"/>
       <c r="O31" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P31" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q31" s="222" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R31" s="206"/>
       <c r="S31" s="85"/>
@@ -13886,10 +14055,10 @@
       </c>
       <c r="N32" s="205"/>
       <c r="O32" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P32" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q32" s="221"/>
       <c r="R32" s="205"/>
@@ -13933,10 +14102,10 @@
       </c>
       <c r="N33" s="205"/>
       <c r="O33" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P33" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q33" s="221"/>
       <c r="R33" s="205"/>
@@ -13983,10 +14152,10 @@
         <v>581</v>
       </c>
       <c r="P34" s="158" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q34" s="228" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R34" s="206"/>
       <c r="S34" s="85"/>
@@ -14029,7 +14198,7 @@
       </c>
       <c r="N35" s="205"/>
       <c r="O35" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P35" s="158"/>
       <c r="Q35" s="221"/>
@@ -14119,10 +14288,10 @@
       </c>
       <c r="N37" s="205"/>
       <c r="O37" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P37" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q37" s="221"/>
       <c r="R37" s="205"/>
@@ -14170,13 +14339,13 @@
       </c>
       <c r="N38" s="205"/>
       <c r="O38" s="215" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P38" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q38" s="229" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R38" s="205"/>
       <c r="S38" s="85"/>
@@ -14186,7 +14355,7 @@
       <c r="W38" s="85"/>
     </row>
     <row r="39" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A39" s="129" t="s">
+      <c r="A39" s="176" t="s">
         <v>445</v>
       </c>
       <c r="B39" s="125" t="s">
@@ -14219,10 +14388,10 @@
       </c>
       <c r="N39" s="205"/>
       <c r="O39" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P39" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q39" s="221"/>
       <c r="R39" s="205"/>
@@ -14342,10 +14511,10 @@
       </c>
       <c r="N42" s="205"/>
       <c r="O42" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P42" s="158" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="Q42" s="221"/>
       <c r="R42" s="205"/>
@@ -14438,10 +14607,10 @@
       </c>
       <c r="N44" s="205"/>
       <c r="O44" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P44" s="158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q44" s="221"/>
       <c r="R44" s="205"/>
@@ -14485,7 +14654,7 @@
       </c>
       <c r="N45" s="205"/>
       <c r="O45" s="215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P45" s="158"/>
       <c r="Q45" s="221"/>
@@ -14575,7 +14744,7 @@
       </c>
       <c r="N47" s="205"/>
       <c r="O47" s="215" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="P47" s="158"/>
       <c r="Q47" s="221"/>
@@ -14620,7 +14789,7 @@
       </c>
       <c r="N48" s="208"/>
       <c r="O48" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P48" s="158"/>
       <c r="R48" s="208"/>
@@ -14664,7 +14833,7 @@
       </c>
       <c r="N49" s="205"/>
       <c r="O49" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P49" s="158"/>
       <c r="Q49" s="221"/>
@@ -14709,7 +14878,7 @@
       </c>
       <c r="N50" s="205"/>
       <c r="O50" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P50" s="158"/>
       <c r="Q50" s="221"/>
@@ -14758,7 +14927,7 @@
       </c>
       <c r="N51" s="205"/>
       <c r="O51" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P51" s="158"/>
       <c r="Q51" s="221"/>
@@ -14798,15 +14967,19 @@
       <c r="L52" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M52" s="151" t="s">
-        <v>612</v>
-      </c>
-      <c r="N52" s="205"/>
+      <c r="M52" s="154" t="s">
+        <v>573</v>
+      </c>
+      <c r="N52" s="206"/>
       <c r="O52" s="215" t="s">
-        <v>663</v>
-      </c>
-      <c r="P52" s="158"/>
-      <c r="Q52" s="221"/>
+        <v>629</v>
+      </c>
+      <c r="P52" s="158" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q52" s="222" t="s">
+        <v>690</v>
+      </c>
       <c r="R52" s="205"/>
       <c r="S52" s="85"/>
       <c r="T52" s="85"/>
@@ -14854,7 +15027,7 @@
       </c>
       <c r="N53" s="205"/>
       <c r="O53" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P53" s="158"/>
       <c r="Q53" s="221"/>
@@ -14899,7 +15072,7 @@
       </c>
       <c r="N54" s="205"/>
       <c r="O54" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P54" s="158"/>
       <c r="Q54" s="221"/>
@@ -14989,7 +15162,7 @@
       </c>
       <c r="N56" s="205"/>
       <c r="O56" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P56" s="158"/>
       <c r="Q56" s="221"/>
@@ -15034,7 +15207,7 @@
       </c>
       <c r="N57" s="205"/>
       <c r="O57" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P57" s="158"/>
       <c r="Q57" s="221"/>
@@ -15083,7 +15256,7 @@
       </c>
       <c r="N58" s="205"/>
       <c r="O58" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P58" s="158"/>
       <c r="Q58" s="221"/>
@@ -15173,7 +15346,7 @@
       </c>
       <c r="N60" s="205"/>
       <c r="O60" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P60" s="158"/>
       <c r="Q60" s="221"/>
@@ -15222,7 +15395,7 @@
       </c>
       <c r="N61" s="205"/>
       <c r="O61" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P61" s="158"/>
       <c r="Q61" s="221"/>
@@ -15271,7 +15444,7 @@
       </c>
       <c r="N62" s="205"/>
       <c r="O62" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P62" s="158"/>
       <c r="Q62" s="221"/>
@@ -15320,7 +15493,7 @@
       </c>
       <c r="N63" s="205"/>
       <c r="O63" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P63" s="158"/>
       <c r="Q63" s="221"/>
@@ -15365,7 +15538,7 @@
       </c>
       <c r="N64" s="205"/>
       <c r="O64" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P64" s="158"/>
       <c r="Q64" s="221"/>
@@ -15388,10 +15561,10 @@
       <c r="E65" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="255" t="s">
+      <c r="F65" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="256"/>
+      <c r="G65" s="251"/>
       <c r="H65" s="93"/>
       <c r="I65" s="111"/>
       <c r="J65" s="101" t="s">
@@ -15404,11 +15577,11 @@
         <v>567</v>
       </c>
       <c r="M65" s="151" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N65" s="205"/>
       <c r="O65" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P65" s="158"/>
       <c r="Q65" s="221"/>
@@ -15476,10 +15649,10 @@
       <c r="E67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F67" s="257" t="s">
+      <c r="F67" s="252" t="s">
         <v>235</v>
       </c>
-      <c r="G67" s="258"/>
+      <c r="G67" s="253"/>
       <c r="H67" s="93"/>
       <c r="I67" s="121"/>
       <c r="J67" s="101" t="s">
@@ -15537,11 +15710,11 @@
         <v>531</v>
       </c>
       <c r="M68" s="151" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N68" s="205"/>
       <c r="O68" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P68" s="158"/>
       <c r="Q68" s="221"/>
@@ -15699,10 +15872,10 @@
       <c r="E72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="255" t="s">
+      <c r="F72" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="256"/>
+      <c r="G72" s="251"/>
       <c r="H72" s="93"/>
       <c r="I72" s="111"/>
       <c r="J72" s="101" t="s">
@@ -15715,11 +15888,11 @@
         <v>567</v>
       </c>
       <c r="M72" s="151" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N72" s="205"/>
       <c r="O72" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P72" s="158"/>
       <c r="Q72" s="221"/>
@@ -15764,7 +15937,7 @@
       </c>
       <c r="N73" s="205"/>
       <c r="O73" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P73" s="158"/>
       <c r="Q73" s="221"/>
@@ -15809,11 +15982,11 @@
         <v>567</v>
       </c>
       <c r="M74" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N74" s="205"/>
       <c r="O74" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P74" s="158"/>
       <c r="Q74" s="221"/>
@@ -15930,10 +16103,10 @@
       <c r="E77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F77" s="255" t="s">
+      <c r="F77" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G77" s="256"/>
+      <c r="G77" s="251"/>
       <c r="H77" s="93"/>
       <c r="I77" s="111"/>
       <c r="J77" s="101" t="s">
@@ -15946,11 +16119,11 @@
         <v>567</v>
       </c>
       <c r="M77" s="151" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N77" s="205"/>
       <c r="O77" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P77" s="158"/>
       <c r="Q77" s="221"/>
@@ -15995,7 +16168,7 @@
       </c>
       <c r="N78" s="205"/>
       <c r="O78" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P78" s="158"/>
       <c r="Q78" s="221"/>
@@ -16040,7 +16213,7 @@
       </c>
       <c r="N79" s="205"/>
       <c r="O79" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P79" s="158"/>
       <c r="Q79" s="221"/>
@@ -16063,10 +16236,10 @@
       <c r="E80" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F80" s="255" t="s">
+      <c r="F80" s="250" t="s">
         <v>278</v>
       </c>
-      <c r="G80" s="256"/>
+      <c r="G80" s="251"/>
       <c r="H80" s="93"/>
       <c r="I80" s="111"/>
       <c r="J80" s="99" t="s">
@@ -16124,11 +16297,11 @@
         <v>567</v>
       </c>
       <c r="M81" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N81" s="205"/>
       <c r="O81" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P81" s="158"/>
       <c r="Q81" s="221"/>
@@ -16177,7 +16350,7 @@
       </c>
       <c r="N82" s="205"/>
       <c r="O82" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P82" s="158"/>
       <c r="Q82" s="221"/>
@@ -16263,11 +16436,11 @@
         <v>567</v>
       </c>
       <c r="M84" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N84" s="205"/>
       <c r="O84" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P84" s="158"/>
       <c r="Q84" s="221"/>
@@ -16355,7 +16528,7 @@
       </c>
       <c r="N86" s="205"/>
       <c r="O86" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P86" s="158"/>
       <c r="Q86" s="221"/>
@@ -16400,7 +16573,7 @@
       </c>
       <c r="N87" s="205"/>
       <c r="O87" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P87" s="158"/>
       <c r="Q87" s="221"/>
@@ -16445,7 +16618,7 @@
       </c>
       <c r="N88" s="205"/>
       <c r="O88" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P88" s="158"/>
       <c r="Q88" s="221"/>
@@ -16490,7 +16663,7 @@
       </c>
       <c r="N89" s="205"/>
       <c r="O89" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P89" s="158"/>
       <c r="Q89" s="221"/>
@@ -16517,13 +16690,13 @@
       <c r="E90" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="250" t="s">
         <v>310</v>
       </c>
-      <c r="G90" s="256"/>
+      <c r="G90" s="251"/>
       <c r="H90" s="97"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="261" t="s">
+      <c r="J90" s="256" t="s">
         <v>311</v>
       </c>
       <c r="K90" s="137" t="s">
@@ -16532,7 +16705,7 @@
       <c r="L90" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="268" t="s">
+      <c r="M90" s="263" t="s">
         <v>579</v>
       </c>
       <c r="N90" s="205"/>
@@ -16572,14 +16745,14 @@
       </c>
       <c r="H91" s="97"/>
       <c r="I91" s="111"/>
-      <c r="J91" s="261"/>
+      <c r="J91" s="256"/>
       <c r="K91" s="137" t="s">
         <v>498</v>
       </c>
       <c r="L91" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M91" s="269"/>
+      <c r="M91" s="264"/>
       <c r="N91" s="205"/>
       <c r="O91" s="111" t="s">
         <v>579</v>
@@ -16627,7 +16800,7 @@
       </c>
       <c r="N92" s="205"/>
       <c r="O92" s="215" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P92" s="158"/>
       <c r="Q92" s="221"/>
@@ -16662,17 +16835,17 @@
         <v>319</v>
       </c>
       <c r="K93" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L93" s="85" t="s">
         <v>567</v>
       </c>
       <c r="M93" s="151" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N93" s="205"/>
       <c r="O93" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P93" s="158"/>
       <c r="Q93" s="221"/>
@@ -16713,11 +16886,11 @@
         <v>567</v>
       </c>
       <c r="M94" s="151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N94" s="205"/>
       <c r="O94" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P94" s="158"/>
       <c r="Q94" s="221"/>
@@ -16766,7 +16939,7 @@
       </c>
       <c r="N95" s="205"/>
       <c r="O95" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P95" s="158"/>
       <c r="Q95" s="221"/>
@@ -16815,7 +16988,7 @@
       </c>
       <c r="N96" s="205"/>
       <c r="O96" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P96" s="158"/>
       <c r="Q96" s="221"/>
@@ -16860,7 +17033,7 @@
       </c>
       <c r="N97" s="205"/>
       <c r="O97" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P97" s="158"/>
       <c r="Q97" s="221"/>
@@ -16991,11 +17164,11 @@
         <v>567</v>
       </c>
       <c r="M100" s="151" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N100" s="205"/>
       <c r="O100" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P100" s="158"/>
       <c r="Q100" s="221"/>
@@ -17044,7 +17217,7 @@
       </c>
       <c r="N101" s="205"/>
       <c r="O101" s="215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P101" s="158"/>
       <c r="Q101" s="221"/>
@@ -17085,11 +17258,11 @@
         <v>567</v>
       </c>
       <c r="M102" s="151" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N102" s="205"/>
       <c r="O102" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P102" s="158"/>
       <c r="Q102" s="221"/>
@@ -17116,10 +17289,10 @@
       <c r="E103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="270" t="s">
+      <c r="F103" s="236" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="271"/>
+      <c r="G103" s="237"/>
       <c r="H103" s="93"/>
       <c r="I103" s="111"/>
       <c r="J103" s="101" t="s">
@@ -17128,7 +17301,7 @@
       <c r="K103" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L103" s="243" t="s">
+      <c r="L103" s="238" t="s">
         <v>598</v>
       </c>
       <c r="M103" s="100" t="s">
@@ -17177,7 +17350,7 @@
       <c r="K104" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L104" s="244"/>
+      <c r="L104" s="239"/>
       <c r="M104" s="100" t="s">
         <v>579</v>
       </c>
@@ -17206,10 +17379,10 @@
       <c r="E105" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="270" t="s">
+      <c r="F105" s="236" t="s">
         <v>235</v>
       </c>
-      <c r="G105" s="271"/>
+      <c r="G105" s="237"/>
       <c r="H105" s="93"/>
       <c r="I105" s="111"/>
       <c r="J105" s="101" t="s">
@@ -17320,7 +17493,7 @@
       </c>
       <c r="N107" s="205"/>
       <c r="O107" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P107" s="158"/>
       <c r="Q107" s="221"/>
@@ -17357,7 +17530,7 @@
       <c r="K108" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L108" s="243" t="s">
+      <c r="L108" s="238" t="s">
         <v>563</v>
       </c>
       <c r="M108" s="151" t="s">
@@ -17365,7 +17538,7 @@
       </c>
       <c r="N108" s="205"/>
       <c r="O108" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P108" s="158"/>
       <c r="Q108" s="221"/>
@@ -17402,13 +17575,13 @@
       <c r="K109" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L109" s="244"/>
+      <c r="L109" s="239"/>
       <c r="M109" s="151" t="s">
         <v>604</v>
       </c>
       <c r="N109" s="205"/>
       <c r="O109" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P109" s="158"/>
       <c r="Q109" s="221"/>
@@ -17453,7 +17626,7 @@
       </c>
       <c r="N110" s="209"/>
       <c r="O110" s="219" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P110" s="158"/>
       <c r="Q110" s="227"/>
@@ -17498,7 +17671,7 @@
       </c>
       <c r="N111" s="205"/>
       <c r="O111" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P111" s="158"/>
       <c r="Q111" s="221"/>
@@ -17529,21 +17702,21 @@
       </c>
       <c r="H112" s="93"/>
       <c r="I112" s="111"/>
-      <c r="J112" s="261" t="s">
+      <c r="J112" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="K112" s="272" t="s">
+      <c r="K112" s="240" t="s">
         <v>518</v>
       </c>
       <c r="L112" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M112" s="245" t="s">
+      <c r="M112" s="272" t="s">
         <v>606</v>
       </c>
       <c r="N112" s="205"/>
       <c r="O112" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P112" s="158"/>
       <c r="Q112" s="221"/>
@@ -17574,15 +17747,15 @@
       </c>
       <c r="H113" s="93"/>
       <c r="I113" s="111"/>
-      <c r="J113" s="261"/>
-      <c r="K113" s="273"/>
+      <c r="J113" s="256"/>
+      <c r="K113" s="241"/>
       <c r="L113" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="246"/>
+      <c r="M113" s="273"/>
       <c r="N113" s="205"/>
       <c r="O113" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P113" s="158"/>
       <c r="Q113" s="221"/>
@@ -17613,15 +17786,15 @@
       </c>
       <c r="H114" s="93"/>
       <c r="I114" s="111"/>
-      <c r="J114" s="261"/>
-      <c r="K114" s="273"/>
+      <c r="J114" s="256"/>
+      <c r="K114" s="241"/>
       <c r="L114" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="246"/>
+      <c r="M114" s="273"/>
       <c r="N114" s="205"/>
       <c r="O114" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P114" s="158"/>
       <c r="Q114" s="221"/>
@@ -17652,15 +17825,15 @@
       </c>
       <c r="H115" s="93"/>
       <c r="I115" s="111"/>
-      <c r="J115" s="261"/>
-      <c r="K115" s="273"/>
+      <c r="J115" s="256"/>
+      <c r="K115" s="241"/>
       <c r="L115" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M115" s="246"/>
+      <c r="M115" s="273"/>
       <c r="N115" s="205"/>
       <c r="O115" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P115" s="158"/>
       <c r="Q115" s="221"/>
@@ -17691,15 +17864,15 @@
       </c>
       <c r="H116" s="93"/>
       <c r="I116" s="111"/>
-      <c r="J116" s="261"/>
-      <c r="K116" s="274"/>
+      <c r="J116" s="256"/>
+      <c r="K116" s="242"/>
       <c r="L116" s="143" t="s">
         <v>564</v>
       </c>
-      <c r="M116" s="247"/>
+      <c r="M116" s="274"/>
       <c r="N116" s="205"/>
       <c r="O116" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P116" s="158"/>
       <c r="Q116" s="221"/>
@@ -17722,10 +17895,10 @@
       <c r="E117" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="259" t="s">
+      <c r="F117" s="254" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="260"/>
+      <c r="G117" s="255"/>
       <c r="H117" s="93"/>
       <c r="I117" s="111"/>
       <c r="J117" s="101" t="s">
@@ -17738,11 +17911,11 @@
         <v>565</v>
       </c>
       <c r="M117" s="151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N117" s="205"/>
       <c r="O117" s="215" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P117" s="158"/>
       <c r="Q117" s="221"/>
@@ -17783,11 +17956,11 @@
         <v>567</v>
       </c>
       <c r="M118" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N118" s="205"/>
       <c r="O118" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P118" s="158"/>
       <c r="Q118" s="221"/>
@@ -17836,7 +18009,7 @@
       </c>
       <c r="N119" s="205"/>
       <c r="O119" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P119" s="158"/>
       <c r="Q119" s="221"/>
@@ -17868,13 +18041,13 @@
       <c r="H120" s="93"/>
       <c r="I120" s="111"/>
       <c r="J120" s="99"/>
-      <c r="K120" s="250" t="s">
+      <c r="K120" s="245" t="s">
         <v>520</v>
       </c>
       <c r="L120" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M120" s="240" t="s">
+      <c r="M120" s="269" t="s">
         <v>580</v>
       </c>
       <c r="N120" s="206"/>
@@ -17913,11 +18086,11 @@
       <c r="J121" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K121" s="251"/>
+      <c r="K121" s="246"/>
       <c r="L121" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M121" s="241"/>
+      <c r="M121" s="270"/>
       <c r="N121" s="206"/>
       <c r="O121" s="216" t="s">
         <v>580</v>
@@ -17954,11 +18127,11 @@
       <c r="J122" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K122" s="252"/>
+      <c r="K122" s="247"/>
       <c r="L122" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M122" s="242"/>
+      <c r="M122" s="271"/>
       <c r="N122" s="206"/>
       <c r="O122" s="216" t="s">
         <v>580</v>
@@ -18002,11 +18175,11 @@
         <v>567</v>
       </c>
       <c r="M123" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N123" s="205"/>
       <c r="O123" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P123" s="158"/>
       <c r="Q123" s="221"/>
@@ -18051,11 +18224,11 @@
         <v>567</v>
       </c>
       <c r="M124" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N124" s="205"/>
       <c r="O124" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P124" s="158"/>
       <c r="Q124" s="221"/>
@@ -18153,7 +18326,7 @@
       </c>
       <c r="N126" s="205"/>
       <c r="O126" s="215" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P126" s="158"/>
       <c r="Q126" s="221"/>
@@ -18202,7 +18375,7 @@
       </c>
       <c r="N127" s="205"/>
       <c r="O127" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P127" s="158"/>
       <c r="Q127" s="221"/>
@@ -18292,7 +18465,7 @@
       </c>
       <c r="N129" s="205"/>
       <c r="O129" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P129" s="158"/>
       <c r="Q129" s="221"/>
@@ -18333,11 +18506,11 @@
         <v>567</v>
       </c>
       <c r="M130" s="100" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="N130" s="205"/>
       <c r="O130" s="111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P130" s="158"/>
       <c r="Q130" s="223"/>
@@ -18382,11 +18555,11 @@
         <v>567</v>
       </c>
       <c r="M131" s="155" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N131" s="205"/>
       <c r="O131" s="215" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P131" s="158"/>
       <c r="Q131" s="221"/>
@@ -18427,11 +18600,11 @@
         <v>567</v>
       </c>
       <c r="M132" s="151" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N132" s="205"/>
       <c r="O132" s="215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P132" s="158"/>
       <c r="Q132" s="221"/>
@@ -18476,7 +18649,7 @@
       </c>
       <c r="N133" s="205"/>
       <c r="O133" s="215" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P133" s="158"/>
       <c r="Q133" s="221"/>
@@ -18521,7 +18694,7 @@
       </c>
       <c r="N134" s="205"/>
       <c r="O134" s="215" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="P134" s="158"/>
       <c r="Q134" s="221"/>
@@ -18544,10 +18717,10 @@
       <c r="E135" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="255" t="s">
+      <c r="F135" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G135" s="256"/>
+      <c r="G135" s="251"/>
       <c r="H135" s="93"/>
       <c r="I135" s="111"/>
       <c r="J135" s="101" t="s">
@@ -18560,11 +18733,11 @@
         <v>567</v>
       </c>
       <c r="M135" s="151" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N135" s="205"/>
       <c r="O135" s="215" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P135" s="158"/>
       <c r="Q135" s="221"/>
@@ -18577,11 +18750,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K112:K116"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="M120:M122"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M112:M116"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="K120:K122"/>
     <mergeCell ref="I1:M5"/>
     <mergeCell ref="F135:G135"/>
@@ -18598,77 +18773,108 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="M90:M91"/>
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="M120:M122"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M112:M116"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K112:K116"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
-  <conditionalFormatting sqref="P7:P29 P37:P54 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119 P53:P54">
+    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P29 P37:P54 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119 P53:P54">
+    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P29 P32:P65 P67:P135">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P32:P51 P67:P135 P53:P65">
+    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
       <formula>"Allocated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Allocated"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18684,7 +18890,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P123:P135 P31:P35 P37:P54 P56:P58 P7:P29 P60:P65 P67:P119</xm:sqref>
+          <xm:sqref>P123:P135 P31:P35 P67:P119 P56:P58 P7:P29 P60:P65 P37:P54</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18716,38 +18922,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="257" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="262"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="253" t="s">
+      <c r="I1" s="248" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
+      <c r="N1" s="248"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="264"/>
+      <c r="G2" s="259"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="277" t="s">
+      <c r="I2" s="280" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
+      <c r="N2" s="281"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -18757,10 +18963,10 @@
       <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="262"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -18808,7 +19014,7 @@
         <v>530</v>
       </c>
       <c r="M6" s="156" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N6" s="197"/>
     </row>
@@ -19077,7 +19283,7 @@
         <v>567</v>
       </c>
       <c r="M14" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N14" s="85"/>
     </row>
@@ -19143,7 +19349,7 @@
         <v>567</v>
       </c>
       <c r="M16" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N16" s="85"/>
     </row>
@@ -19826,10 +20032,10 @@
       <c r="E37" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="255" t="s">
+      <c r="F37" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="256"/>
+      <c r="G37" s="251"/>
       <c r="H37" s="93"/>
       <c r="I37" s="111"/>
       <c r="J37" s="101" t="s">
@@ -19842,7 +20048,7 @@
         <v>567</v>
       </c>
       <c r="M37" s="161" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="N37" s="85"/>
     </row>
@@ -19875,7 +20081,7 @@
         <v>531</v>
       </c>
       <c r="M38" s="161" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="N38" s="85"/>
     </row>
@@ -19890,10 +20096,10 @@
       <c r="E39" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="255" t="s">
+      <c r="F39" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="256"/>
+      <c r="G39" s="251"/>
       <c r="H39" s="93"/>
       <c r="I39" s="111"/>
       <c r="J39" s="101" t="s">
@@ -19906,7 +20112,7 @@
         <v>567</v>
       </c>
       <c r="M39" s="161" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="N39" s="85"/>
     </row>
@@ -19954,10 +20160,10 @@
       <c r="E41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="255" t="s">
+      <c r="F41" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="256"/>
+      <c r="G41" s="251"/>
       <c r="H41" s="93"/>
       <c r="I41" s="111"/>
       <c r="J41" s="101" t="s">
@@ -19970,7 +20176,7 @@
         <v>567</v>
       </c>
       <c r="M41" s="161" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="N41" s="85"/>
     </row>
@@ -20030,13 +20236,13 @@
         <v>319</v>
       </c>
       <c r="K43" s="122" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L43" s="162" t="s">
         <v>567</v>
       </c>
       <c r="M43" s="161" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N43" s="85"/>
     </row>
@@ -20139,7 +20345,7 @@
         <v>567</v>
       </c>
       <c r="M46" s="161" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N46" s="85"/>
     </row>
@@ -20172,7 +20378,7 @@
         <v>567</v>
       </c>
       <c r="M47" s="161" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N47" s="85"/>
     </row>
@@ -20195,16 +20401,16 @@
       </c>
       <c r="H48" s="93"/>
       <c r="I48" s="111"/>
-      <c r="J48" s="261" t="s">
+      <c r="J48" s="256" t="s">
         <v>517</v>
       </c>
-      <c r="K48" s="272" t="s">
+      <c r="K48" s="240" t="s">
         <v>518</v>
       </c>
       <c r="L48" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M48" s="279" t="s">
+      <c r="M48" s="277" t="s">
         <v>606</v>
       </c>
       <c r="N48" s="85"/>
@@ -20228,12 +20434,12 @@
       </c>
       <c r="H49" s="93"/>
       <c r="I49" s="111"/>
-      <c r="J49" s="261"/>
-      <c r="K49" s="273"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="241"/>
       <c r="L49" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M49" s="280"/>
+      <c r="M49" s="278"/>
       <c r="N49" s="85"/>
     </row>
     <row r="50" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20255,12 +20461,12 @@
       </c>
       <c r="H50" s="93"/>
       <c r="I50" s="111"/>
-      <c r="J50" s="261"/>
-      <c r="K50" s="273"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="241"/>
       <c r="L50" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M50" s="280"/>
+      <c r="M50" s="278"/>
       <c r="N50" s="85"/>
     </row>
     <row r="51" spans="2:14" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20282,12 +20488,12 @@
       </c>
       <c r="H51" s="93"/>
       <c r="I51" s="111"/>
-      <c r="J51" s="261"/>
-      <c r="K51" s="273"/>
+      <c r="J51" s="256"/>
+      <c r="K51" s="241"/>
       <c r="L51" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M51" s="280"/>
+      <c r="M51" s="278"/>
       <c r="N51" s="85"/>
     </row>
     <row r="52" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -20309,12 +20515,12 @@
       </c>
       <c r="H52" s="93"/>
       <c r="I52" s="111"/>
-      <c r="J52" s="261"/>
-      <c r="K52" s="274"/>
+      <c r="J52" s="256"/>
+      <c r="K52" s="242"/>
       <c r="L52" s="162" t="s">
         <v>564</v>
       </c>
-      <c r="M52" s="281"/>
+      <c r="M52" s="279"/>
       <c r="N52" s="85"/>
     </row>
     <row r="53" spans="2:14" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -20328,10 +20534,10 @@
       <c r="E53" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="259" t="s">
+      <c r="F53" s="254" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="260"/>
+      <c r="G53" s="255"/>
       <c r="H53" s="93"/>
       <c r="I53" s="111"/>
       <c r="J53" s="101" t="s">
@@ -20344,7 +20550,7 @@
         <v>565</v>
       </c>
       <c r="M53" s="161" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N53" s="85"/>
     </row>
@@ -20394,10 +20600,10 @@
       <c r="E55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="255" t="s">
+      <c r="F55" s="250" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="256"/>
+      <c r="G55" s="251"/>
       <c r="H55" s="93"/>
       <c r="I55" s="111"/>
       <c r="J55" s="101" t="s">
@@ -20410,7 +20616,7 @@
         <v>567</v>
       </c>
       <c r="M55" s="161" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N55" s="85"/>
     </row>
@@ -20881,6 +21087,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="M48:M52"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F37:G37"/>
@@ -20889,11 +21100,6 @@
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="J48:J52"/>
     <mergeCell ref="K48:K52"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20923,36 +21129,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="262" t="s">
+      <c r="F1" s="257" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="262"/>
+      <c r="G1" s="257"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="253" t="s">
+      <c r="I1" s="248" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
+      <c r="J1" s="248"/>
+      <c r="K1" s="248"/>
+      <c r="L1" s="248"/>
+      <c r="M1" s="248"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F2" s="263" t="s">
+      <c r="F2" s="258" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="264"/>
+      <c r="G2" s="259"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="277" t="s">
+      <c r="I2" s="280" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
+      <c r="J2" s="281"/>
+      <c r="K2" s="281"/>
+      <c r="L2" s="281"/>
+      <c r="M2" s="281"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="261"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
@@ -20961,10 +21167,10 @@
       <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="267" t="s">
+      <c r="F4" s="262" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="267"/>
+      <c r="G4" s="262"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
@@ -21012,12 +21218,12 @@
         <v>530</v>
       </c>
       <c r="M6" s="156" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="187.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="191" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B7" s="190" t="s">
         <v>50</v>
@@ -21041,7 +21247,7 @@
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="122" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L7" s="48" t="s">
         <v>571</v>
@@ -21052,7 +21258,7 @@
     </row>
     <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="189" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B8" s="190" t="s">
         <v>86</v>
@@ -21087,7 +21293,7 @@
     </row>
     <row r="9" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="189" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B9" s="190" t="s">
         <v>133</v>
@@ -21124,7 +21330,7 @@
     </row>
     <row r="10" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="189" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B10" s="190" t="s">
         <v>183</v>
@@ -21154,12 +21360,12 @@
         <v>567</v>
       </c>
       <c r="M10" s="151" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A11" s="189" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B11" s="190" t="s">
         <v>282</v>
@@ -21196,7 +21402,7 @@
     </row>
     <row r="12" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="189" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" s="190" t="s">
         <v>350</v>
@@ -21231,7 +21437,7 @@
     </row>
     <row r="13" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="179" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B13" s="163" t="s">
         <v>357</v>
@@ -21261,12 +21467,12 @@
         <v>562</v>
       </c>
       <c r="M13" s="149" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="189" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B14" s="163" t="s">
         <v>380</v>
@@ -21298,7 +21504,7 @@
         <v>567</v>
       </c>
       <c r="M14" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
@@ -21334,7 +21540,7 @@
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A16" s="185" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B16" s="184" t="s">
         <v>59</v>
@@ -21371,7 +21577,7 @@
     </row>
     <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" s="178" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B17" s="163" t="s">
         <v>73</v>
@@ -21408,7 +21614,7 @@
     </row>
     <row r="18" spans="1:13" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A18" s="183" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B18" s="176" t="s">
         <v>83</v>
@@ -21445,7 +21651,7 @@
     </row>
     <row r="19" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A19" s="178" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>174</v>
@@ -21480,7 +21686,7 @@
     </row>
     <row r="20" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="179" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B20" s="181" t="s">
         <v>180</v>
@@ -21517,7 +21723,7 @@
     </row>
     <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>191</v>
@@ -21552,7 +21758,7 @@
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A22" s="179" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>221</v>
@@ -21589,7 +21795,7 @@
     </row>
     <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>225</v>
@@ -21624,7 +21830,7 @@
     </row>
     <row r="24" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>272</v>
@@ -21659,7 +21865,7 @@
     </row>
     <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A25" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>274</v>
@@ -21694,7 +21900,7 @@
     </row>
     <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="178" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>279</v>
@@ -21724,12 +21930,12 @@
         <v>567</v>
       </c>
       <c r="M26" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>297</v>
@@ -21764,7 +21970,7 @@
     </row>
     <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>299</v>
@@ -21799,7 +22005,7 @@
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>301</v>
@@ -21834,7 +22040,7 @@
     </row>
     <row r="30" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="178" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>320</v>
@@ -21864,12 +22070,12 @@
         <v>567</v>
       </c>
       <c r="M30" s="151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>327</v>
@@ -21904,7 +22110,7 @@
     </row>
     <row r="32" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>353</v>
@@ -21939,7 +22145,7 @@
     </row>
     <row r="33" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>355</v>
@@ -21972,7 +22178,7 @@
     </row>
     <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A34" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>360</v>
@@ -22007,7 +22213,7 @@
     </row>
     <row r="35" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A35" s="180" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>368</v>
@@ -22037,12 +22243,12 @@
         <v>567</v>
       </c>
       <c r="M35" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="180" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>378</v>
@@ -22072,12 +22278,12 @@
         <v>567</v>
       </c>
       <c r="M36" s="145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A37" s="179" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>389</v>
@@ -22114,7 +22320,7 @@
     </row>
     <row r="38" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A38" s="179" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>410</v>
@@ -22144,12 +22350,12 @@
         <v>567</v>
       </c>
       <c r="M38" s="151" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>415</v>
@@ -22259,7 +22465,7 @@
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D12" s="284" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E12" s="284"/>
       <c r="F12" s="284"/>
@@ -22309,7 +22515,7 @@
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.3">
       <c r="D24" s="284" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E24" s="284"/>
       <c r="F24" s="284"/>
@@ -22383,32 +22589,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
+++ b/Remodelled spreadsheet_FINAL Actions_17NOV2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7200" windowWidth="23256" windowHeight="11388"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="23064" windowHeight="9444"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2215" uniqueCount="702">
   <si>
     <t>Impact on Portrayal</t>
   </si>
@@ -9098,9 +9098,6 @@
   </si>
   <si>
     <t>NIWC &amp; Portrayal subWG to approve S-98 update proposal</t>
-  </si>
-  <si>
-    <t>Discuss with NIWC directly</t>
   </si>
   <si>
     <t>Develp new symbol as per S-52 NEWOBJ drawing instructions for this ttype of V-AIS.</t>
@@ -9462,13 +9459,371 @@
   </si>
   <si>
     <t>Refer to Github Issues # 39</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NIWC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(applies to LightAllAround, LightFogDetector and LightAirObstruction rules but none of the mention this attribute. Should they or is this currently managed in LighttFlareAndDescription rule?</t>
+    </r>
+  </si>
+  <si>
+    <t>Portrayal suWG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Although criteria for calling a feature a 'major light' has changed between UOC and DCEG, it is expected that conversion rules and producers' decision making processes will guarantee identical portrayal between S-57 and S-101 ENC.</t>
+  </si>
+  <si>
+    <r>
+      <t>Allocate rule update to NIWC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LightFlareAndDescription</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to instruct the use of 'halo' (instead of flare) portrayal when boolean attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>majorLight=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> True.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NIWC to update rule to map </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categoryOfPipelinePipe</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 6 to PIPSOL06</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allocate rule update to NIWC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Action ?? Leave as is which means it runs through CSP OBSTRN07 to get symbology.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NIWC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No Action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Allocate to NIWC implementation as per Github # 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>NOV2021 - Awaiting input from DCEG subWG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AS - Update </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESARE04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rule - Consider replacing SY(CTNARE51) with Inland ENC symbol NMKREG06A when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categoryofRestrictedArea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 24 (no wake area) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restriction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 13 (no wake) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restriction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 27 (speed restricted) ?  Would it be technically posible to superimpose </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>veselspeedLimit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute value ??  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refer to DCEG 17.4.</t>
+    </r>
+  </si>
+  <si>
+    <t>NOV2021 - Reclassified  - for discussion by the Portrayal subWG (new Github issue # 43).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="76" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10045,6 +10400,39 @@
       <strike/>
       <sz val="14"/>
       <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11072,7 +11460,7 @@
     <xf numFmtId="0" fontId="65" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11450,9 +11838,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -11734,9 +12119,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11761,6 +12143,106 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11768,10 +12250,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -11786,101 +12264,11 @@
     <xf numFmtId="0" fontId="59" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="13" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11891,12 +12279,6 @@
     <xf numFmtId="0" fontId="49" fillId="13" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11905,6 +12287,33 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="22" borderId="20" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -11917,7 +12326,7 @@
     <cellStyle name="Neutral 2" xfId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="135">
     <dxf>
       <font>
         <b/>
@@ -11989,6 +12398,688 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF00FF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12592,7 +13683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12603,10 +13694,10 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="M52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="M7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q53" sqref="Q53"/>
+      <selection pane="bottomRight" activeCell="Q110" sqref="Q110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12620,7 +13711,7 @@
     <col min="7" max="7" width="53.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="98"/>
     <col min="9" max="10" width="65.6640625" customWidth="1"/>
-    <col min="11" max="11" width="65.6640625" style="136" customWidth="1"/>
+    <col min="11" max="11" width="65.6640625" style="135" customWidth="1"/>
     <col min="12" max="13" width="65.6640625" customWidth="1"/>
     <col min="14" max="14" width="2.77734375" style="18" customWidth="1"/>
     <col min="15" max="15" width="65.6640625" style="18" customWidth="1"/>
@@ -12635,97 +13726,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="257" t="s">
+      <c r="F1" s="260" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="257"/>
+      <c r="G1" s="260"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="248" t="s">
-        <v>664</v>
-      </c>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="198"/>
-      <c r="P1" s="198"/>
-      <c r="Q1" s="198"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="200"/>
-      <c r="T1" s="200"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="265" t="s">
+      <c r="I1" s="251" t="s">
+        <v>663</v>
+      </c>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="199"/>
+      <c r="T1" s="199"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="234" t="s">
+        <v>665</v>
+      </c>
+      <c r="W1" s="234"/>
+    </row>
+    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="261" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="262"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="251"/>
+      <c r="K2" s="251"/>
+      <c r="L2" s="251"/>
+      <c r="M2" s="251"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="199"/>
+      <c r="T2" s="199"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="234"/>
+      <c r="W2" s="234"/>
+    </row>
+    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="263"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="251"/>
+      <c r="N3" s="200"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="234"/>
+      <c r="W3" s="234"/>
+    </row>
+    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="265" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="265"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="251"/>
+      <c r="L4" s="251"/>
+      <c r="M4" s="251"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="197"/>
+      <c r="P4" s="197"/>
+      <c r="Q4" s="197"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="199"/>
+      <c r="T4" s="199"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="235" t="s">
         <v>666</v>
       </c>
-      <c r="W1" s="265"/>
-    </row>
-    <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="248"/>
-      <c r="J2" s="248"/>
-      <c r="K2" s="248"/>
-      <c r="L2" s="248"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="198"/>
-      <c r="P2" s="198"/>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="201"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="265"/>
-      <c r="W2" s="265"/>
-    </row>
-    <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="248"/>
-      <c r="K3" s="248"/>
-      <c r="L3" s="248"/>
-      <c r="M3" s="248"/>
-      <c r="N3" s="201"/>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="201"/>
-      <c r="S3" s="200"/>
-      <c r="T3" s="200"/>
-      <c r="U3" s="201"/>
-      <c r="V3" s="265"/>
-      <c r="W3" s="265"/>
-    </row>
-    <row r="4" spans="1:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F4" s="262" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="262"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="248"/>
-      <c r="K4" s="248"/>
-      <c r="L4" s="248"/>
-      <c r="M4" s="248"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="198"/>
-      <c r="P4" s="198"/>
-      <c r="Q4" s="198"/>
-      <c r="R4" s="201"/>
-      <c r="S4" s="200"/>
-      <c r="T4" s="200"/>
-      <c r="U4" s="201"/>
-      <c r="V4" s="266" t="s">
+      <c r="W4" s="235" t="s">
         <v>667</v>
-      </c>
-      <c r="W4" s="266" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="34.200000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12736,25 +13827,25 @@
         <v>17</v>
       </c>
       <c r="H5" s="94"/>
-      <c r="I5" s="249"/>
-      <c r="J5" s="249"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="249"/>
-      <c r="M5" s="249"/>
-      <c r="N5" s="202"/>
-      <c r="O5" s="199"/>
-      <c r="P5" s="243" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q5" s="244"/>
-      <c r="R5" s="202"/>
-      <c r="S5" s="275" t="s">
-        <v>684</v>
-      </c>
-      <c r="T5" s="276"/>
-      <c r="U5" s="202"/>
-      <c r="V5" s="267"/>
-      <c r="W5" s="267"/>
+      <c r="I5" s="252"/>
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="198"/>
+      <c r="P5" s="273" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q5" s="274"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="246" t="s">
+        <v>683</v>
+      </c>
+      <c r="T5" s="247"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="236"/>
+      <c r="W5" s="236"/>
     </row>
     <row r="6" spans="1:23" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
@@ -12786,29 +13877,29 @@
       <c r="L6" s="119" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="210" t="s">
+      <c r="M6" s="209" t="s">
         <v>627</v>
       </c>
-      <c r="N6" s="203"/>
-      <c r="O6" s="212" t="s">
-        <v>665</v>
-      </c>
-      <c r="P6" s="213" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q6" s="213" t="s">
+      <c r="N6" s="202"/>
+      <c r="O6" s="211" t="s">
+        <v>664</v>
+      </c>
+      <c r="P6" s="212" t="s">
+        <v>668</v>
+      </c>
+      <c r="Q6" s="212" t="s">
         <v>1</v>
       </c>
-      <c r="R6" s="203"/>
-      <c r="S6" s="230" t="s">
-        <v>683</v>
-      </c>
-      <c r="T6" s="230" t="s">
+      <c r="R6" s="202"/>
+      <c r="S6" s="228" t="s">
+        <v>682</v>
+      </c>
+      <c r="T6" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="U6" s="203"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="268"/>
+      <c r="U6" s="202"/>
+      <c r="V6" s="237"/>
+      <c r="W6" s="237"/>
     </row>
     <row r="7" spans="1:23" ht="121.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -12833,29 +13924,29 @@
         <v>29</v>
       </c>
       <c r="J7" s="115"/>
-      <c r="K7" s="138" t="s">
+      <c r="K7" s="137" t="s">
         <v>450</v>
       </c>
       <c r="L7" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="M7" s="148" t="s">
+      <c r="M7" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N7" s="204"/>
-      <c r="O7" s="214" t="s">
+      <c r="N7" s="203"/>
+      <c r="O7" s="213" t="s">
         <v>628</v>
       </c>
-      <c r="P7" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q7" s="220"/>
-      <c r="R7" s="204"/>
+      <c r="P7" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q7" s="219"/>
+      <c r="R7" s="203"/>
       <c r="S7" s="116"/>
       <c r="T7" s="116"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="211"/>
-      <c r="W7" s="211"/>
+      <c r="U7" s="203"/>
+      <c r="V7" s="210"/>
+      <c r="W7" s="210"/>
     </row>
     <row r="8" spans="1:23" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
@@ -12886,31 +13977,31 @@
       <c r="J8" s="107" t="s">
         <v>437</v>
       </c>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="138" t="s">
         <v>472</v>
       </c>
       <c r="L8" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M8" s="149" t="s">
+      <c r="M8" s="148" t="s">
         <v>569</v>
       </c>
-      <c r="N8" s="205"/>
-      <c r="O8" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P8" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q8" s="221"/>
-      <c r="R8" s="205"/>
-      <c r="S8" s="158" t="s">
+      <c r="N8" s="204"/>
+      <c r="O8" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P8" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q8" s="220"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="157" t="s">
         <v>24</v>
       </c>
       <c r="T8" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="205"/>
+      <c r="U8" s="204"/>
       <c r="V8" s="85"/>
       <c r="W8" s="85"/>
     </row>
@@ -12933,27 +14024,27 @@
       <c r="J9" s="107" t="s">
         <v>428</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="M9" s="148" t="s">
+      <c r="M9" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N9" s="205"/>
-      <c r="O9" s="215" t="s">
+      <c r="N9" s="204"/>
+      <c r="O9" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P9" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q9" s="221"/>
-      <c r="R9" s="205"/>
+      <c r="P9" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="204"/>
       <c r="S9" s="85"/>
       <c r="T9" s="85"/>
-      <c r="U9" s="205"/>
+      <c r="U9" s="204"/>
       <c r="V9" s="85"/>
       <c r="W9" s="85"/>
     </row>
@@ -12983,31 +14074,31 @@
       <c r="K10" s="122" t="s">
         <v>452</v>
       </c>
-      <c r="L10" s="141" t="s">
+      <c r="L10" s="140" t="s">
         <v>539</v>
       </c>
-      <c r="M10" s="154" t="s">
+      <c r="M10" s="153" t="s">
         <v>573</v>
       </c>
-      <c r="N10" s="205"/>
-      <c r="O10" s="215" t="s">
+      <c r="N10" s="204"/>
+      <c r="O10" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P10" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q10" s="222" t="s">
-        <v>687</v>
-      </c>
-      <c r="R10" s="205"/>
+      <c r="P10" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q10" s="221" t="s">
+        <v>686</v>
+      </c>
+      <c r="R10" s="204"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
-      <c r="U10" s="205"/>
+      <c r="U10" s="204"/>
       <c r="V10" s="85"/>
       <c r="W10" s="85"/>
     </row>
     <row r="11" spans="1:23" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="235" t="s">
+      <c r="A11" s="233" t="s">
         <v>429</v>
       </c>
       <c r="B11" s="46"/>
@@ -13025,33 +14116,33 @@
       <c r="J11" s="107" t="s">
         <v>432</v>
       </c>
-      <c r="K11" s="137" t="s">
+      <c r="K11" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="M11" s="231" t="s">
+      <c r="M11" s="229" t="s">
         <v>569</v>
       </c>
-      <c r="N11" s="205"/>
-      <c r="O11" s="232" t="s">
+      <c r="N11" s="204"/>
+      <c r="O11" s="230" t="s">
         <v>629</v>
       </c>
-      <c r="P11" s="233" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q11" s="234" t="s">
-        <v>678</v>
-      </c>
-      <c r="R11" s="205"/>
-      <c r="S11" s="158" t="s">
+      <c r="P11" s="231" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q11" s="232" t="s">
+        <v>677</v>
+      </c>
+      <c r="R11" s="204"/>
+      <c r="S11" s="157" t="s">
+        <v>684</v>
+      </c>
+      <c r="T11" s="157" t="s">
         <v>685</v>
       </c>
-      <c r="T11" s="158" t="s">
-        <v>686</v>
-      </c>
-      <c r="U11" s="205"/>
+      <c r="U11" s="204"/>
       <c r="V11" s="103"/>
       <c r="W11" s="103"/>
     </row>
@@ -13078,27 +14169,27 @@
         <v>49</v>
       </c>
       <c r="J12" s="100"/>
-      <c r="K12" s="138" t="s">
+      <c r="K12" s="137" t="s">
         <v>450</v>
       </c>
       <c r="L12" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M12" s="148" t="s">
+      <c r="M12" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N12" s="205"/>
-      <c r="O12" s="215" t="s">
+      <c r="N12" s="204"/>
+      <c r="O12" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P12" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q12" s="221"/>
-      <c r="R12" s="205"/>
+      <c r="P12" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q12" s="220"/>
+      <c r="R12" s="204"/>
       <c r="S12" s="85"/>
       <c r="T12" s="85"/>
-      <c r="U12" s="205"/>
+      <c r="U12" s="204"/>
       <c r="V12" s="85"/>
       <c r="W12" s="85"/>
     </row>
@@ -13128,30 +14219,30 @@
       <c r="K13" s="122" t="s">
         <v>454</v>
       </c>
-      <c r="L13" s="141" t="s">
+      <c r="L13" s="140" t="s">
         <v>571</v>
       </c>
-      <c r="M13" s="149" t="s">
+      <c r="M13" s="148" t="s">
         <v>569</v>
       </c>
-      <c r="N13" s="205"/>
-      <c r="O13" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P13" s="158" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q13" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="R13" s="205"/>
-      <c r="S13" s="158" t="s">
+      <c r="N13" s="204"/>
+      <c r="O13" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P13" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q13" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="R13" s="204"/>
+      <c r="S13" s="157" t="s">
         <v>43</v>
       </c>
       <c r="T13" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="U13" s="205"/>
+      <c r="U13" s="204"/>
       <c r="V13" s="85"/>
       <c r="W13" s="85"/>
     </row>
@@ -13178,27 +14269,27 @@
         <v>58</v>
       </c>
       <c r="J14" s="100"/>
-      <c r="K14" s="138" t="s">
+      <c r="K14" s="137" t="s">
         <v>450</v>
       </c>
       <c r="L14" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M14" s="148" t="s">
+      <c r="M14" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N14" s="205"/>
-      <c r="O14" s="215" t="s">
+      <c r="N14" s="204"/>
+      <c r="O14" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P14" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="205"/>
+      <c r="P14" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="204"/>
       <c r="S14" s="85"/>
       <c r="T14" s="85"/>
-      <c r="U14" s="205"/>
+      <c r="U14" s="204"/>
       <c r="V14" s="85"/>
       <c r="W14" s="85"/>
     </row>
@@ -13229,31 +14320,31 @@
         <v>64</v>
       </c>
       <c r="J15" s="100"/>
-      <c r="K15" s="135" t="s">
+      <c r="K15" s="134" t="s">
         <v>455</v>
       </c>
-      <c r="L15" s="141" t="s">
+      <c r="L15" s="140" t="s">
         <v>572</v>
       </c>
-      <c r="M15" s="145" t="s">
+      <c r="M15" s="144" t="s">
         <v>578</v>
       </c>
-      <c r="N15" s="205"/>
-      <c r="O15" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P15" s="158" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q15" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="R15" s="205"/>
-      <c r="S15" s="158" t="s">
+      <c r="N15" s="204"/>
+      <c r="O15" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P15" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q15" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="R15" s="204"/>
+      <c r="S15" s="157" t="s">
         <v>24</v>
       </c>
       <c r="T15" s="101"/>
-      <c r="U15" s="205"/>
+      <c r="U15" s="204"/>
       <c r="V15" s="85"/>
       <c r="W15" s="85"/>
     </row>
@@ -13288,21 +14379,21 @@
       <c r="L16" s="85" t="s">
         <v>533</v>
       </c>
-      <c r="M16" s="148" t="s">
+      <c r="M16" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N16" s="205"/>
-      <c r="O16" s="215" t="s">
+      <c r="N16" s="204"/>
+      <c r="O16" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P16" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q16" s="221"/>
-      <c r="R16" s="205"/>
+      <c r="P16" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q16" s="220"/>
+      <c r="R16" s="204"/>
       <c r="S16" s="85"/>
       <c r="T16" s="85"/>
-      <c r="U16" s="205"/>
+      <c r="U16" s="204"/>
       <c r="V16" s="85"/>
       <c r="W16" s="85"/>
     </row>
@@ -13329,27 +14420,27 @@
         <v>23</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="134" t="s">
         <v>455</v>
       </c>
       <c r="L17" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="M17" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N17" s="205"/>
-      <c r="O17" s="215" t="s">
+      <c r="N17" s="204"/>
+      <c r="O17" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P17" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q17" s="221"/>
-      <c r="R17" s="205"/>
+      <c r="P17" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="204"/>
       <c r="S17" s="85"/>
       <c r="T17" s="85"/>
-      <c r="U17" s="205"/>
+      <c r="U17" s="204"/>
       <c r="V17" s="85"/>
       <c r="W17" s="85"/>
     </row>
@@ -13380,29 +14471,29 @@
         <v>23</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="139" t="s">
+      <c r="K18" s="138" t="s">
         <v>473</v>
       </c>
       <c r="L18" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="148" t="s">
         <v>610</v>
       </c>
-      <c r="N18" s="205"/>
-      <c r="O18" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P18" s="158" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q18" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="R18" s="205"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P18" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q18" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="R18" s="204"/>
       <c r="S18" s="85"/>
       <c r="T18" s="85"/>
-      <c r="U18" s="205"/>
+      <c r="U18" s="204"/>
       <c r="V18" s="85"/>
       <c r="W18" s="85"/>
     </row>
@@ -13429,27 +14520,27 @@
         <v>23</v>
       </c>
       <c r="J19" s="100"/>
-      <c r="K19" s="135" t="s">
+      <c r="K19" s="134" t="s">
         <v>460</v>
       </c>
       <c r="L19" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M19" s="149" t="s">
+      <c r="M19" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N19" s="205"/>
-      <c r="O19" s="215" t="s">
+      <c r="N19" s="204"/>
+      <c r="O19" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P19" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q19" s="221"/>
-      <c r="R19" s="205"/>
+      <c r="P19" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="204"/>
       <c r="S19" s="85"/>
       <c r="T19" s="85"/>
-      <c r="U19" s="205"/>
+      <c r="U19" s="204"/>
       <c r="V19" s="85"/>
       <c r="W19" s="85"/>
     </row>
@@ -13476,27 +14567,27 @@
         <v>23</v>
       </c>
       <c r="J20" s="100"/>
-      <c r="K20" s="135" t="s">
+      <c r="K20" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L20" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M20" s="149" t="s">
+      <c r="M20" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N20" s="205"/>
-      <c r="O20" s="215" t="s">
+      <c r="N20" s="204"/>
+      <c r="O20" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P20" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q20" s="221"/>
-      <c r="R20" s="205"/>
+      <c r="P20" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="204"/>
       <c r="S20" s="85"/>
       <c r="T20" s="85"/>
-      <c r="U20" s="205"/>
+      <c r="U20" s="204"/>
       <c r="V20" s="85"/>
       <c r="W20" s="85"/>
     </row>
@@ -13527,34 +14618,34 @@
         <v>23</v>
       </c>
       <c r="J21" s="100"/>
-      <c r="K21" s="135" t="s">
+      <c r="K21" s="134" t="s">
         <v>474</v>
       </c>
       <c r="L21" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M21" s="154" t="s">
+      <c r="M21" s="153" t="s">
         <v>573</v>
       </c>
-      <c r="N21" s="205"/>
-      <c r="O21" s="215" t="s">
+      <c r="N21" s="204"/>
+      <c r="O21" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P21" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q21" s="222" t="s">
-        <v>688</v>
-      </c>
-      <c r="R21" s="205"/>
+      <c r="P21" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q21" s="221" t="s">
+        <v>687</v>
+      </c>
+      <c r="R21" s="204"/>
       <c r="S21" s="85"/>
       <c r="T21" s="85"/>
-      <c r="U21" s="205"/>
+      <c r="U21" s="204"/>
       <c r="V21" s="85"/>
       <c r="W21" s="85"/>
     </row>
     <row r="22" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="175" t="s">
         <v>439</v>
       </c>
       <c r="B22" s="125" t="s">
@@ -13576,27 +14667,27 @@
       <c r="J22" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K22" s="135" t="s">
+      <c r="K22" s="134" t="s">
         <v>462</v>
       </c>
       <c r="L22" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M22" s="149" t="s">
+      <c r="M22" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N22" s="205"/>
-      <c r="O22" s="215" t="s">
+      <c r="N22" s="204"/>
+      <c r="O22" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P22" s="158" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q22" s="221"/>
-      <c r="R22" s="205"/>
+      <c r="P22" s="157" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="204"/>
       <c r="S22" s="85"/>
       <c r="T22" s="85"/>
-      <c r="U22" s="205"/>
+      <c r="U22" s="204"/>
       <c r="V22" s="85"/>
       <c r="W22" s="85"/>
     </row>
@@ -13623,29 +14714,29 @@
         <v>90</v>
       </c>
       <c r="J23" s="100"/>
-      <c r="K23" s="139" t="s">
+      <c r="K23" s="138" t="s">
         <v>487</v>
       </c>
       <c r="L23" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M23" s="149" t="s">
+      <c r="M23" s="148" t="s">
         <v>569</v>
       </c>
-      <c r="N23" s="205"/>
-      <c r="O23" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P23" s="158" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q23" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="R23" s="205"/>
+      <c r="N23" s="204"/>
+      <c r="O23" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P23" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q23" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="R23" s="204"/>
       <c r="S23" s="85"/>
       <c r="T23" s="85"/>
-      <c r="U23" s="205"/>
+      <c r="U23" s="204"/>
       <c r="V23" s="85"/>
       <c r="W23" s="85"/>
     </row>
@@ -13672,29 +14763,29 @@
         <v>23</v>
       </c>
       <c r="J24" s="100"/>
-      <c r="K24" s="135" t="s">
+      <c r="K24" s="134" t="s">
         <v>463</v>
       </c>
       <c r="L24" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M24" s="149" t="s">
-        <v>689</v>
-      </c>
-      <c r="N24" s="205"/>
-      <c r="O24" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P24" s="158" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q24" s="221" t="s">
-        <v>677</v>
-      </c>
-      <c r="R24" s="205"/>
+      <c r="M24" s="148" t="s">
+        <v>688</v>
+      </c>
+      <c r="N24" s="204"/>
+      <c r="O24" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P24" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q24" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="R24" s="204"/>
       <c r="S24" s="85"/>
       <c r="T24" s="85"/>
-      <c r="U24" s="205"/>
+      <c r="U24" s="204"/>
       <c r="V24" s="85"/>
       <c r="W24" s="85"/>
     </row>
@@ -13721,27 +14812,27 @@
         <v>23</v>
       </c>
       <c r="J25" s="100"/>
-      <c r="K25" s="135" t="s">
+      <c r="K25" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L25" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M25" s="149" t="s">
+      <c r="M25" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N25" s="205"/>
-      <c r="O25" s="215" t="s">
+      <c r="N25" s="204"/>
+      <c r="O25" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P25" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="205"/>
+      <c r="P25" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q25" s="220"/>
+      <c r="R25" s="204"/>
       <c r="S25" s="85"/>
       <c r="T25" s="85"/>
-      <c r="U25" s="205"/>
+      <c r="U25" s="204"/>
       <c r="V25" s="85"/>
       <c r="W25" s="85"/>
     </row>
@@ -13775,26 +14866,26 @@
       <c r="K26" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="L26" s="141" t="s">
+      <c r="L26" s="140" t="s">
         <v>574</v>
       </c>
-      <c r="M26" s="154" t="s">
+      <c r="M26" s="153" t="s">
         <v>573</v>
       </c>
-      <c r="N26" s="205"/>
-      <c r="O26" s="215" t="s">
+      <c r="N26" s="204"/>
+      <c r="O26" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P26" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q26" s="222" t="s">
-        <v>679</v>
-      </c>
-      <c r="R26" s="205"/>
+      <c r="P26" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q26" s="221" t="s">
+        <v>678</v>
+      </c>
+      <c r="R26" s="204"/>
       <c r="S26" s="85"/>
       <c r="T26" s="85"/>
-      <c r="U26" s="205"/>
+      <c r="U26" s="204"/>
       <c r="V26" s="85"/>
       <c r="W26" s="85"/>
     </row>
@@ -13825,27 +14916,27 @@
         <v>23</v>
       </c>
       <c r="J27" s="100"/>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L27" s="141" t="s">
+      <c r="L27" s="140" t="s">
         <v>575</v>
       </c>
-      <c r="M27" s="145" t="s">
+      <c r="M27" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="N27" s="205"/>
-      <c r="O27" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P27" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q27" s="221"/>
-      <c r="R27" s="205"/>
+      <c r="N27" s="204"/>
+      <c r="O27" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P27" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="204"/>
       <c r="S27" s="85"/>
       <c r="T27" s="85"/>
-      <c r="U27" s="205"/>
+      <c r="U27" s="204"/>
       <c r="V27" s="85"/>
       <c r="W27" s="85"/>
     </row>
@@ -13868,27 +14959,27 @@
       <c r="J28" s="107" t="s">
         <v>421</v>
       </c>
-      <c r="K28" s="137" t="s">
+      <c r="K28" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L28" t="s">
         <v>540</v>
       </c>
-      <c r="M28" s="145" t="s">
+      <c r="M28" s="144" t="s">
         <v>585</v>
       </c>
-      <c r="N28" s="205"/>
-      <c r="O28" s="215" t="s">
-        <v>660</v>
-      </c>
-      <c r="P28" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="205"/>
+      <c r="N28" s="204"/>
+      <c r="O28" s="214" t="s">
+        <v>659</v>
+      </c>
+      <c r="P28" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q28" s="220"/>
+      <c r="R28" s="204"/>
       <c r="S28" s="85"/>
       <c r="T28" s="85"/>
-      <c r="U28" s="205"/>
+      <c r="U28" s="204"/>
       <c r="V28" s="85"/>
       <c r="W28" s="85"/>
     </row>
@@ -13911,27 +15002,27 @@
       <c r="J29" s="107" t="s">
         <v>424</v>
       </c>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L29" t="s">
         <v>540</v>
       </c>
-      <c r="M29" s="145" t="s">
+      <c r="M29" s="144" t="s">
         <v>586</v>
       </c>
-      <c r="N29" s="205"/>
-      <c r="O29" s="215" t="s">
-        <v>660</v>
-      </c>
-      <c r="P29" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q29" s="221"/>
-      <c r="R29" s="205"/>
+      <c r="N29" s="204"/>
+      <c r="O29" s="214" t="s">
+        <v>659</v>
+      </c>
+      <c r="P29" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q29" s="220"/>
+      <c r="R29" s="204"/>
       <c r="S29" s="85"/>
       <c r="T29" s="85"/>
-      <c r="U29" s="205"/>
+      <c r="U29" s="204"/>
       <c r="V29" s="85"/>
       <c r="W29" s="85"/>
     </row>
@@ -13957,22 +15048,22 @@
       <c r="K30" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="L30" s="141" t="s">
+      <c r="L30" s="140" t="s">
         <v>541</v>
       </c>
       <c r="M30" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N30" s="205"/>
+      <c r="N30" s="204"/>
       <c r="O30" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P30" s="100"/>
-      <c r="Q30" s="223"/>
-      <c r="R30" s="205"/>
-      <c r="S30" s="159"/>
+      <c r="Q30" s="222"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="158"/>
       <c r="T30" s="85"/>
-      <c r="U30" s="205"/>
+      <c r="U30" s="204"/>
       <c r="V30" s="85"/>
       <c r="W30" s="85"/>
     </row>
@@ -13995,29 +15086,29 @@
         <v>114</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="137" t="s">
+      <c r="K31" s="136" t="s">
         <v>466</v>
       </c>
       <c r="L31" s="85" t="s">
         <v>542</v>
       </c>
-      <c r="M31" s="154" t="s">
+      <c r="M31" s="153" t="s">
         <v>573</v>
       </c>
-      <c r="N31" s="206"/>
-      <c r="O31" s="215" t="s">
+      <c r="N31" s="205"/>
+      <c r="O31" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P31" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q31" s="222" t="s">
-        <v>680</v>
-      </c>
-      <c r="R31" s="206"/>
+      <c r="P31" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q31" s="221" t="s">
+        <v>679</v>
+      </c>
+      <c r="R31" s="205"/>
       <c r="S31" s="85"/>
       <c r="T31" s="85"/>
-      <c r="U31" s="206"/>
+      <c r="U31" s="205"/>
       <c r="V31" s="85"/>
       <c r="W31" s="85"/>
     </row>
@@ -14044,27 +15135,27 @@
         <v>118</v>
       </c>
       <c r="J32" s="100"/>
-      <c r="K32" s="138" t="s">
+      <c r="K32" s="137" t="s">
         <v>450</v>
       </c>
       <c r="L32" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M32" s="148" t="s">
+      <c r="M32" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N32" s="205"/>
-      <c r="O32" s="215" t="s">
+      <c r="N32" s="204"/>
+      <c r="O32" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P32" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q32" s="221"/>
-      <c r="R32" s="205"/>
+      <c r="P32" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q32" s="220"/>
+      <c r="R32" s="204"/>
       <c r="S32" s="85"/>
       <c r="T32" s="85"/>
-      <c r="U32" s="205"/>
+      <c r="U32" s="204"/>
       <c r="V32" s="85"/>
       <c r="W32" s="85"/>
     </row>
@@ -14091,27 +15182,27 @@
         <v>122</v>
       </c>
       <c r="J33" s="100"/>
-      <c r="K33" s="138" t="s">
+      <c r="K33" s="137" t="s">
         <v>450</v>
       </c>
       <c r="L33" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M33" s="148" t="s">
+      <c r="M33" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N33" s="205"/>
-      <c r="O33" s="215" t="s">
+      <c r="N33" s="204"/>
+      <c r="O33" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P33" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q33" s="221"/>
-      <c r="R33" s="205"/>
+      <c r="P33" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="204"/>
       <c r="S33" s="85"/>
       <c r="T33" s="85"/>
-      <c r="U33" s="205"/>
+      <c r="U33" s="204"/>
       <c r="V33" s="85"/>
       <c r="W33" s="85"/>
     </row>
@@ -14141,31 +15232,31 @@
       <c r="K34" s="122" t="s">
         <v>467</v>
       </c>
-      <c r="L34" s="141" t="s">
+      <c r="L34" s="140" t="s">
         <v>543</v>
       </c>
-      <c r="M34" s="147" t="s">
+      <c r="M34" s="146" t="s">
         <v>581</v>
       </c>
-      <c r="N34" s="206"/>
-      <c r="O34" s="216" t="s">
+      <c r="N34" s="205"/>
+      <c r="O34" s="215" t="s">
         <v>581</v>
       </c>
-      <c r="P34" s="158" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q34" s="228" t="s">
-        <v>681</v>
-      </c>
-      <c r="R34" s="206"/>
+      <c r="P34" s="157" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q34" s="226" t="s">
+        <v>680</v>
+      </c>
+      <c r="R34" s="205"/>
       <c r="S34" s="85"/>
       <c r="T34" s="85"/>
-      <c r="U34" s="206"/>
+      <c r="U34" s="205"/>
       <c r="V34" s="85"/>
       <c r="W34" s="85"/>
     </row>
     <row r="35" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A35" s="129" t="s">
+      <c r="A35" s="175" t="s">
         <v>443</v>
       </c>
       <c r="B35" s="125" t="s">
@@ -14187,25 +15278,25 @@
       <c r="J35" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K35" s="135" t="s">
+      <c r="K35" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L35" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M35" s="149" t="s">
+      <c r="M35" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N35" s="205"/>
-      <c r="O35" s="215" t="s">
+      <c r="N35" s="204"/>
+      <c r="O35" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P35" s="158"/>
-      <c r="Q35" s="221"/>
-      <c r="R35" s="205"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="220"/>
+      <c r="R35" s="204"/>
       <c r="S35" s="85"/>
       <c r="T35" s="85"/>
-      <c r="U35" s="205"/>
+      <c r="U35" s="204"/>
       <c r="V35" s="85"/>
       <c r="W35" s="85"/>
     </row>
@@ -14232,25 +15323,25 @@
         <v>23</v>
       </c>
       <c r="J36" s="100"/>
-      <c r="K36" s="137" t="s">
+      <c r="K36" s="136" t="s">
         <v>468</v>
       </c>
       <c r="L36" s="85" t="s">
         <v>534</v>
       </c>
-      <c r="M36" s="150" t="s">
+      <c r="M36" s="149" t="s">
         <v>582</v>
       </c>
-      <c r="N36" s="207"/>
-      <c r="O36" s="217" t="s">
+      <c r="N36" s="206"/>
+      <c r="O36" s="216" t="s">
         <v>582</v>
       </c>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="225"/>
-      <c r="R36" s="207"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="224"/>
+      <c r="R36" s="206"/>
       <c r="S36" s="85"/>
       <c r="T36" s="85"/>
-      <c r="U36" s="207"/>
+      <c r="U36" s="206"/>
       <c r="V36" s="85"/>
       <c r="W36" s="85"/>
     </row>
@@ -14283,21 +15374,21 @@
       <c r="L37" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M37" s="149" t="s">
+      <c r="M37" s="148" t="s">
         <v>610</v>
       </c>
-      <c r="N37" s="205"/>
-      <c r="O37" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P37" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q37" s="221"/>
-      <c r="R37" s="205"/>
+      <c r="N37" s="204"/>
+      <c r="O37" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P37" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q37" s="220"/>
+      <c r="R37" s="204"/>
       <c r="S37" s="85"/>
       <c r="T37" s="85"/>
-      <c r="U37" s="205"/>
+      <c r="U37" s="204"/>
       <c r="V37" s="85"/>
       <c r="W37" s="85"/>
     </row>
@@ -14334,28 +15425,28 @@
       <c r="L38" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="M38" s="151" t="s">
+      <c r="M38" s="150" t="s">
         <v>605</v>
       </c>
-      <c r="N38" s="205"/>
-      <c r="O38" s="215" t="s">
-        <v>663</v>
-      </c>
-      <c r="P38" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q38" s="229" t="s">
-        <v>682</v>
-      </c>
-      <c r="R38" s="205"/>
+      <c r="N38" s="204"/>
+      <c r="O38" s="214" t="s">
+        <v>662</v>
+      </c>
+      <c r="P38" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q38" s="227" t="s">
+        <v>681</v>
+      </c>
+      <c r="R38" s="204"/>
       <c r="S38" s="85"/>
       <c r="T38" s="85"/>
-      <c r="U38" s="205"/>
+      <c r="U38" s="204"/>
       <c r="V38" s="85"/>
       <c r="W38" s="85"/>
     </row>
     <row r="39" spans="1:23" ht="144" x14ac:dyDescent="0.3">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="175" t="s">
         <v>445</v>
       </c>
       <c r="B39" s="125" t="s">
@@ -14377,56 +15468,56 @@
       <c r="J39" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K39" s="135" t="s">
+      <c r="K39" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L39" s="85" t="s">
         <v>535</v>
       </c>
-      <c r="M39" s="144" t="s">
+      <c r="M39" s="143" t="s">
         <v>461</v>
       </c>
-      <c r="N39" s="205"/>
-      <c r="O39" s="215" t="s">
+      <c r="N39" s="204"/>
+      <c r="O39" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P39" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q39" s="221"/>
-      <c r="R39" s="205"/>
+      <c r="P39" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q39" s="220"/>
+      <c r="R39" s="204"/>
       <c r="S39" s="85"/>
       <c r="T39" s="85"/>
-      <c r="U39" s="205"/>
+      <c r="U39" s="204"/>
       <c r="V39" s="85"/>
       <c r="W39" s="85"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="130" t="s">
+      <c r="A40" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="B40" s="130"/>
+      <c r="C40" s="130"/>
+      <c r="D40" s="130"/>
+      <c r="E40" s="130"/>
       <c r="F40" s="87"/>
       <c r="G40" s="88"/>
       <c r="H40" s="93"/>
       <c r="I40" s="120"/>
       <c r="J40" s="102"/>
-      <c r="K40" s="134"/>
+      <c r="K40" s="133"/>
       <c r="L40" s="85" t="s">
         <v>567</v>
       </c>
       <c r="M40" s="102"/>
-      <c r="N40" s="205"/>
-      <c r="O40" s="218"/>
+      <c r="N40" s="204"/>
+      <c r="O40" s="217"/>
       <c r="P40" s="102"/>
-      <c r="Q40" s="226"/>
-      <c r="R40" s="205"/>
+      <c r="Q40" s="225"/>
+      <c r="R40" s="204"/>
       <c r="S40" s="103"/>
       <c r="T40" s="85"/>
-      <c r="U40" s="205"/>
+      <c r="U40" s="204"/>
       <c r="V40" s="85"/>
       <c r="W40" s="85"/>
     </row>
@@ -14453,7 +15544,7 @@
         <v>23</v>
       </c>
       <c r="J41" s="100"/>
-      <c r="K41" s="135" t="s">
+      <c r="K41" s="134" t="s">
         <v>471</v>
       </c>
       <c r="L41" s="85" t="s">
@@ -14462,16 +15553,16 @@
       <c r="M41" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N41" s="205"/>
+      <c r="N41" s="204"/>
       <c r="O41" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P41" s="100"/>
-      <c r="Q41" s="223"/>
-      <c r="R41" s="205"/>
-      <c r="S41" s="159"/>
+      <c r="Q41" s="222"/>
+      <c r="R41" s="204"/>
+      <c r="S41" s="158"/>
       <c r="T41" s="85"/>
-      <c r="U41" s="205"/>
+      <c r="U41" s="204"/>
       <c r="V41" s="85"/>
       <c r="W41" s="85"/>
     </row>
@@ -14506,21 +15597,21 @@
       <c r="L42" s="85" t="s">
         <v>537</v>
       </c>
-      <c r="M42" s="149" t="s">
+      <c r="M42" s="148" t="s">
         <v>569</v>
       </c>
-      <c r="N42" s="205"/>
-      <c r="O42" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P42" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q42" s="221"/>
-      <c r="R42" s="205"/>
+      <c r="N42" s="204"/>
+      <c r="O42" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P42" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q42" s="220"/>
+      <c r="R42" s="204"/>
       <c r="S42" s="85"/>
       <c r="T42" s="85"/>
-      <c r="U42" s="205"/>
+      <c r="U42" s="204"/>
       <c r="V42" s="85"/>
       <c r="W42" s="85"/>
     </row>
@@ -14551,7 +15642,7 @@
         <v>23</v>
       </c>
       <c r="J43" s="104"/>
-      <c r="K43" s="135" t="s">
+      <c r="K43" s="134" t="s">
         <v>477</v>
       </c>
       <c r="L43" s="85" t="s">
@@ -14560,16 +15651,16 @@
       <c r="M43" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N43" s="205"/>
+      <c r="N43" s="204"/>
       <c r="O43" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P43" s="100"/>
-      <c r="Q43" s="223"/>
-      <c r="R43" s="205"/>
-      <c r="S43" s="159"/>
+      <c r="Q43" s="222"/>
+      <c r="R43" s="204"/>
+      <c r="S43" s="158"/>
       <c r="T43" s="85"/>
-      <c r="U43" s="205"/>
+      <c r="U43" s="204"/>
       <c r="V43" s="85"/>
       <c r="W43" s="85"/>
     </row>
@@ -14596,27 +15687,27 @@
         <v>23</v>
       </c>
       <c r="J44" s="100"/>
-      <c r="K44" s="135" t="s">
+      <c r="K44" s="134" t="s">
         <v>478</v>
       </c>
       <c r="L44" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M44" s="149" t="s">
+      <c r="M44" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N44" s="205"/>
-      <c r="O44" s="215" t="s">
+      <c r="N44" s="204"/>
+      <c r="O44" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P44" s="158" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q44" s="221"/>
-      <c r="R44" s="205"/>
+      <c r="P44" s="157" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q44" s="220"/>
+      <c r="R44" s="204"/>
       <c r="S44" s="85"/>
       <c r="T44" s="85"/>
-      <c r="U44" s="205"/>
+      <c r="U44" s="204"/>
       <c r="V44" s="85"/>
       <c r="W44" s="85"/>
     </row>
@@ -14643,25 +15734,25 @@
         <v>161</v>
       </c>
       <c r="J45" s="100"/>
-      <c r="K45" s="137" t="s">
+      <c r="K45" s="136" t="s">
         <v>481</v>
       </c>
       <c r="L45" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M45" s="151" t="s">
+      <c r="M45" s="150" t="s">
         <v>593</v>
       </c>
-      <c r="N45" s="205"/>
-      <c r="O45" s="215" t="s">
+      <c r="N45" s="204"/>
+      <c r="O45" s="214" t="s">
         <v>632</v>
       </c>
-      <c r="P45" s="158"/>
-      <c r="Q45" s="221"/>
-      <c r="R45" s="205"/>
+      <c r="P45" s="157"/>
+      <c r="Q45" s="220"/>
+      <c r="R45" s="204"/>
       <c r="S45" s="85"/>
       <c r="T45" s="85"/>
-      <c r="U45" s="205"/>
+      <c r="U45" s="204"/>
       <c r="V45" s="85"/>
       <c r="W45" s="85"/>
     </row>
@@ -14688,7 +15779,7 @@
         <v>166</v>
       </c>
       <c r="J46" s="100"/>
-      <c r="K46" s="135" t="s">
+      <c r="K46" s="134" t="s">
         <v>482</v>
       </c>
       <c r="L46" s="85" t="s">
@@ -14697,16 +15788,16 @@
       <c r="M46" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N46" s="205"/>
+      <c r="N46" s="204"/>
       <c r="O46" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P46" s="100"/>
-      <c r="Q46" s="223"/>
-      <c r="R46" s="205"/>
-      <c r="S46" s="159"/>
+      <c r="Q46" s="222"/>
+      <c r="R46" s="204"/>
+      <c r="S46" s="158"/>
       <c r="T46" s="85"/>
-      <c r="U46" s="205"/>
+      <c r="U46" s="204"/>
       <c r="V46" s="85"/>
       <c r="W46" s="85"/>
     </row>
@@ -14733,25 +15824,25 @@
         <v>23</v>
       </c>
       <c r="J47" s="100"/>
-      <c r="K47" s="137" t="s">
+      <c r="K47" s="136" t="s">
         <v>583</v>
       </c>
-      <c r="L47" s="139" t="s">
+      <c r="L47" s="138" t="s">
         <v>544</v>
       </c>
-      <c r="M47" s="151" t="s">
+      <c r="M47" s="150" t="s">
         <v>584</v>
       </c>
-      <c r="N47" s="205"/>
-      <c r="O47" s="215" t="s">
-        <v>661</v>
-      </c>
-      <c r="P47" s="158"/>
-      <c r="Q47" s="221"/>
-      <c r="R47" s="205"/>
+      <c r="N47" s="204"/>
+      <c r="O47" s="214" t="s">
+        <v>660</v>
+      </c>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="220"/>
+      <c r="R47" s="204"/>
       <c r="S47" s="85"/>
       <c r="T47" s="85"/>
-      <c r="U47" s="205"/>
+      <c r="U47" s="204"/>
       <c r="V47" s="85"/>
       <c r="W47" s="85"/>
     </row>
@@ -14778,24 +15869,24 @@
         <v>23</v>
       </c>
       <c r="J48" s="100"/>
-      <c r="K48" s="135" t="s">
+      <c r="K48" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L48" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M48" s="149" t="s">
+      <c r="M48" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N48" s="208"/>
+      <c r="N48" s="207"/>
       <c r="O48" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="P48" s="158"/>
-      <c r="R48" s="208"/>
+      <c r="P48" s="157"/>
+      <c r="R48" s="207"/>
       <c r="S48" s="85"/>
       <c r="T48" s="85"/>
-      <c r="U48" s="208"/>
+      <c r="U48" s="207"/>
       <c r="V48" s="85"/>
       <c r="W48" s="85"/>
     </row>
@@ -14822,25 +15913,25 @@
         <v>23</v>
       </c>
       <c r="J49" s="100"/>
-      <c r="K49" s="135" t="s">
+      <c r="K49" s="134" t="s">
         <v>510</v>
       </c>
-      <c r="L49" s="139" t="s">
+      <c r="L49" s="138" t="s">
         <v>601</v>
       </c>
-      <c r="M49" s="145" t="s">
+      <c r="M49" s="144" t="s">
         <v>600</v>
       </c>
-      <c r="N49" s="205"/>
-      <c r="O49" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="221"/>
-      <c r="R49" s="205"/>
+      <c r="N49" s="204"/>
+      <c r="O49" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P49" s="157"/>
+      <c r="Q49" s="220"/>
+      <c r="R49" s="204"/>
       <c r="S49" s="85"/>
       <c r="T49" s="85"/>
-      <c r="U49" s="205"/>
+      <c r="U49" s="204"/>
       <c r="V49" s="85"/>
       <c r="W49" s="85"/>
     </row>
@@ -14867,25 +15958,25 @@
         <v>23</v>
       </c>
       <c r="J50" s="100"/>
-      <c r="K50" s="135" t="s">
+      <c r="K50" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L50" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M50" s="149" t="s">
+      <c r="M50" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N50" s="205"/>
-      <c r="O50" s="215" t="s">
+      <c r="N50" s="204"/>
+      <c r="O50" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P50" s="158"/>
-      <c r="Q50" s="221"/>
-      <c r="R50" s="205"/>
+      <c r="P50" s="157"/>
+      <c r="Q50" s="220"/>
+      <c r="R50" s="204"/>
       <c r="S50" s="85"/>
       <c r="T50" s="85"/>
-      <c r="U50" s="205"/>
+      <c r="U50" s="204"/>
       <c r="V50" s="85"/>
       <c r="W50" s="85"/>
     </row>
@@ -14916,25 +16007,25 @@
         <v>23</v>
       </c>
       <c r="J51" s="100"/>
-      <c r="K51" s="135" t="s">
+      <c r="K51" s="134" t="s">
         <v>484</v>
       </c>
       <c r="L51" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M51" s="151" t="s">
+      <c r="M51" s="150" t="s">
         <v>611</v>
       </c>
-      <c r="N51" s="205"/>
-      <c r="O51" s="215" t="s">
+      <c r="N51" s="204"/>
+      <c r="O51" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P51" s="158"/>
-      <c r="Q51" s="221"/>
-      <c r="R51" s="205"/>
+      <c r="P51" s="157"/>
+      <c r="Q51" s="220"/>
+      <c r="R51" s="204"/>
       <c r="S51" s="85"/>
       <c r="T51" s="85"/>
-      <c r="U51" s="205"/>
+      <c r="U51" s="204"/>
       <c r="V51" s="85"/>
       <c r="W51" s="85"/>
     </row>
@@ -14961,29 +16052,29 @@
         <v>23</v>
       </c>
       <c r="J52" s="100"/>
-      <c r="K52" s="135" t="s">
+      <c r="K52" s="134" t="s">
         <v>485</v>
       </c>
       <c r="L52" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M52" s="154" t="s">
+      <c r="M52" s="153" t="s">
         <v>573</v>
       </c>
-      <c r="N52" s="206"/>
-      <c r="O52" s="215" t="s">
+      <c r="N52" s="205"/>
+      <c r="O52" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P52" s="158" t="s">
-        <v>671</v>
-      </c>
-      <c r="Q52" s="222" t="s">
-        <v>690</v>
-      </c>
-      <c r="R52" s="205"/>
+      <c r="P52" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q52" s="221" t="s">
+        <v>689</v>
+      </c>
+      <c r="R52" s="204"/>
       <c r="S52" s="85"/>
       <c r="T52" s="85"/>
-      <c r="U52" s="205"/>
+      <c r="U52" s="204"/>
       <c r="V52" s="85"/>
       <c r="W52" s="85"/>
     </row>
@@ -15016,25 +16107,25 @@
       <c r="J53" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="K53" s="137" t="s">
+      <c r="K53" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L53" s="141" t="s">
+      <c r="L53" s="140" t="s">
         <v>545</v>
       </c>
-      <c r="M53" s="151" t="s">
+      <c r="M53" s="150" t="s">
         <v>587</v>
       </c>
-      <c r="N53" s="205"/>
-      <c r="O53" s="215" t="s">
+      <c r="N53" s="204"/>
+      <c r="O53" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P53" s="158"/>
-      <c r="Q53" s="221"/>
-      <c r="R53" s="205"/>
+      <c r="P53" s="157"/>
+      <c r="Q53" s="220"/>
+      <c r="R53" s="204"/>
       <c r="S53" s="85"/>
       <c r="T53" s="85"/>
-      <c r="U53" s="205"/>
+      <c r="U53" s="204"/>
       <c r="V53" s="85"/>
       <c r="W53" s="85"/>
     </row>
@@ -15064,22 +16155,22 @@
       <c r="K54" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L54" s="153" t="s">
+      <c r="L54" s="152" t="s">
         <v>563</v>
       </c>
-      <c r="M54" s="151" t="s">
+      <c r="M54" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N54" s="205"/>
-      <c r="O54" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P54" s="158"/>
-      <c r="Q54" s="221"/>
-      <c r="R54" s="205"/>
+      <c r="N54" s="204"/>
+      <c r="O54" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P54" s="157"/>
+      <c r="Q54" s="220"/>
+      <c r="R54" s="204"/>
       <c r="S54" s="85"/>
       <c r="T54" s="85"/>
-      <c r="U54" s="205"/>
+      <c r="U54" s="204"/>
       <c r="V54" s="85"/>
       <c r="W54" s="85"/>
     </row>
@@ -15106,25 +16197,25 @@
         <v>23</v>
       </c>
       <c r="J55" s="100"/>
-      <c r="K55" s="137" t="s">
+      <c r="K55" s="136" t="s">
         <v>466</v>
       </c>
       <c r="L55" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M55" s="147" t="s">
+      <c r="M55" s="146" t="s">
         <v>580</v>
       </c>
-      <c r="N55" s="206"/>
-      <c r="O55" s="216" t="s">
+      <c r="N55" s="205"/>
+      <c r="O55" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P55" s="147"/>
-      <c r="Q55" s="224"/>
-      <c r="R55" s="206"/>
+      <c r="P55" s="146"/>
+      <c r="Q55" s="223"/>
+      <c r="R55" s="205"/>
       <c r="S55" s="85"/>
       <c r="T55" s="85"/>
-      <c r="U55" s="206"/>
+      <c r="U55" s="205"/>
       <c r="V55" s="85"/>
       <c r="W55" s="85"/>
     </row>
@@ -15151,25 +16242,25 @@
         <v>23</v>
       </c>
       <c r="J56" s="100"/>
-      <c r="K56" s="135" t="s">
+      <c r="K56" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L56" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M56" s="149" t="s">
+      <c r="M56" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N56" s="205"/>
-      <c r="O56" s="215" t="s">
+      <c r="N56" s="204"/>
+      <c r="O56" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P56" s="158"/>
-      <c r="Q56" s="221"/>
-      <c r="R56" s="205"/>
+      <c r="P56" s="157"/>
+      <c r="Q56" s="220"/>
+      <c r="R56" s="204"/>
       <c r="S56" s="85"/>
       <c r="T56" s="85"/>
-      <c r="U56" s="205"/>
+      <c r="U56" s="204"/>
       <c r="V56" s="85"/>
       <c r="W56" s="85"/>
     </row>
@@ -15196,25 +16287,25 @@
         <v>23</v>
       </c>
       <c r="J57" s="100"/>
-      <c r="K57" s="135" t="s">
+      <c r="K57" s="134" t="s">
         <v>490</v>
       </c>
       <c r="L57" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M57" s="149" t="s">
+      <c r="M57" s="148" t="s">
         <v>609</v>
       </c>
-      <c r="N57" s="205"/>
-      <c r="O57" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P57" s="158"/>
-      <c r="Q57" s="221"/>
-      <c r="R57" s="205"/>
+      <c r="N57" s="204"/>
+      <c r="O57" s="283" t="s">
+        <v>690</v>
+      </c>
+      <c r="P57" s="157"/>
+      <c r="Q57" s="220"/>
+      <c r="R57" s="204"/>
       <c r="S57" s="85"/>
       <c r="T57" s="85"/>
-      <c r="U57" s="205"/>
+      <c r="U57" s="204"/>
       <c r="V57" s="85"/>
       <c r="W57" s="85"/>
     </row>
@@ -15245,25 +16336,25 @@
         <v>208</v>
       </c>
       <c r="J58" s="100"/>
-      <c r="K58" s="137" t="s">
+      <c r="K58" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L58" s="141" t="s">
+      <c r="L58" s="140" t="s">
         <v>589</v>
       </c>
-      <c r="M58" s="151" t="s">
+      <c r="M58" s="150" t="s">
         <v>588</v>
       </c>
-      <c r="N58" s="205"/>
-      <c r="O58" s="215" t="s">
+      <c r="N58" s="204"/>
+      <c r="O58" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P58" s="158"/>
-      <c r="Q58" s="221"/>
-      <c r="R58" s="205"/>
+      <c r="P58" s="157"/>
+      <c r="Q58" s="220"/>
+      <c r="R58" s="204"/>
       <c r="S58" s="85"/>
       <c r="T58" s="85"/>
-      <c r="U58" s="205"/>
+      <c r="U58" s="204"/>
       <c r="V58" s="85"/>
       <c r="W58" s="85"/>
     </row>
@@ -15290,25 +16381,25 @@
         <v>114</v>
       </c>
       <c r="J59" s="100"/>
-      <c r="K59" s="137" t="s">
+      <c r="K59" s="136" t="s">
         <v>466</v>
       </c>
       <c r="L59" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M59" s="147" t="s">
+      <c r="M59" s="146" t="s">
         <v>580</v>
       </c>
-      <c r="N59" s="206"/>
-      <c r="O59" s="216" t="s">
+      <c r="N59" s="205"/>
+      <c r="O59" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P59" s="147"/>
-      <c r="Q59" s="224"/>
-      <c r="R59" s="206"/>
+      <c r="P59" s="146"/>
+      <c r="Q59" s="223"/>
+      <c r="R59" s="205"/>
       <c r="S59" s="85"/>
       <c r="T59" s="85"/>
-      <c r="U59" s="206"/>
+      <c r="U59" s="205"/>
       <c r="V59" s="85"/>
       <c r="W59" s="85"/>
     </row>
@@ -15335,25 +16426,25 @@
         <v>23</v>
       </c>
       <c r="J60" s="100"/>
-      <c r="K60" s="135" t="s">
+      <c r="K60" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L60" s="141" t="s">
+      <c r="L60" s="140" t="s">
         <v>547</v>
       </c>
-      <c r="M60" s="151" t="s">
+      <c r="M60" s="150" t="s">
         <v>590</v>
       </c>
-      <c r="N60" s="205"/>
-      <c r="O60" s="215" t="s">
+      <c r="N60" s="204"/>
+      <c r="O60" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P60" s="158"/>
-      <c r="Q60" s="221"/>
-      <c r="R60" s="205"/>
+      <c r="P60" s="157"/>
+      <c r="Q60" s="220"/>
+      <c r="R60" s="204"/>
       <c r="S60" s="85"/>
       <c r="T60" s="85"/>
-      <c r="U60" s="205"/>
+      <c r="U60" s="204"/>
       <c r="V60" s="85"/>
       <c r="W60" s="85"/>
     </row>
@@ -15384,25 +16475,25 @@
         <v>217</v>
       </c>
       <c r="J61" s="100"/>
-      <c r="K61" s="137" t="s">
+      <c r="K61" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L61" s="122" t="s">
         <v>548</v>
       </c>
-      <c r="M61" s="148" t="s">
+      <c r="M61" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N61" s="205"/>
-      <c r="O61" s="215" t="s">
+      <c r="N61" s="204"/>
+      <c r="O61" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P61" s="158"/>
-      <c r="Q61" s="221"/>
-      <c r="R61" s="205"/>
+      <c r="P61" s="157"/>
+      <c r="Q61" s="220"/>
+      <c r="R61" s="204"/>
       <c r="S61" s="85"/>
       <c r="T61" s="85"/>
-      <c r="U61" s="205"/>
+      <c r="U61" s="204"/>
       <c r="V61" s="85"/>
       <c r="W61" s="85"/>
     </row>
@@ -15433,25 +16524,25 @@
         <v>217</v>
       </c>
       <c r="J62" s="100"/>
-      <c r="K62" s="137" t="s">
+      <c r="K62" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L62" s="122" t="s">
         <v>548</v>
       </c>
-      <c r="M62" s="148" t="s">
+      <c r="M62" s="147" t="s">
         <v>568</v>
       </c>
-      <c r="N62" s="205"/>
-      <c r="O62" s="215" t="s">
+      <c r="N62" s="204"/>
+      <c r="O62" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P62" s="158"/>
-      <c r="Q62" s="221"/>
-      <c r="R62" s="205"/>
+      <c r="P62" s="157"/>
+      <c r="Q62" s="220"/>
+      <c r="R62" s="204"/>
       <c r="S62" s="85"/>
       <c r="T62" s="85"/>
-      <c r="U62" s="205"/>
+      <c r="U62" s="204"/>
       <c r="V62" s="85"/>
       <c r="W62" s="85"/>
     </row>
@@ -15488,19 +16579,19 @@
       <c r="L63" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M63" s="151" t="s">
+      <c r="M63" s="150" t="s">
         <v>611</v>
       </c>
-      <c r="N63" s="205"/>
-      <c r="O63" s="215" t="s">
+      <c r="N63" s="204"/>
+      <c r="O63" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P63" s="158"/>
-      <c r="Q63" s="221"/>
-      <c r="R63" s="205"/>
+      <c r="P63" s="157"/>
+      <c r="Q63" s="220"/>
+      <c r="R63" s="204"/>
       <c r="S63" s="85"/>
       <c r="T63" s="85"/>
-      <c r="U63" s="205"/>
+      <c r="U63" s="204"/>
       <c r="V63" s="85"/>
       <c r="W63" s="85"/>
     </row>
@@ -15530,26 +16621,26 @@
       <c r="K64" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L64" s="153" t="s">
+      <c r="L64" s="152" t="s">
         <v>563</v>
       </c>
-      <c r="M64" s="151" t="s">
+      <c r="M64" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N64" s="205"/>
-      <c r="O64" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P64" s="158"/>
-      <c r="Q64" s="221"/>
-      <c r="R64" s="205"/>
+      <c r="N64" s="204"/>
+      <c r="O64" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P64" s="157"/>
+      <c r="Q64" s="220"/>
+      <c r="R64" s="204"/>
       <c r="S64" s="85"/>
       <c r="T64" s="85"/>
-      <c r="U64" s="205"/>
+      <c r="U64" s="204"/>
       <c r="V64" s="85"/>
       <c r="W64" s="85"/>
     </row>
-    <row r="65" spans="1:23" ht="54" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>227</v>
       </c>
@@ -15561,10 +16652,10 @@
       <c r="E65" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F65" s="250" t="s">
+      <c r="F65" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G65" s="251"/>
+      <c r="G65" s="254"/>
       <c r="H65" s="93"/>
       <c r="I65" s="111"/>
       <c r="J65" s="101" t="s">
@@ -15576,19 +16667,23 @@
       <c r="L65" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M65" s="151" t="s">
-        <v>617</v>
-      </c>
-      <c r="N65" s="205"/>
-      <c r="O65" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P65" s="158"/>
-      <c r="Q65" s="221"/>
-      <c r="R65" s="205"/>
+      <c r="M65" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N65" s="204"/>
+      <c r="O65" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P65" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q65" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R65" s="204"/>
       <c r="S65" s="85"/>
       <c r="T65" s="85"/>
-      <c r="U65" s="205"/>
+      <c r="U65" s="204"/>
       <c r="V65" s="85"/>
       <c r="W65" s="85"/>
     </row>
@@ -15615,25 +16710,25 @@
       <c r="J66" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="K66" s="137" t="s">
+      <c r="K66" s="136" t="s">
         <v>466</v>
       </c>
       <c r="L66" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M66" s="147" t="s">
+      <c r="M66" s="146" t="s">
         <v>580</v>
       </c>
-      <c r="N66" s="206"/>
-      <c r="O66" s="216" t="s">
+      <c r="N66" s="205"/>
+      <c r="O66" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P66" s="224"/>
-      <c r="Q66" s="224"/>
-      <c r="R66" s="206"/>
+      <c r="P66" s="223"/>
+      <c r="Q66" s="223"/>
+      <c r="R66" s="205"/>
       <c r="S66" s="85"/>
       <c r="T66" s="85"/>
-      <c r="U66" s="206"/>
+      <c r="U66" s="205"/>
       <c r="V66" s="85"/>
       <c r="W66" s="85"/>
     </row>
@@ -15649,10 +16744,10 @@
       <c r="E67" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F67" s="252" t="s">
+      <c r="F67" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="G67" s="253"/>
+      <c r="G67" s="256"/>
       <c r="H67" s="93"/>
       <c r="I67" s="121"/>
       <c r="J67" s="101" t="s">
@@ -15667,16 +16762,16 @@
       <c r="M67" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N67" s="205"/>
+      <c r="N67" s="204"/>
       <c r="O67" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P67" s="100"/>
-      <c r="Q67" s="223"/>
-      <c r="R67" s="205"/>
-      <c r="S67" s="159"/>
+      <c r="Q67" s="222"/>
+      <c r="R67" s="204"/>
+      <c r="S67" s="158"/>
       <c r="T67" s="85"/>
-      <c r="U67" s="205"/>
+      <c r="U67" s="204"/>
       <c r="V67" s="85"/>
       <c r="W67" s="85"/>
     </row>
@@ -15703,25 +16798,29 @@
       <c r="J68" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="K68" s="135" t="s">
+      <c r="K68" s="134" t="s">
         <v>494</v>
       </c>
       <c r="L68" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="M68" s="151" t="s">
-        <v>618</v>
-      </c>
-      <c r="N68" s="205"/>
-      <c r="O68" s="215" t="s">
+      <c r="M68" s="150" t="s">
+        <v>694</v>
+      </c>
+      <c r="N68" s="204"/>
+      <c r="O68" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P68" s="158"/>
-      <c r="Q68" s="221"/>
-      <c r="R68" s="205"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="85"/>
-      <c r="U68" s="205"/>
+      <c r="P68" s="157"/>
+      <c r="Q68" s="220"/>
+      <c r="R68" s="204"/>
+      <c r="S68" s="286" t="s">
+        <v>692</v>
+      </c>
+      <c r="T68" s="287" t="s">
+        <v>693</v>
+      </c>
+      <c r="U68" s="204"/>
       <c r="V68" s="85"/>
       <c r="W68" s="85"/>
     </row>
@@ -15748,7 +16847,7 @@
       <c r="J69" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="K69" s="135" t="s">
+      <c r="K69" s="134" t="s">
         <v>495</v>
       </c>
       <c r="L69" s="85" t="s">
@@ -15757,16 +16856,16 @@
       <c r="M69" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N69" s="205"/>
+      <c r="N69" s="204"/>
       <c r="O69" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P69" s="100"/>
-      <c r="Q69" s="223"/>
-      <c r="R69" s="205"/>
-      <c r="S69" s="159"/>
+      <c r="Q69" s="222"/>
+      <c r="R69" s="204"/>
+      <c r="S69" s="158"/>
       <c r="T69" s="85"/>
-      <c r="U69" s="205"/>
+      <c r="U69" s="204"/>
       <c r="V69" s="85"/>
       <c r="W69" s="85"/>
     </row>
@@ -15802,16 +16901,16 @@
       <c r="M70" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N70" s="205"/>
+      <c r="N70" s="204"/>
       <c r="O70" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P70" s="100"/>
-      <c r="Q70" s="223"/>
-      <c r="R70" s="205"/>
-      <c r="S70" s="159"/>
+      <c r="Q70" s="222"/>
+      <c r="R70" s="204"/>
+      <c r="S70" s="158"/>
       <c r="T70" s="85"/>
-      <c r="U70" s="205"/>
+      <c r="U70" s="204"/>
       <c r="V70" s="85"/>
       <c r="W70" s="85"/>
     </row>
@@ -15847,20 +16946,20 @@
       <c r="M71" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N71" s="205"/>
+      <c r="N71" s="204"/>
       <c r="O71" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P71" s="100"/>
-      <c r="Q71" s="223"/>
-      <c r="R71" s="205"/>
-      <c r="S71" s="159"/>
+      <c r="Q71" s="222"/>
+      <c r="R71" s="204"/>
+      <c r="S71" s="158"/>
       <c r="T71" s="85"/>
-      <c r="U71" s="205"/>
+      <c r="U71" s="204"/>
       <c r="V71" s="85"/>
       <c r="W71" s="85"/>
     </row>
-    <row r="72" spans="1:23" ht="54" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>255</v>
       </c>
@@ -15872,10 +16971,10 @@
       <c r="E72" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F72" s="250" t="s">
+      <c r="F72" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G72" s="251"/>
+      <c r="G72" s="254"/>
       <c r="H72" s="93"/>
       <c r="I72" s="111"/>
       <c r="J72" s="101" t="s">
@@ -15887,19 +16986,23 @@
       <c r="L72" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M72" s="151" t="s">
-        <v>615</v>
-      </c>
-      <c r="N72" s="205"/>
-      <c r="O72" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P72" s="158"/>
-      <c r="Q72" s="221"/>
-      <c r="R72" s="205"/>
+      <c r="M72" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N72" s="204"/>
+      <c r="O72" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P72" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q72" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R72" s="204"/>
       <c r="S72" s="85"/>
       <c r="T72" s="85"/>
-      <c r="U72" s="205"/>
+      <c r="U72" s="204"/>
       <c r="V72" s="85"/>
       <c r="W72" s="85"/>
     </row>
@@ -15932,19 +17035,23 @@
       <c r="L73" s="101" t="s">
         <v>551</v>
       </c>
-      <c r="M73" s="151" t="s">
-        <v>591</v>
-      </c>
-      <c r="N73" s="205"/>
-      <c r="O73" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P73" s="158"/>
-      <c r="Q73" s="221"/>
-      <c r="R73" s="205"/>
+      <c r="M73" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N73" s="204"/>
+      <c r="O73" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P73" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q73" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R73" s="204"/>
       <c r="S73" s="85"/>
       <c r="T73" s="85"/>
-      <c r="U73" s="205"/>
+      <c r="U73" s="204"/>
       <c r="V73" s="85"/>
       <c r="W73" s="85"/>
     </row>
@@ -15975,25 +17082,25 @@
       <c r="J74" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="K74" s="135" t="s">
+      <c r="K74" s="134" t="s">
         <v>501</v>
       </c>
       <c r="L74" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M74" s="151" t="s">
+      <c r="M74" s="150" t="s">
         <v>619</v>
       </c>
-      <c r="N74" s="205"/>
-      <c r="O74" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P74" s="158"/>
-      <c r="Q74" s="221"/>
-      <c r="R74" s="205"/>
+      <c r="N74" s="204"/>
+      <c r="O74" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P74" s="157"/>
+      <c r="Q74" s="220"/>
+      <c r="R74" s="204"/>
       <c r="S74" s="85"/>
       <c r="T74" s="85"/>
-      <c r="U74" s="205"/>
+      <c r="U74" s="204"/>
       <c r="V74" s="85"/>
       <c r="W74" s="85"/>
     </row>
@@ -16020,7 +17127,7 @@
       <c r="J75" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="K75" s="137" t="s">
+      <c r="K75" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L75" s="101" t="s">
@@ -16029,16 +17136,16 @@
       <c r="M75" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N75" s="205"/>
+      <c r="N75" s="204"/>
       <c r="O75" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P75" s="100"/>
-      <c r="Q75" s="223"/>
-      <c r="R75" s="205"/>
-      <c r="S75" s="159"/>
+      <c r="Q75" s="222"/>
+      <c r="R75" s="204"/>
+      <c r="S75" s="158"/>
       <c r="T75" s="85"/>
-      <c r="U75" s="205"/>
+      <c r="U75" s="204"/>
       <c r="V75" s="85"/>
       <c r="W75" s="85"/>
     </row>
@@ -16069,7 +17176,7 @@
       <c r="J76" s="106" t="s">
         <v>270</v>
       </c>
-      <c r="K76" s="135" t="s">
+      <c r="K76" s="134" t="s">
         <v>499</v>
       </c>
       <c r="L76" s="85" t="s">
@@ -16078,20 +17185,20 @@
       <c r="M76" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N76" s="205"/>
+      <c r="N76" s="204"/>
       <c r="O76" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P76" s="100"/>
-      <c r="Q76" s="223"/>
-      <c r="R76" s="205"/>
-      <c r="S76" s="159"/>
+      <c r="Q76" s="222"/>
+      <c r="R76" s="204"/>
+      <c r="S76" s="158"/>
       <c r="T76" s="85"/>
-      <c r="U76" s="205"/>
+      <c r="U76" s="204"/>
       <c r="V76" s="85"/>
       <c r="W76" s="85"/>
     </row>
-    <row r="77" spans="1:23" ht="54" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>271</v>
       </c>
@@ -16103,10 +17210,10 @@
       <c r="E77" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F77" s="250" t="s">
+      <c r="F77" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G77" s="251"/>
+      <c r="G77" s="254"/>
       <c r="H77" s="93"/>
       <c r="I77" s="111"/>
       <c r="J77" s="101" t="s">
@@ -16118,19 +17225,23 @@
       <c r="L77" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M77" s="151" t="s">
-        <v>616</v>
-      </c>
-      <c r="N77" s="205"/>
-      <c r="O77" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P77" s="158"/>
-      <c r="Q77" s="221"/>
-      <c r="R77" s="205"/>
+      <c r="M77" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N77" s="204"/>
+      <c r="O77" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P77" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q77" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R77" s="204"/>
       <c r="S77" s="85"/>
       <c r="T77" s="85"/>
-      <c r="U77" s="205"/>
+      <c r="U77" s="204"/>
       <c r="V77" s="85"/>
       <c r="W77" s="85"/>
     </row>
@@ -16160,22 +17271,26 @@
       <c r="K78" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L78" s="153" t="s">
+      <c r="L78" s="152" t="s">
         <v>563</v>
       </c>
-      <c r="M78" s="151" t="s">
-        <v>604</v>
-      </c>
-      <c r="N78" s="205"/>
-      <c r="O78" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P78" s="158"/>
-      <c r="Q78" s="221"/>
-      <c r="R78" s="205"/>
+      <c r="M78" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N78" s="204"/>
+      <c r="O78" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P78" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q78" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R78" s="204"/>
       <c r="S78" s="85"/>
       <c r="T78" s="85"/>
-      <c r="U78" s="205"/>
+      <c r="U78" s="204"/>
       <c r="V78" s="85"/>
       <c r="W78" s="85"/>
     </row>
@@ -16205,22 +17320,22 @@
       <c r="K79" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L79" s="153" t="s">
+      <c r="L79" s="152" t="s">
         <v>563</v>
       </c>
-      <c r="M79" s="151" t="s">
+      <c r="M79" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N79" s="205"/>
-      <c r="O79" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P79" s="158"/>
-      <c r="Q79" s="221"/>
-      <c r="R79" s="205"/>
+      <c r="N79" s="204"/>
+      <c r="O79" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P79" s="157"/>
+      <c r="Q79" s="220"/>
+      <c r="R79" s="204"/>
       <c r="S79" s="85"/>
       <c r="T79" s="85"/>
-      <c r="U79" s="205"/>
+      <c r="U79" s="204"/>
       <c r="V79" s="85"/>
       <c r="W79" s="85"/>
     </row>
@@ -16236,16 +17351,16 @@
       <c r="E80" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="F80" s="250" t="s">
+      <c r="F80" s="253" t="s">
         <v>278</v>
       </c>
-      <c r="G80" s="251"/>
+      <c r="G80" s="254"/>
       <c r="H80" s="93"/>
       <c r="I80" s="111"/>
       <c r="J80" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="K80" s="137" t="s">
+      <c r="K80" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L80" s="85" t="s">
@@ -16254,16 +17369,16 @@
       <c r="M80" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N80" s="205"/>
+      <c r="N80" s="204"/>
       <c r="O80" s="111" t="s">
         <v>579</v>
       </c>
-      <c r="P80" s="158"/>
-      <c r="Q80" s="223"/>
-      <c r="R80" s="205"/>
-      <c r="S80" s="159"/>
+      <c r="P80" s="157"/>
+      <c r="Q80" s="222"/>
+      <c r="R80" s="204"/>
+      <c r="S80" s="158"/>
       <c r="T80" s="85"/>
-      <c r="U80" s="205"/>
+      <c r="U80" s="204"/>
       <c r="V80" s="85"/>
       <c r="W80" s="85"/>
     </row>
@@ -16290,25 +17405,25 @@
       <c r="J81" s="105" t="s">
         <v>500</v>
       </c>
-      <c r="K81" s="135" t="s">
+      <c r="K81" s="134" t="s">
         <v>501</v>
       </c>
       <c r="L81" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M81" s="151" t="s">
+      <c r="M81" s="150" t="s">
         <v>619</v>
       </c>
-      <c r="N81" s="205"/>
-      <c r="O81" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P81" s="158"/>
-      <c r="Q81" s="221"/>
-      <c r="R81" s="205"/>
+      <c r="N81" s="204"/>
+      <c r="O81" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P81" s="157"/>
+      <c r="Q81" s="220"/>
+      <c r="R81" s="204"/>
       <c r="S81" s="85"/>
       <c r="T81" s="85"/>
-      <c r="U81" s="205"/>
+      <c r="U81" s="204"/>
       <c r="V81" s="85"/>
       <c r="W81" s="85"/>
     </row>
@@ -16339,25 +17454,25 @@
       <c r="J82" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="K82" s="135" t="s">
+      <c r="K82" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L82" s="101" t="s">
         <v>554</v>
       </c>
-      <c r="M82" s="145" t="s">
+      <c r="M82" s="144" t="s">
         <v>603</v>
       </c>
-      <c r="N82" s="205"/>
-      <c r="O82" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P82" s="158"/>
-      <c r="Q82" s="221"/>
-      <c r="R82" s="205"/>
+      <c r="N82" s="204"/>
+      <c r="O82" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P82" s="157"/>
+      <c r="Q82" s="220"/>
+      <c r="R82" s="204"/>
       <c r="S82" s="85"/>
       <c r="T82" s="85"/>
-      <c r="U82" s="205"/>
+      <c r="U82" s="204"/>
       <c r="V82" s="85"/>
       <c r="W82" s="85"/>
     </row>
@@ -16384,7 +17499,7 @@
       <c r="J83" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="K83" s="135" t="s">
+      <c r="K83" s="134" t="s">
         <v>499</v>
       </c>
       <c r="L83" s="85" t="s">
@@ -16393,16 +17508,16 @@
       <c r="M83" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N83" s="205"/>
+      <c r="N83" s="204"/>
       <c r="O83" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P83" s="100"/>
-      <c r="Q83" s="223"/>
-      <c r="R83" s="205"/>
-      <c r="S83" s="159"/>
+      <c r="Q83" s="222"/>
+      <c r="R83" s="204"/>
+      <c r="S83" s="158"/>
       <c r="T83" s="85"/>
-      <c r="U83" s="205"/>
+      <c r="U83" s="204"/>
       <c r="V83" s="85"/>
       <c r="W83" s="85"/>
     </row>
@@ -16435,19 +17550,19 @@
       <c r="L84" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M84" s="151" t="s">
+      <c r="M84" s="150" t="s">
         <v>619</v>
       </c>
-      <c r="N84" s="205"/>
-      <c r="O84" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P84" s="158"/>
-      <c r="Q84" s="221"/>
-      <c r="R84" s="205"/>
+      <c r="N84" s="204"/>
+      <c r="O84" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P84" s="157"/>
+      <c r="Q84" s="220"/>
+      <c r="R84" s="204"/>
       <c r="S84" s="85"/>
       <c r="T84" s="85"/>
-      <c r="U84" s="205"/>
+      <c r="U84" s="204"/>
       <c r="V84" s="85"/>
       <c r="W84" s="85"/>
     </row>
@@ -16472,7 +17587,7 @@
       <c r="H85" s="93"/>
       <c r="I85" s="111"/>
       <c r="J85" s="99"/>
-      <c r="K85" s="135" t="s">
+      <c r="K85" s="134" t="s">
         <v>506</v>
       </c>
       <c r="L85" s="85" t="s">
@@ -16481,16 +17596,16 @@
       <c r="M85" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N85" s="205"/>
+      <c r="N85" s="204"/>
       <c r="O85" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P85" s="100"/>
-      <c r="Q85" s="223"/>
-      <c r="R85" s="205"/>
-      <c r="S85" s="159"/>
+      <c r="Q85" s="222"/>
+      <c r="R85" s="204"/>
+      <c r="S85" s="158"/>
       <c r="T85" s="85"/>
-      <c r="U85" s="205"/>
+      <c r="U85" s="204"/>
       <c r="V85" s="85"/>
       <c r="W85" s="85"/>
     </row>
@@ -16523,19 +17638,19 @@
       <c r="L86" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M86" s="151" t="s">
+      <c r="M86" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N86" s="205"/>
-      <c r="O86" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P86" s="158"/>
-      <c r="Q86" s="221"/>
-      <c r="R86" s="205"/>
+      <c r="N86" s="204"/>
+      <c r="O86" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P86" s="157"/>
+      <c r="Q86" s="220"/>
+      <c r="R86" s="204"/>
       <c r="S86" s="85"/>
       <c r="T86" s="85"/>
-      <c r="U86" s="205"/>
+      <c r="U86" s="204"/>
       <c r="V86" s="85"/>
       <c r="W86" s="85"/>
     </row>
@@ -16568,19 +17683,19 @@
       <c r="L87" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M87" s="151" t="s">
+      <c r="M87" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N87" s="205"/>
-      <c r="O87" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P87" s="158"/>
-      <c r="Q87" s="221"/>
-      <c r="R87" s="205"/>
+      <c r="N87" s="204"/>
+      <c r="O87" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P87" s="157"/>
+      <c r="Q87" s="220"/>
+      <c r="R87" s="204"/>
       <c r="S87" s="85"/>
       <c r="T87" s="85"/>
-      <c r="U87" s="205"/>
+      <c r="U87" s="204"/>
       <c r="V87" s="85"/>
       <c r="W87" s="85"/>
     </row>
@@ -16613,19 +17728,19 @@
       <c r="L88" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M88" s="151" t="s">
+      <c r="M88" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N88" s="205"/>
-      <c r="O88" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P88" s="158"/>
-      <c r="Q88" s="221"/>
-      <c r="R88" s="205"/>
+      <c r="N88" s="204"/>
+      <c r="O88" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P88" s="157"/>
+      <c r="Q88" s="220"/>
+      <c r="R88" s="204"/>
       <c r="S88" s="85"/>
       <c r="T88" s="85"/>
-      <c r="U88" s="205"/>
+      <c r="U88" s="204"/>
       <c r="V88" s="85"/>
       <c r="W88" s="85"/>
     </row>
@@ -16652,25 +17767,25 @@
       <c r="J89" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="K89" s="137" t="s">
+      <c r="K89" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L89" s="85" t="s">
         <v>557</v>
       </c>
-      <c r="M89" s="151" t="s">
+      <c r="M89" s="150" t="s">
         <v>592</v>
       </c>
-      <c r="N89" s="205"/>
-      <c r="O89" s="215" t="s">
+      <c r="N89" s="204"/>
+      <c r="O89" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P89" s="158"/>
-      <c r="Q89" s="221"/>
-      <c r="R89" s="205"/>
+      <c r="P89" s="157"/>
+      <c r="Q89" s="220"/>
+      <c r="R89" s="204"/>
       <c r="S89" s="85"/>
       <c r="T89" s="85"/>
-      <c r="U89" s="205"/>
+      <c r="U89" s="204"/>
       <c r="V89" s="85"/>
       <c r="W89" s="85"/>
     </row>
@@ -16690,34 +17805,34 @@
       <c r="E90" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="250" t="s">
+      <c r="F90" s="253" t="s">
         <v>310</v>
       </c>
-      <c r="G90" s="251"/>
+      <c r="G90" s="254"/>
       <c r="H90" s="97"/>
       <c r="I90" s="111"/>
-      <c r="J90" s="256" t="s">
+      <c r="J90" s="259" t="s">
         <v>311</v>
       </c>
-      <c r="K90" s="137" t="s">
+      <c r="K90" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L90" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M90" s="263" t="s">
+      <c r="M90" s="266" t="s">
         <v>579</v>
       </c>
-      <c r="N90" s="205"/>
+      <c r="N90" s="204"/>
       <c r="O90" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P90" s="100"/>
-      <c r="Q90" s="223"/>
-      <c r="R90" s="205"/>
-      <c r="S90" s="159"/>
+      <c r="Q90" s="222"/>
+      <c r="R90" s="204"/>
+      <c r="S90" s="158"/>
       <c r="T90" s="85"/>
-      <c r="U90" s="205"/>
+      <c r="U90" s="204"/>
       <c r="V90" s="85"/>
       <c r="W90" s="85"/>
     </row>
@@ -16745,24 +17860,24 @@
       </c>
       <c r="H91" s="97"/>
       <c r="I91" s="111"/>
-      <c r="J91" s="256"/>
-      <c r="K91" s="137" t="s">
+      <c r="J91" s="259"/>
+      <c r="K91" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L91" s="85" t="s">
         <v>558</v>
       </c>
-      <c r="M91" s="264"/>
-      <c r="N91" s="205"/>
+      <c r="M91" s="267"/>
+      <c r="N91" s="204"/>
       <c r="O91" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P91" s="100"/>
-      <c r="Q91" s="223"/>
-      <c r="R91" s="205"/>
-      <c r="S91" s="159"/>
+      <c r="Q91" s="222"/>
+      <c r="R91" s="204"/>
+      <c r="S91" s="158"/>
       <c r="T91" s="85"/>
-      <c r="U91" s="205"/>
+      <c r="U91" s="204"/>
       <c r="V91" s="85"/>
       <c r="W91" s="85"/>
     </row>
@@ -16795,23 +17910,23 @@
       <c r="L92" s="85" t="s">
         <v>559</v>
       </c>
-      <c r="M92" s="151" t="s">
+      <c r="M92" s="150" t="s">
         <v>593</v>
       </c>
-      <c r="N92" s="205"/>
-      <c r="O92" s="215" t="s">
+      <c r="N92" s="204"/>
+      <c r="O92" s="214" t="s">
         <v>633</v>
       </c>
-      <c r="P92" s="158"/>
-      <c r="Q92" s="221"/>
-      <c r="R92" s="205"/>
+      <c r="P92" s="157"/>
+      <c r="Q92" s="220"/>
+      <c r="R92" s="204"/>
       <c r="S92" s="85"/>
       <c r="T92" s="85"/>
-      <c r="U92" s="205"/>
+      <c r="U92" s="204"/>
       <c r="V92" s="85"/>
       <c r="W92" s="85"/>
     </row>
-    <row r="93" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" ht="54" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>317</v>
       </c>
@@ -16831,28 +17946,28 @@
       </c>
       <c r="H93" s="93"/>
       <c r="I93" s="111"/>
-      <c r="J93" s="99" t="s">
+      <c r="J93" s="288" t="s">
         <v>319</v>
       </c>
-      <c r="K93" s="122" t="s">
-        <v>620</v>
+      <c r="K93" s="289" t="s">
+        <v>695</v>
       </c>
       <c r="L93" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M93" s="151" t="s">
-        <v>621</v>
-      </c>
-      <c r="N93" s="205"/>
-      <c r="O93" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P93" s="158"/>
-      <c r="Q93" s="221"/>
-      <c r="R93" s="205"/>
-      <c r="S93" s="85"/>
+      <c r="M93" s="150" t="s">
+        <v>696</v>
+      </c>
+      <c r="N93" s="204"/>
+      <c r="O93" s="111" t="s">
+        <v>697</v>
+      </c>
+      <c r="P93" s="100"/>
+      <c r="Q93" s="222"/>
+      <c r="R93" s="204"/>
+      <c r="S93" s="158"/>
       <c r="T93" s="85"/>
-      <c r="U93" s="205"/>
+      <c r="U93" s="204"/>
       <c r="V93" s="85"/>
       <c r="W93" s="85"/>
     </row>
@@ -16885,19 +18000,19 @@
       <c r="L94" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M94" s="151" t="s">
+      <c r="M94" s="150" t="s">
         <v>622</v>
       </c>
-      <c r="N94" s="205"/>
-      <c r="O94" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P94" s="158"/>
-      <c r="Q94" s="221"/>
-      <c r="R94" s="205"/>
+      <c r="N94" s="204"/>
+      <c r="O94" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P94" s="157"/>
+      <c r="Q94" s="220"/>
+      <c r="R94" s="204"/>
       <c r="S94" s="85"/>
       <c r="T94" s="85"/>
-      <c r="U94" s="205"/>
+      <c r="U94" s="204"/>
       <c r="V94" s="85"/>
       <c r="W94" s="85"/>
     </row>
@@ -16928,25 +18043,25 @@
       <c r="J95" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="K95" s="137" t="s">
+      <c r="K95" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L95" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="M95" s="151" t="s">
+      <c r="M95" s="150" t="s">
         <v>595</v>
       </c>
-      <c r="N95" s="205"/>
-      <c r="O95" s="215" t="s">
+      <c r="N95" s="204"/>
+      <c r="O95" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P95" s="158"/>
-      <c r="Q95" s="221"/>
-      <c r="R95" s="205"/>
+      <c r="P95" s="157"/>
+      <c r="Q95" s="220"/>
+      <c r="R95" s="204"/>
       <c r="S95" s="85"/>
       <c r="T95" s="85"/>
-      <c r="U95" s="205"/>
+      <c r="U95" s="204"/>
       <c r="V95" s="85"/>
       <c r="W95" s="85"/>
     </row>
@@ -16977,25 +18092,25 @@
       <c r="J96" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="K96" s="137" t="s">
+      <c r="K96" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L96" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="M96" s="151" t="s">
+      <c r="M96" s="150" t="s">
         <v>596</v>
       </c>
-      <c r="N96" s="205"/>
-      <c r="O96" s="215" t="s">
+      <c r="N96" s="204"/>
+      <c r="O96" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P96" s="158"/>
-      <c r="Q96" s="221"/>
-      <c r="R96" s="205"/>
+      <c r="P96" s="157"/>
+      <c r="Q96" s="220"/>
+      <c r="R96" s="204"/>
       <c r="S96" s="85"/>
       <c r="T96" s="85"/>
-      <c r="U96" s="205"/>
+      <c r="U96" s="204"/>
       <c r="V96" s="85"/>
       <c r="W96" s="85"/>
     </row>
@@ -17028,19 +18143,19 @@
       <c r="L97" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M97" s="151" t="s">
+      <c r="M97" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N97" s="205"/>
-      <c r="O97" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P97" s="158"/>
-      <c r="Q97" s="221"/>
-      <c r="R97" s="205"/>
+      <c r="N97" s="204"/>
+      <c r="O97" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P97" s="157"/>
+      <c r="Q97" s="220"/>
+      <c r="R97" s="204"/>
       <c r="S97" s="85"/>
       <c r="T97" s="85"/>
-      <c r="U97" s="205"/>
+      <c r="U97" s="204"/>
       <c r="V97" s="85"/>
       <c r="W97" s="85"/>
     </row>
@@ -17076,16 +18191,16 @@
       <c r="M98" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N98" s="205"/>
+      <c r="N98" s="204"/>
       <c r="O98" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P98" s="100"/>
-      <c r="Q98" s="223"/>
-      <c r="R98" s="205"/>
-      <c r="S98" s="159"/>
+      <c r="Q98" s="222"/>
+      <c r="R98" s="204"/>
+      <c r="S98" s="158"/>
       <c r="T98" s="85"/>
-      <c r="U98" s="205"/>
+      <c r="U98" s="204"/>
       <c r="V98" s="85"/>
       <c r="W98" s="85"/>
     </row>
@@ -17112,7 +18227,7 @@
       <c r="J99" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="K99" s="135" t="s">
+      <c r="K99" s="134" t="s">
         <v>513</v>
       </c>
       <c r="L99" s="85" t="s">
@@ -17121,16 +18236,16 @@
       <c r="M99" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N99" s="205"/>
+      <c r="N99" s="204"/>
       <c r="O99" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P99" s="100"/>
-      <c r="Q99" s="223"/>
-      <c r="R99" s="205"/>
-      <c r="S99" s="159"/>
+      <c r="Q99" s="222"/>
+      <c r="R99" s="204"/>
+      <c r="S99" s="158"/>
       <c r="T99" s="85"/>
-      <c r="U99" s="205"/>
+      <c r="U99" s="204"/>
       <c r="V99" s="85"/>
       <c r="W99" s="85"/>
     </row>
@@ -17157,25 +18272,25 @@
       <c r="J100" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="K100" s="140" t="s">
+      <c r="K100" s="139" t="s">
         <v>514</v>
       </c>
       <c r="L100" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M100" s="151" t="s">
+      <c r="M100" s="150" t="s">
         <v>623</v>
       </c>
-      <c r="N100" s="205"/>
-      <c r="O100" s="215" t="s">
+      <c r="N100" s="204"/>
+      <c r="O100" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P100" s="158"/>
-      <c r="Q100" s="221"/>
-      <c r="R100" s="205"/>
+      <c r="P100" s="157"/>
+      <c r="Q100" s="220"/>
+      <c r="R100" s="204"/>
       <c r="S100" s="85"/>
       <c r="T100" s="85"/>
-      <c r="U100" s="205"/>
+      <c r="U100" s="204"/>
       <c r="V100" s="85"/>
       <c r="W100" s="85"/>
     </row>
@@ -17206,25 +18321,25 @@
       <c r="J101" s="99" t="s">
         <v>447</v>
       </c>
-      <c r="K101" s="137" t="s">
+      <c r="K101" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L101" s="101" t="s">
         <v>561</v>
       </c>
-      <c r="M101" s="152" t="s">
+      <c r="M101" s="151" t="s">
         <v>597</v>
       </c>
-      <c r="N101" s="205"/>
-      <c r="O101" s="215" t="s">
+      <c r="N101" s="204"/>
+      <c r="O101" s="214" t="s">
         <v>630</v>
       </c>
-      <c r="P101" s="158"/>
-      <c r="Q101" s="221"/>
-      <c r="R101" s="205"/>
+      <c r="P101" s="157"/>
+      <c r="Q101" s="220"/>
+      <c r="R101" s="204"/>
       <c r="S101" s="85"/>
       <c r="T101" s="85"/>
-      <c r="U101" s="205"/>
+      <c r="U101" s="204"/>
       <c r="V101" s="85"/>
       <c r="W101" s="85"/>
     </row>
@@ -17251,25 +18366,29 @@
       <c r="J102" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="K102" s="140" t="s">
+      <c r="K102" s="139" t="s">
         <v>514</v>
       </c>
       <c r="L102" s="85" t="s">
         <v>567</v>
       </c>
-      <c r="M102" s="151" t="s">
-        <v>623</v>
-      </c>
-      <c r="N102" s="205"/>
-      <c r="O102" s="215" t="s">
+      <c r="M102" s="150" t="s">
+        <v>698</v>
+      </c>
+      <c r="N102" s="204"/>
+      <c r="O102" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P102" s="158"/>
-      <c r="Q102" s="221"/>
-      <c r="R102" s="205"/>
+      <c r="P102" s="157" t="s">
+        <v>672</v>
+      </c>
+      <c r="Q102" s="290" t="s">
+        <v>699</v>
+      </c>
+      <c r="R102" s="204"/>
       <c r="S102" s="85"/>
       <c r="T102" s="85"/>
-      <c r="U102" s="205"/>
+      <c r="U102" s="204"/>
       <c r="V102" s="85"/>
       <c r="W102" s="85"/>
     </row>
@@ -17289,10 +18408,10 @@
       <c r="E103" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F103" s="236" t="s">
+      <c r="F103" s="268" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="237"/>
+      <c r="G103" s="269"/>
       <c r="H103" s="93"/>
       <c r="I103" s="111"/>
       <c r="J103" s="101" t="s">
@@ -17301,22 +18420,22 @@
       <c r="K103" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L103" s="238" t="s">
+      <c r="L103" s="241" t="s">
         <v>598</v>
       </c>
       <c r="M103" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N103" s="205"/>
+      <c r="N103" s="204"/>
       <c r="O103" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P103" s="100"/>
-      <c r="Q103" s="223"/>
-      <c r="R103" s="205"/>
-      <c r="S103" s="159"/>
+      <c r="Q103" s="222"/>
+      <c r="R103" s="204"/>
+      <c r="S103" s="158"/>
       <c r="T103" s="85"/>
-      <c r="U103" s="205"/>
+      <c r="U103" s="204"/>
       <c r="V103" s="85"/>
       <c r="W103" s="85"/>
     </row>
@@ -17350,20 +18469,20 @@
       <c r="K104" s="122" t="s">
         <v>493</v>
       </c>
-      <c r="L104" s="239"/>
+      <c r="L104" s="242"/>
       <c r="M104" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N104" s="205"/>
+      <c r="N104" s="204"/>
       <c r="O104" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P104" s="100"/>
-      <c r="Q104" s="223"/>
-      <c r="R104" s="205"/>
-      <c r="S104" s="159"/>
+      <c r="Q104" s="222"/>
+      <c r="R104" s="204"/>
+      <c r="S104" s="158"/>
       <c r="T104" s="85"/>
-      <c r="U104" s="205"/>
+      <c r="U104" s="204"/>
       <c r="V104" s="85"/>
       <c r="W104" s="85"/>
     </row>
@@ -17379,10 +18498,10 @@
       <c r="E105" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="F105" s="236" t="s">
+      <c r="F105" s="268" t="s">
         <v>235</v>
       </c>
-      <c r="G105" s="237"/>
+      <c r="G105" s="269"/>
       <c r="H105" s="93"/>
       <c r="I105" s="111"/>
       <c r="J105" s="101" t="s">
@@ -17397,16 +18516,16 @@
       <c r="M105" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N105" s="205"/>
+      <c r="N105" s="204"/>
       <c r="O105" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P105" s="100"/>
-      <c r="Q105" s="223"/>
-      <c r="R105" s="205"/>
-      <c r="S105" s="159"/>
+      <c r="Q105" s="222"/>
+      <c r="R105" s="204"/>
+      <c r="S105" s="158"/>
       <c r="T105" s="85"/>
-      <c r="U105" s="205"/>
+      <c r="U105" s="204"/>
       <c r="V105" s="85"/>
       <c r="W105" s="85"/>
     </row>
@@ -17437,7 +18556,7 @@
       <c r="J106" s="99" t="s">
         <v>448</v>
       </c>
-      <c r="K106" s="135" t="s">
+      <c r="K106" s="134" t="s">
         <v>515</v>
       </c>
       <c r="L106" s="101" t="s">
@@ -17446,16 +18565,16 @@
       <c r="M106" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N106" s="205"/>
+      <c r="N106" s="204"/>
       <c r="O106" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P106" s="100"/>
-      <c r="Q106" s="223"/>
-      <c r="R106" s="205"/>
-      <c r="S106" s="159"/>
+      <c r="Q106" s="222"/>
+      <c r="R106" s="204"/>
+      <c r="S106" s="158"/>
       <c r="T106" s="85"/>
-      <c r="U106" s="205"/>
+      <c r="U106" s="204"/>
       <c r="V106" s="85"/>
       <c r="W106" s="85"/>
     </row>
@@ -17482,25 +18601,25 @@
       <c r="J107" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="K107" s="135" t="s">
+      <c r="K107" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L107" s="85" t="s">
         <v>555</v>
       </c>
-      <c r="M107" s="145" t="s">
+      <c r="M107" s="144" t="s">
         <v>599</v>
       </c>
-      <c r="N107" s="205"/>
-      <c r="O107" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P107" s="158"/>
-      <c r="Q107" s="221"/>
-      <c r="R107" s="205"/>
+      <c r="N107" s="204"/>
+      <c r="O107" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P107" s="157"/>
+      <c r="Q107" s="220"/>
+      <c r="R107" s="204"/>
       <c r="S107" s="85"/>
       <c r="T107" s="85"/>
-      <c r="U107" s="205"/>
+      <c r="U107" s="204"/>
       <c r="V107" s="85"/>
       <c r="W107" s="85"/>
     </row>
@@ -17530,22 +18649,22 @@
       <c r="K108" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L108" s="238" t="s">
+      <c r="L108" s="241" t="s">
         <v>563</v>
       </c>
-      <c r="M108" s="151" t="s">
+      <c r="M108" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N108" s="205"/>
-      <c r="O108" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P108" s="158"/>
-      <c r="Q108" s="221"/>
-      <c r="R108" s="205"/>
+      <c r="N108" s="204"/>
+      <c r="O108" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P108" s="157"/>
+      <c r="Q108" s="220"/>
+      <c r="R108" s="204"/>
       <c r="S108" s="85"/>
       <c r="T108" s="85"/>
-      <c r="U108" s="205"/>
+      <c r="U108" s="204"/>
       <c r="V108" s="85"/>
       <c r="W108" s="85"/>
     </row>
@@ -17575,24 +18694,24 @@
       <c r="K109" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L109" s="239"/>
-      <c r="M109" s="151" t="s">
+      <c r="L109" s="242"/>
+      <c r="M109" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N109" s="205"/>
-      <c r="O109" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P109" s="158"/>
-      <c r="Q109" s="221"/>
-      <c r="R109" s="205"/>
+      <c r="N109" s="204"/>
+      <c r="O109" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P109" s="157"/>
+      <c r="Q109" s="220"/>
+      <c r="R109" s="204"/>
       <c r="S109" s="85"/>
       <c r="T109" s="85"/>
-      <c r="U109" s="205"/>
+      <c r="U109" s="204"/>
       <c r="V109" s="85"/>
       <c r="W109" s="85"/>
     </row>
-    <row r="110" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>357</v>
       </c>
@@ -17612,28 +18731,32 @@
       </c>
       <c r="H110" s="93"/>
       <c r="I110" s="111"/>
-      <c r="J110" s="99" t="s">
-        <v>516</v>
-      </c>
-      <c r="K110" s="135" t="s">
+      <c r="J110" s="290" t="s">
+        <v>700</v>
+      </c>
+      <c r="K110" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L110" s="101" t="s">
         <v>562</v>
       </c>
-      <c r="M110" s="149" t="s">
-        <v>569</v>
-      </c>
-      <c r="N110" s="209"/>
-      <c r="O110" s="219" t="s">
-        <v>634</v>
-      </c>
-      <c r="P110" s="158"/>
-      <c r="Q110" s="227"/>
-      <c r="R110" s="209"/>
+      <c r="M110" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N110" s="208"/>
+      <c r="O110" s="218" t="s">
+        <v>629</v>
+      </c>
+      <c r="P110" s="157" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q110" s="291" t="s">
+        <v>701</v>
+      </c>
+      <c r="R110" s="208"/>
       <c r="S110" s="85"/>
       <c r="T110" s="85"/>
-      <c r="U110" s="209"/>
+      <c r="U110" s="208"/>
       <c r="V110" s="85"/>
       <c r="W110" s="85"/>
     </row>
@@ -17663,22 +18786,22 @@
       <c r="K111" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L111" s="142" t="s">
+      <c r="L111" s="141" t="s">
         <v>563</v>
       </c>
-      <c r="M111" s="151" t="s">
+      <c r="M111" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N111" s="205"/>
-      <c r="O111" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P111" s="158"/>
-      <c r="Q111" s="221"/>
-      <c r="R111" s="205"/>
+      <c r="N111" s="204"/>
+      <c r="O111" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P111" s="157"/>
+      <c r="Q111" s="220"/>
+      <c r="R111" s="204"/>
       <c r="S111" s="85"/>
       <c r="T111" s="85"/>
-      <c r="U111" s="205"/>
+      <c r="U111" s="204"/>
       <c r="V111" s="85"/>
       <c r="W111" s="85"/>
     </row>
@@ -17702,28 +18825,28 @@
       </c>
       <c r="H112" s="93"/>
       <c r="I112" s="111"/>
-      <c r="J112" s="256" t="s">
+      <c r="J112" s="259" t="s">
         <v>517</v>
       </c>
-      <c r="K112" s="240" t="s">
+      <c r="K112" s="270" t="s">
         <v>518</v>
       </c>
-      <c r="L112" s="143" t="s">
+      <c r="L112" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="M112" s="272" t="s">
+      <c r="M112" s="243" t="s">
         <v>606</v>
       </c>
-      <c r="N112" s="205"/>
-      <c r="O112" s="215" t="s">
+      <c r="N112" s="204"/>
+      <c r="O112" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P112" s="158"/>
-      <c r="Q112" s="221"/>
-      <c r="R112" s="205"/>
+      <c r="P112" s="157"/>
+      <c r="Q112" s="220"/>
+      <c r="R112" s="204"/>
       <c r="S112" s="85"/>
       <c r="T112" s="85"/>
-      <c r="U112" s="205"/>
+      <c r="U112" s="204"/>
       <c r="V112" s="85"/>
       <c r="W112" s="85"/>
     </row>
@@ -17747,22 +18870,22 @@
       </c>
       <c r="H113" s="93"/>
       <c r="I113" s="111"/>
-      <c r="J113" s="256"/>
-      <c r="K113" s="241"/>
-      <c r="L113" s="143" t="s">
+      <c r="J113" s="259"/>
+      <c r="K113" s="271"/>
+      <c r="L113" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="M113" s="273"/>
-      <c r="N113" s="205"/>
-      <c r="O113" s="215" t="s">
+      <c r="M113" s="244"/>
+      <c r="N113" s="204"/>
+      <c r="O113" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P113" s="158"/>
-      <c r="Q113" s="221"/>
-      <c r="R113" s="205"/>
+      <c r="P113" s="157"/>
+      <c r="Q113" s="220"/>
+      <c r="R113" s="204"/>
       <c r="S113" s="85"/>
       <c r="T113" s="85"/>
-      <c r="U113" s="205"/>
+      <c r="U113" s="204"/>
       <c r="V113" s="85"/>
       <c r="W113" s="85"/>
     </row>
@@ -17786,22 +18909,22 @@
       </c>
       <c r="H114" s="93"/>
       <c r="I114" s="111"/>
-      <c r="J114" s="256"/>
-      <c r="K114" s="241"/>
-      <c r="L114" s="143" t="s">
+      <c r="J114" s="259"/>
+      <c r="K114" s="271"/>
+      <c r="L114" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="M114" s="273"/>
-      <c r="N114" s="205"/>
-      <c r="O114" s="215" t="s">
+      <c r="M114" s="244"/>
+      <c r="N114" s="204"/>
+      <c r="O114" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P114" s="158"/>
-      <c r="Q114" s="221"/>
-      <c r="R114" s="205"/>
+      <c r="P114" s="157"/>
+      <c r="Q114" s="220"/>
+      <c r="R114" s="204"/>
       <c r="S114" s="85"/>
       <c r="T114" s="85"/>
-      <c r="U114" s="205"/>
+      <c r="U114" s="204"/>
       <c r="V114" s="85"/>
       <c r="W114" s="85"/>
     </row>
@@ -17825,22 +18948,22 @@
       </c>
       <c r="H115" s="93"/>
       <c r="I115" s="111"/>
-      <c r="J115" s="256"/>
-      <c r="K115" s="241"/>
-      <c r="L115" s="143" t="s">
+      <c r="J115" s="259"/>
+      <c r="K115" s="271"/>
+      <c r="L115" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="M115" s="273"/>
-      <c r="N115" s="205"/>
-      <c r="O115" s="215" t="s">
+      <c r="M115" s="244"/>
+      <c r="N115" s="204"/>
+      <c r="O115" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P115" s="158"/>
-      <c r="Q115" s="221"/>
-      <c r="R115" s="205"/>
+      <c r="P115" s="157"/>
+      <c r="Q115" s="220"/>
+      <c r="R115" s="204"/>
       <c r="S115" s="85"/>
       <c r="T115" s="85"/>
-      <c r="U115" s="205"/>
+      <c r="U115" s="204"/>
       <c r="V115" s="85"/>
       <c r="W115" s="85"/>
     </row>
@@ -17864,26 +18987,26 @@
       </c>
       <c r="H116" s="93"/>
       <c r="I116" s="111"/>
-      <c r="J116" s="256"/>
-      <c r="K116" s="242"/>
-      <c r="L116" s="143" t="s">
+      <c r="J116" s="259"/>
+      <c r="K116" s="272"/>
+      <c r="L116" s="142" t="s">
         <v>564</v>
       </c>
-      <c r="M116" s="274"/>
-      <c r="N116" s="205"/>
-      <c r="O116" s="215" t="s">
+      <c r="M116" s="245"/>
+      <c r="N116" s="204"/>
+      <c r="O116" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P116" s="158"/>
-      <c r="Q116" s="221"/>
-      <c r="R116" s="205"/>
+      <c r="P116" s="157"/>
+      <c r="Q116" s="220"/>
+      <c r="R116" s="204"/>
       <c r="S116" s="85"/>
       <c r="T116" s="85"/>
-      <c r="U116" s="205"/>
+      <c r="U116" s="204"/>
       <c r="V116" s="85"/>
       <c r="W116" s="85"/>
     </row>
-    <row r="117" spans="1:23" ht="72" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A117" s="68" t="s">
         <v>367</v>
       </c>
@@ -17895,10 +19018,10 @@
       <c r="E117" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F117" s="254" t="s">
+      <c r="F117" s="257" t="s">
         <v>229</v>
       </c>
-      <c r="G117" s="255"/>
+      <c r="G117" s="258"/>
       <c r="H117" s="93"/>
       <c r="I117" s="111"/>
       <c r="J117" s="101" t="s">
@@ -17910,19 +19033,23 @@
       <c r="L117" s="85" t="s">
         <v>565</v>
       </c>
-      <c r="M117" s="151" t="s">
-        <v>614</v>
-      </c>
-      <c r="N117" s="205"/>
-      <c r="O117" s="215" t="s">
-        <v>633</v>
-      </c>
-      <c r="P117" s="158"/>
-      <c r="Q117" s="221"/>
-      <c r="R117" s="205"/>
+      <c r="M117" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N117" s="204"/>
+      <c r="O117" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P117" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q117" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R117" s="204"/>
       <c r="S117" s="85"/>
       <c r="T117" s="85"/>
-      <c r="U117" s="205"/>
+      <c r="U117" s="204"/>
       <c r="V117" s="85"/>
       <c r="W117" s="85"/>
     </row>
@@ -17955,19 +19082,19 @@
       <c r="L118" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M118" s="145" t="s">
+      <c r="M118" s="144" t="s">
         <v>624</v>
       </c>
-      <c r="N118" s="205"/>
-      <c r="O118" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P118" s="158"/>
-      <c r="Q118" s="221"/>
-      <c r="R118" s="205"/>
+      <c r="N118" s="204"/>
+      <c r="O118" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P118" s="157"/>
+      <c r="Q118" s="220"/>
+      <c r="R118" s="204"/>
       <c r="S118" s="85"/>
       <c r="T118" s="85"/>
-      <c r="U118" s="205"/>
+      <c r="U118" s="204"/>
       <c r="V118" s="85"/>
       <c r="W118" s="85"/>
     </row>
@@ -17998,25 +19125,25 @@
       <c r="J119" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="K119" s="135" t="s">
+      <c r="K119" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L119" s="101" t="s">
         <v>556</v>
       </c>
-      <c r="M119" s="145" t="s">
+      <c r="M119" s="144" t="s">
         <v>607</v>
       </c>
-      <c r="N119" s="205"/>
-      <c r="O119" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P119" s="158"/>
-      <c r="Q119" s="221"/>
-      <c r="R119" s="205"/>
+      <c r="N119" s="204"/>
+      <c r="O119" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P119" s="157"/>
+      <c r="Q119" s="220"/>
+      <c r="R119" s="204"/>
       <c r="S119" s="85"/>
       <c r="T119" s="85"/>
-      <c r="U119" s="205"/>
+      <c r="U119" s="204"/>
       <c r="V119" s="85"/>
       <c r="W119" s="85"/>
     </row>
@@ -18041,25 +19168,25 @@
       <c r="H120" s="93"/>
       <c r="I120" s="111"/>
       <c r="J120" s="99"/>
-      <c r="K120" s="245" t="s">
+      <c r="K120" s="248" t="s">
         <v>520</v>
       </c>
       <c r="L120" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M120" s="269" t="s">
+      <c r="M120" s="238" t="s">
         <v>580</v>
       </c>
-      <c r="N120" s="206"/>
-      <c r="O120" s="216" t="s">
+      <c r="N120" s="205"/>
+      <c r="O120" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P120" s="147"/>
-      <c r="Q120" s="224"/>
-      <c r="R120" s="206"/>
+      <c r="P120" s="146"/>
+      <c r="Q120" s="223"/>
+      <c r="R120" s="205"/>
       <c r="S120" s="85"/>
       <c r="T120" s="85"/>
-      <c r="U120" s="206"/>
+      <c r="U120" s="205"/>
       <c r="V120" s="85"/>
       <c r="W120" s="85"/>
     </row>
@@ -18086,21 +19213,21 @@
       <c r="J121" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K121" s="246"/>
+      <c r="K121" s="249"/>
       <c r="L121" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M121" s="270"/>
-      <c r="N121" s="206"/>
-      <c r="O121" s="216" t="s">
+      <c r="M121" s="239"/>
+      <c r="N121" s="205"/>
+      <c r="O121" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P121" s="147"/>
-      <c r="Q121" s="224"/>
-      <c r="R121" s="206"/>
+      <c r="P121" s="146"/>
+      <c r="Q121" s="223"/>
+      <c r="R121" s="205"/>
       <c r="S121" s="85"/>
       <c r="T121" s="85"/>
-      <c r="U121" s="206"/>
+      <c r="U121" s="205"/>
       <c r="V121" s="85"/>
       <c r="W121" s="85"/>
     </row>
@@ -18127,21 +19254,21 @@
       <c r="J122" s="101" t="s">
         <v>376</v>
       </c>
-      <c r="K122" s="247"/>
+      <c r="K122" s="250"/>
       <c r="L122" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M122" s="271"/>
-      <c r="N122" s="206"/>
-      <c r="O122" s="216" t="s">
+      <c r="M122" s="240"/>
+      <c r="N122" s="205"/>
+      <c r="O122" s="215" t="s">
         <v>580</v>
       </c>
-      <c r="P122" s="147"/>
-      <c r="Q122" s="224"/>
-      <c r="R122" s="206"/>
+      <c r="P122" s="146"/>
+      <c r="Q122" s="223"/>
+      <c r="R122" s="205"/>
       <c r="S122" s="85"/>
       <c r="T122" s="85"/>
-      <c r="U122" s="206"/>
+      <c r="U122" s="205"/>
       <c r="V122" s="85"/>
       <c r="W122" s="85"/>
     </row>
@@ -18174,19 +19301,19 @@
       <c r="L123" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M123" s="145" t="s">
+      <c r="M123" s="144" t="s">
         <v>624</v>
       </c>
-      <c r="N123" s="205"/>
-      <c r="O123" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P123" s="158"/>
-      <c r="Q123" s="221"/>
-      <c r="R123" s="205"/>
+      <c r="N123" s="204"/>
+      <c r="O123" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P123" s="157"/>
+      <c r="Q123" s="220"/>
+      <c r="R123" s="204"/>
       <c r="S123" s="85"/>
       <c r="T123" s="85"/>
-      <c r="U123" s="205"/>
+      <c r="U123" s="204"/>
       <c r="V123" s="85"/>
       <c r="W123" s="85"/>
     </row>
@@ -18217,25 +19344,25 @@
       <c r="J124" s="99" t="s">
         <v>384</v>
       </c>
-      <c r="K124" s="135" t="s">
+      <c r="K124" s="134" t="s">
         <v>523</v>
       </c>
       <c r="L124" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M124" s="145" t="s">
+      <c r="M124" s="144" t="s">
         <v>624</v>
       </c>
-      <c r="N124" s="205"/>
-      <c r="O124" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P124" s="158"/>
-      <c r="Q124" s="221"/>
-      <c r="R124" s="205"/>
+      <c r="N124" s="204"/>
+      <c r="O124" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P124" s="157"/>
+      <c r="Q124" s="220"/>
+      <c r="R124" s="204"/>
       <c r="S124" s="85"/>
       <c r="T124" s="85"/>
-      <c r="U124" s="205"/>
+      <c r="U124" s="204"/>
       <c r="V124" s="85"/>
       <c r="W124" s="85"/>
     </row>
@@ -18266,7 +19393,7 @@
       <c r="J125" s="122" t="s">
         <v>388</v>
       </c>
-      <c r="K125" s="135" t="s">
+      <c r="K125" s="134" t="s">
         <v>527</v>
       </c>
       <c r="L125" s="101" t="s">
@@ -18275,16 +19402,16 @@
       <c r="M125" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N125" s="205"/>
+      <c r="N125" s="204"/>
       <c r="O125" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P125" s="100"/>
-      <c r="Q125" s="223"/>
-      <c r="R125" s="205"/>
-      <c r="S125" s="159"/>
+      <c r="Q125" s="222"/>
+      <c r="R125" s="204"/>
+      <c r="S125" s="158"/>
       <c r="T125" s="85"/>
-      <c r="U125" s="205"/>
+      <c r="U125" s="204"/>
       <c r="V125" s="85"/>
       <c r="W125" s="85"/>
     </row>
@@ -18321,19 +19448,19 @@
       <c r="L126" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M126" s="151" t="s">
+      <c r="M126" s="150" t="s">
         <v>611</v>
       </c>
-      <c r="N126" s="205"/>
-      <c r="O126" s="215" t="s">
+      <c r="N126" s="204"/>
+      <c r="O126" s="214" t="s">
         <v>629</v>
       </c>
-      <c r="P126" s="158"/>
-      <c r="Q126" s="221"/>
-      <c r="R126" s="205"/>
+      <c r="P126" s="157"/>
+      <c r="Q126" s="220"/>
+      <c r="R126" s="204"/>
       <c r="S126" s="85"/>
       <c r="T126" s="85"/>
-      <c r="U126" s="205"/>
+      <c r="U126" s="204"/>
       <c r="V126" s="85"/>
       <c r="W126" s="85"/>
     </row>
@@ -18364,25 +19491,25 @@
       <c r="J127" s="99" t="s">
         <v>397</v>
       </c>
-      <c r="K127" s="137" t="s">
+      <c r="K127" s="136" t="s">
         <v>528</v>
       </c>
       <c r="L127" s="85" t="s">
         <v>566</v>
       </c>
-      <c r="M127" s="151" t="s">
+      <c r="M127" s="150" t="s">
         <v>608</v>
       </c>
-      <c r="N127" s="205"/>
-      <c r="O127" s="215" t="s">
+      <c r="N127" s="204"/>
+      <c r="O127" s="214" t="s">
         <v>631</v>
       </c>
-      <c r="P127" s="158"/>
-      <c r="Q127" s="221"/>
-      <c r="R127" s="205"/>
+      <c r="P127" s="157"/>
+      <c r="Q127" s="220"/>
+      <c r="R127" s="204"/>
       <c r="S127" s="85"/>
       <c r="T127" s="85"/>
-      <c r="U127" s="205"/>
+      <c r="U127" s="204"/>
       <c r="V127" s="85"/>
       <c r="W127" s="85"/>
     </row>
@@ -18409,7 +19536,7 @@
       <c r="J128" s="101" t="s">
         <v>230</v>
       </c>
-      <c r="K128" s="135" t="s">
+      <c r="K128" s="134" t="s">
         <v>529</v>
       </c>
       <c r="L128" s="101" t="s">
@@ -18418,16 +19545,16 @@
       <c r="M128" s="100" t="s">
         <v>579</v>
       </c>
-      <c r="N128" s="205"/>
+      <c r="N128" s="204"/>
       <c r="O128" s="111" t="s">
         <v>579</v>
       </c>
       <c r="P128" s="100"/>
-      <c r="Q128" s="223"/>
-      <c r="R128" s="205"/>
-      <c r="S128" s="159"/>
+      <c r="Q128" s="222"/>
+      <c r="R128" s="204"/>
+      <c r="S128" s="158"/>
       <c r="T128" s="85"/>
-      <c r="U128" s="205"/>
+      <c r="U128" s="204"/>
       <c r="V128" s="85"/>
       <c r="W128" s="85"/>
     </row>
@@ -18460,19 +19587,19 @@
       <c r="L129" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M129" s="149" t="s">
+      <c r="M129" s="148" t="s">
         <v>569</v>
       </c>
-      <c r="N129" s="205"/>
-      <c r="O129" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P129" s="158"/>
-      <c r="Q129" s="221"/>
-      <c r="R129" s="205"/>
+      <c r="N129" s="204"/>
+      <c r="O129" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P129" s="157"/>
+      <c r="Q129" s="220"/>
+      <c r="R129" s="204"/>
       <c r="S129" s="85"/>
       <c r="T129" s="85"/>
-      <c r="U129" s="205"/>
+      <c r="U129" s="204"/>
       <c r="V129" s="85"/>
       <c r="W129" s="85"/>
     </row>
@@ -18508,16 +19635,16 @@
       <c r="M130" s="100" t="s">
         <v>612</v>
       </c>
-      <c r="N130" s="205"/>
+      <c r="N130" s="204"/>
       <c r="O130" s="111" t="s">
         <v>612</v>
       </c>
-      <c r="P130" s="158"/>
-      <c r="Q130" s="223"/>
-      <c r="R130" s="205"/>
-      <c r="S130" s="159"/>
+      <c r="P130" s="157"/>
+      <c r="Q130" s="222"/>
+      <c r="R130" s="204"/>
+      <c r="S130" s="158"/>
       <c r="T130" s="85"/>
-      <c r="U130" s="205"/>
+      <c r="U130" s="204"/>
       <c r="V130" s="85"/>
       <c r="W130" s="85"/>
     </row>
@@ -18548,25 +19675,25 @@
       <c r="J131" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="K131" s="137" t="s">
+      <c r="K131" s="136" t="s">
         <v>498</v>
       </c>
       <c r="L131" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M131" s="155" t="s">
+      <c r="M131" s="154" t="s">
         <v>625</v>
       </c>
-      <c r="N131" s="205"/>
-      <c r="O131" s="215" t="s">
+      <c r="N131" s="204"/>
+      <c r="O131" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="P131" s="158"/>
-      <c r="Q131" s="221"/>
-      <c r="R131" s="205"/>
+      <c r="P131" s="157"/>
+      <c r="Q131" s="220"/>
+      <c r="R131" s="204"/>
       <c r="S131" s="85"/>
       <c r="T131" s="85"/>
-      <c r="U131" s="205"/>
+      <c r="U131" s="204"/>
       <c r="V131" s="85"/>
       <c r="W131" s="85"/>
     </row>
@@ -18599,19 +19726,23 @@
       <c r="L132" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M132" s="151" t="s">
-        <v>626</v>
+      <c r="M132" s="153" t="s">
+        <v>573</v>
       </c>
       <c r="N132" s="205"/>
-      <c r="O132" s="215" t="s">
-        <v>631</v>
-      </c>
-      <c r="P132" s="158"/>
-      <c r="Q132" s="221"/>
-      <c r="R132" s="205"/>
+      <c r="O132" s="214" t="s">
+        <v>629</v>
+      </c>
+      <c r="P132" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q132" s="221" t="s">
+        <v>689</v>
+      </c>
+      <c r="R132" s="204"/>
       <c r="S132" s="85"/>
       <c r="T132" s="85"/>
-      <c r="U132" s="205"/>
+      <c r="U132" s="204"/>
       <c r="V132" s="85"/>
       <c r="W132" s="85"/>
     </row>
@@ -18638,25 +19769,25 @@
       <c r="J133" s="99" t="s">
         <v>414</v>
       </c>
-      <c r="K133" s="135" t="s">
+      <c r="K133" s="134" t="s">
         <v>510</v>
       </c>
-      <c r="L133" s="141" t="s">
+      <c r="L133" s="140" t="s">
         <v>602</v>
       </c>
-      <c r="M133" s="145" t="s">
+      <c r="M133" s="144" t="s">
         <v>600</v>
       </c>
-      <c r="N133" s="205"/>
-      <c r="O133" s="215" t="s">
-        <v>659</v>
-      </c>
-      <c r="P133" s="158"/>
-      <c r="Q133" s="221"/>
-      <c r="R133" s="205"/>
+      <c r="N133" s="204"/>
+      <c r="O133" s="214" t="s">
+        <v>658</v>
+      </c>
+      <c r="P133" s="157"/>
+      <c r="Q133" s="220"/>
+      <c r="R133" s="204"/>
       <c r="S133" s="85"/>
       <c r="T133" s="85"/>
-      <c r="U133" s="205"/>
+      <c r="U133" s="204"/>
       <c r="V133" s="85"/>
       <c r="W133" s="85"/>
     </row>
@@ -18686,22 +19817,22 @@
       <c r="K134" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L134" s="153" t="s">
+      <c r="L134" s="152" t="s">
         <v>563</v>
       </c>
-      <c r="M134" s="151" t="s">
+      <c r="M134" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="N134" s="205"/>
-      <c r="O134" s="215" t="s">
-        <v>662</v>
-      </c>
-      <c r="P134" s="158"/>
-      <c r="Q134" s="221"/>
-      <c r="R134" s="205"/>
+      <c r="N134" s="204"/>
+      <c r="O134" s="214" t="s">
+        <v>661</v>
+      </c>
+      <c r="P134" s="157"/>
+      <c r="Q134" s="220"/>
+      <c r="R134" s="204"/>
       <c r="S134" s="85"/>
       <c r="T134" s="85"/>
-      <c r="U134" s="205"/>
+      <c r="U134" s="204"/>
       <c r="V134" s="85"/>
       <c r="W134" s="85"/>
     </row>
@@ -18717,10 +19848,10 @@
       <c r="E135" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F135" s="250" t="s">
+      <c r="F135" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G135" s="251"/>
+      <c r="G135" s="254"/>
       <c r="H135" s="93"/>
       <c r="I135" s="111"/>
       <c r="J135" s="101" t="s">
@@ -18732,31 +19863,33 @@
       <c r="L135" s="101" t="s">
         <v>567</v>
       </c>
-      <c r="M135" s="151" t="s">
-        <v>613</v>
-      </c>
-      <c r="N135" s="205"/>
-      <c r="O135" s="215" t="s">
-        <v>633</v>
-      </c>
-      <c r="P135" s="158"/>
-      <c r="Q135" s="221"/>
-      <c r="R135" s="205"/>
+      <c r="M135" s="284" t="s">
+        <v>573</v>
+      </c>
+      <c r="N135" s="204"/>
+      <c r="O135" s="285" t="s">
+        <v>691</v>
+      </c>
+      <c r="P135" s="157" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q135" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="R135" s="204"/>
       <c r="S135" s="85"/>
       <c r="T135" s="85"/>
-      <c r="U135" s="205"/>
+      <c r="U135" s="204"/>
       <c r="V135" s="85"/>
       <c r="W135" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="V1:W3"/>
-    <mergeCell ref="V4:V6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="M120:M122"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M112:M116"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="L103:L104"/>
+    <mergeCell ref="K112:K116"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="K120:K122"/>
     <mergeCell ref="I1:M5"/>
     <mergeCell ref="F135:G135"/>
@@ -18773,79 +19906,378 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="J90:J91"/>
     <mergeCell ref="M90:M91"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="L103:L104"/>
-    <mergeCell ref="K112:K116"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="V1:W3"/>
+    <mergeCell ref="V4:V6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="M120:M122"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M112:M116"/>
+    <mergeCell ref="S5:T5"/>
   </mergeCells>
-  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119 P53:P54">
-    <cfRule type="cellIs" dxfId="35" priority="24" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P131 P32:P35 P67:P71 P53:P54 P74:P76 P79:P92 P94:P101 P103:P116 P118:P119 P133:P134">
+    <cfRule type="cellIs" dxfId="134" priority="105" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="106" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="107" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="108" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P135 P32:P35 P67:P119 P53:P54">
-    <cfRule type="cellIs" dxfId="31" priority="20" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P37:P51 P56:P58 P60:P65 P123:P131 P32:P35 P67:P71 P53:P54 P74:P76 P79:P92 P94:P101 P103:P116 P118:P119 P133:P134">
+    <cfRule type="cellIs" dxfId="130" priority="101" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="102" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="103" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="104" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P29 P32:P51 P67:P135 P53:P65">
-    <cfRule type="cellIs" dxfId="27" priority="19" operator="equal">
+  <conditionalFormatting sqref="P7:P29 P32:P51 P67:P71 P53:P65 P74:P76 P79:P92 P94:P101 P103:P116 P118:P131 P133:P134">
+    <cfRule type="cellIs" dxfId="126" priority="100" operator="equal">
       <formula>"Allocated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="96" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="97" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="98" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="99" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="92" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="93" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="94" operator="equal">
       <formula>"Underway"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="95" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31">
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="91" operator="equal">
       <formula>"Allocated"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="116" priority="87" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="88" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="89" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="90" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="112" priority="83" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="84" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="85" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="86" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="cellIs" dxfId="108" priority="82" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P72">
+    <cfRule type="cellIs" dxfId="107" priority="78" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="79" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="80" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="81" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P72">
+    <cfRule type="cellIs" dxfId="103" priority="74" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="75" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="76" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="77" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P72">
+    <cfRule type="cellIs" dxfId="99" priority="73" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P73">
+    <cfRule type="cellIs" dxfId="98" priority="69" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="70" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="71" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="72" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P73">
+    <cfRule type="cellIs" dxfId="94" priority="65" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="66" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="67" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="68" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P73">
+    <cfRule type="cellIs" dxfId="90" priority="64" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P77">
+    <cfRule type="cellIs" dxfId="89" priority="60" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="61" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="62" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="63" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P77">
+    <cfRule type="cellIs" dxfId="85" priority="56" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="57" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="58" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="59" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P77">
+    <cfRule type="cellIs" dxfId="81" priority="55" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P78">
+    <cfRule type="cellIs" dxfId="80" priority="51" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="52" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="53" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P78">
+    <cfRule type="cellIs" dxfId="76" priority="47" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="48" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="49" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="50" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P78">
+    <cfRule type="cellIs" dxfId="72" priority="46" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93">
+    <cfRule type="cellIs" dxfId="71" priority="42" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="43" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="45" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93">
+    <cfRule type="cellIs" dxfId="67" priority="38" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="39" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="40" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="41" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93">
+    <cfRule type="cellIs" dxfId="63" priority="37" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P102">
+    <cfRule type="cellIs" dxfId="62" priority="33" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="34" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="35" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="36" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P102">
+    <cfRule type="cellIs" dxfId="58" priority="29" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="31" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="32" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P102">
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P117">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P117">
+    <cfRule type="cellIs" dxfId="45" priority="20" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="21" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="23" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P117">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P132">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P132">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>"On Hold"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+      <formula>"Underway"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P132">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"Allocated"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P135">
     <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
@@ -18859,7 +20291,7 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
+  <conditionalFormatting sqref="P135">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"On Hold"</formula>
     </cfRule>
@@ -18873,7 +20305,7 @@
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52">
+  <conditionalFormatting sqref="P135">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Allocated"</formula>
     </cfRule>
@@ -18885,12 +20317,18 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>P123:P135 P31:P35 P67:P119 P56:P58 P7:P29 P60:P65 P37:P54</xm:sqref>
+          <xm:sqref>P103:P119 P31:P35 P37:P54 P56:P58 P7:P29 P60:P65 P67:P101 P123:P135</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>P102</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -18917,60 +20355,60 @@
     <col min="8" max="8" width="9.109375" style="98" customWidth="1"/>
     <col min="9" max="9" width="53.88671875" customWidth="1"/>
     <col min="10" max="10" width="65.6640625" customWidth="1"/>
-    <col min="11" max="11" width="65.6640625" style="136" customWidth="1"/>
+    <col min="11" max="11" width="65.6640625" style="135" customWidth="1"/>
     <col min="12" max="14" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="257" t="s">
+      <c r="F1" s="260" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="257"/>
+      <c r="G1" s="260"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="248" t="s">
+      <c r="I1" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="261" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="259"/>
+      <c r="G2" s="262"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="280" t="s">
+      <c r="I2" s="275" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
-      <c r="N2" s="281"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="264"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
-      <c r="K3" s="132"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="84"/>
       <c r="M3" s="82"/>
       <c r="N3" s="81"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="262"/>
+      <c r="G4" s="265"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
-      <c r="K4" s="133"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:14" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -18983,7 +20421,7 @@
       <c r="H5" s="94"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
-      <c r="K5" s="133"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -19013,14 +20451,14 @@
       <c r="L6" s="119" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="155" t="s">
         <v>627</v>
       </c>
-      <c r="N6" s="197"/>
+      <c r="N6" s="196"/>
     </row>
     <row r="7" spans="1:14" ht="101.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
-      <c r="B7" s="192" t="s">
+      <c r="A7" s="195"/>
+      <c r="B7" s="191" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -19042,22 +20480,22 @@
       <c r="I7" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="157" t="s">
+      <c r="J7" s="156" t="s">
         <v>437</v>
       </c>
-      <c r="K7" s="139" t="s">
+      <c r="K7" s="138" t="s">
         <v>472</v>
       </c>
-      <c r="L7" s="162" t="s">
+      <c r="L7" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M7" s="149" t="s">
+      <c r="M7" s="148" t="s">
         <v>569</v>
       </c>
       <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="B8" s="195" t="s">
+      <c r="B8" s="194" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -19080,21 +20518,21 @@
         <v>23</v>
       </c>
       <c r="J8" s="100"/>
-      <c r="K8" s="135" t="s">
+      <c r="K8" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L8" s="48" t="s">
         <v>575</v>
       </c>
-      <c r="M8" s="145" t="s">
+      <c r="M8" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="N8" s="146" t="s">
+      <c r="N8" s="145" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="194" t="s">
+      <c r="B9" s="193" t="s">
         <v>418</v>
       </c>
       <c r="C9" s="46"/>
@@ -19108,22 +20546,22 @@
       </c>
       <c r="H9" s="93"/>
       <c r="I9" s="123"/>
-      <c r="J9" s="157" t="s">
+      <c r="J9" s="156" t="s">
         <v>421</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L9" s="160" t="s">
+      <c r="L9" s="159" t="s">
         <v>540</v>
       </c>
-      <c r="M9" s="145" t="s">
+      <c r="M9" s="144" t="s">
         <v>585</v>
       </c>
       <c r="N9" s="85"/>
     </row>
     <row r="10" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="193" t="s">
         <v>422</v>
       </c>
       <c r="C10" s="46"/>
@@ -19137,22 +20575,22 @@
       </c>
       <c r="H10" s="93"/>
       <c r="I10" s="123"/>
-      <c r="J10" s="157" t="s">
+      <c r="J10" s="156" t="s">
         <v>424</v>
       </c>
-      <c r="K10" s="137" t="s">
+      <c r="K10" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L10" s="160" t="s">
+      <c r="L10" s="159" t="s">
         <v>540</v>
       </c>
-      <c r="M10" s="145" t="s">
+      <c r="M10" s="144" t="s">
         <v>586</v>
       </c>
       <c r="N10" s="85"/>
     </row>
     <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B11" s="192" t="s">
+      <c r="B11" s="191" t="s">
         <v>129</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -19176,16 +20614,16 @@
       <c r="K11" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="L11" s="162" t="s">
+      <c r="L11" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M11" s="149" t="s">
+      <c r="M11" s="148" t="s">
         <v>610</v>
       </c>
       <c r="N11" s="85"/>
     </row>
     <row r="12" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="191" t="s">
         <v>144</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -19211,16 +20649,16 @@
       <c r="K12" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="L12" s="162" t="s">
+      <c r="L12" s="161" t="s">
         <v>537</v>
       </c>
-      <c r="M12" s="149" t="s">
+      <c r="M12" s="148" t="s">
         <v>569</v>
       </c>
       <c r="N12" s="85"/>
     </row>
     <row r="13" spans="1:14" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="192" t="s">
         <v>167</v>
       </c>
       <c r="C13" s="69" t="s">
@@ -19241,19 +20679,19 @@
         <v>23</v>
       </c>
       <c r="J13" s="100"/>
-      <c r="K13" s="137" t="s">
+      <c r="K13" s="136" t="s">
         <v>583</v>
       </c>
-      <c r="L13" s="182" t="s">
+      <c r="L13" s="181" t="s">
         <v>544</v>
       </c>
-      <c r="M13" s="151" t="s">
+      <c r="M13" s="150" t="s">
         <v>584</v>
       </c>
       <c r="N13" s="85"/>
     </row>
     <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="191" t="s">
         <v>256</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -19276,19 +20714,19 @@
       <c r="J14" s="105" t="s">
         <v>261</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="134" t="s">
         <v>501</v>
       </c>
-      <c r="L14" s="162" t="s">
+      <c r="L14" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M14" s="151" t="s">
+      <c r="M14" s="150" t="s">
         <v>619</v>
       </c>
       <c r="N14" s="85"/>
     </row>
     <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="191" t="s">
         <v>302</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -19309,19 +20747,19 @@
       <c r="J15" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="136" t="s">
         <v>498</v>
       </c>
-      <c r="L15" s="162" t="s">
+      <c r="L15" s="161" t="s">
         <v>557</v>
       </c>
-      <c r="M15" s="151" t="s">
+      <c r="M15" s="150" t="s">
         <v>592</v>
       </c>
       <c r="N15" s="85"/>
     </row>
     <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="192" t="s">
         <v>291</v>
       </c>
       <c r="C16" s="69" t="s">
@@ -19345,16 +20783,16 @@
       <c r="K16" s="122" t="s">
         <v>503</v>
       </c>
-      <c r="L16" s="162" t="s">
+      <c r="L16" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M16" s="151" t="s">
+      <c r="M16" s="150" t="s">
         <v>619</v>
       </c>
       <c r="N16" s="85"/>
     </row>
     <row r="17" spans="2:14" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="191" t="s">
         <v>370</v>
       </c>
       <c r="C17" s="17" t="s">
@@ -19377,19 +20815,19 @@
       <c r="J17" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="K17" s="135" t="s">
+      <c r="K17" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L17" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="M17" s="145" t="s">
+      <c r="M17" s="144" t="s">
         <v>607</v>
       </c>
       <c r="N17" s="85"/>
     </row>
     <row r="18" spans="2:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="B18" s="192" t="s">
+      <c r="B18" s="191" t="s">
         <v>401</v>
       </c>
       <c r="C18" s="17" t="s">
@@ -19416,13 +20854,13 @@
       <c r="L18" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="148" t="s">
         <v>569</v>
       </c>
       <c r="N18" s="85"/>
     </row>
     <row r="19" spans="2:14" ht="126" x14ac:dyDescent="0.3">
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="191" t="s">
         <v>413</v>
       </c>
       <c r="C19" s="17" t="s">
@@ -19443,13 +20881,13 @@
       <c r="J19" s="99" t="s">
         <v>414</v>
       </c>
-      <c r="K19" s="135" t="s">
+      <c r="K19" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L19" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="M19" s="145" t="s">
+      <c r="M19" s="144" t="s">
         <v>600</v>
       </c>
       <c r="N19" s="85"/>
@@ -19476,13 +20914,13 @@
         <v>23</v>
       </c>
       <c r="J20" s="100"/>
-      <c r="K20" s="135" t="s">
+      <c r="K20" s="134" t="s">
         <v>455</v>
       </c>
-      <c r="L20" s="162" t="s">
+      <c r="L20" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M20" s="173" t="s">
+      <c r="M20" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N20" s="85"/>
@@ -19509,13 +20947,13 @@
         <v>23</v>
       </c>
       <c r="J21" s="100"/>
-      <c r="K21" s="135" t="s">
+      <c r="K21" s="134" t="s">
         <v>460</v>
       </c>
-      <c r="L21" s="162" t="s">
+      <c r="L21" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M21" s="173" t="s">
+      <c r="M21" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N21" s="85"/>
@@ -19542,19 +20980,19 @@
         <v>23</v>
       </c>
       <c r="J22" s="100"/>
-      <c r="K22" s="135" t="s">
+      <c r="K22" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L22" s="162" t="s">
+      <c r="L22" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M22" s="173" t="s">
+      <c r="M22" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N22" s="85"/>
     </row>
     <row r="23" spans="2:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="175" t="s">
         <v>439</v>
       </c>
       <c r="C23" s="125" t="s">
@@ -19575,19 +21013,19 @@
       <c r="J23" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K23" s="135" t="s">
+      <c r="K23" s="134" t="s">
         <v>462</v>
       </c>
-      <c r="L23" s="162" t="s">
+      <c r="L23" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M23" s="173" t="s">
+      <c r="M23" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N23" s="85"/>
     </row>
     <row r="24" spans="2:14" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="162" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -19608,19 +21046,19 @@
         <v>23</v>
       </c>
       <c r="J24" s="100"/>
-      <c r="K24" s="135" t="s">
+      <c r="K24" s="134" t="s">
         <v>463</v>
       </c>
-      <c r="L24" s="162" t="s">
+      <c r="L24" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M24" s="173" t="s">
+      <c r="M24" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N24" s="85"/>
     </row>
     <row r="25" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="162" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -19641,19 +21079,19 @@
         <v>23</v>
       </c>
       <c r="J25" s="100"/>
-      <c r="K25" s="135" t="s">
+      <c r="K25" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L25" s="162" t="s">
+      <c r="L25" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M25" s="173" t="s">
+      <c r="M25" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N25" s="85"/>
     </row>
     <row r="26" spans="2:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="176" t="s">
+      <c r="B26" s="175" t="s">
         <v>443</v>
       </c>
       <c r="C26" s="125" t="s">
@@ -19674,19 +21112,19 @@
       <c r="J26" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K26" s="135" t="s">
+      <c r="K26" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L26" s="162" t="s">
+      <c r="L26" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M26" s="173" t="s">
+      <c r="M26" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N26" s="85"/>
     </row>
     <row r="27" spans="2:14" ht="144" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="175" t="s">
         <v>445</v>
       </c>
       <c r="C27" s="125" t="s">
@@ -19707,19 +21145,19 @@
       <c r="J27" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="K27" s="135" t="s">
+      <c r="K27" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L27" s="162" t="s">
+      <c r="L27" s="161" t="s">
         <v>535</v>
       </c>
-      <c r="M27" s="175" t="s">
+      <c r="M27" s="174" t="s">
         <v>461</v>
       </c>
       <c r="N27" s="85"/>
     </row>
     <row r="28" spans="2:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="162" t="s">
         <v>154</v>
       </c>
       <c r="C28" s="17" t="s">
@@ -19740,19 +21178,19 @@
         <v>23</v>
       </c>
       <c r="J28" s="100"/>
-      <c r="K28" s="135" t="s">
+      <c r="K28" s="134" t="s">
         <v>478</v>
       </c>
-      <c r="L28" s="162" t="s">
+      <c r="L28" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M28" s="173" t="s">
+      <c r="M28" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N28" s="85"/>
     </row>
     <row r="29" spans="2:14" ht="135.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="173" t="s">
         <v>159</v>
       </c>
       <c r="C29" s="67" t="s">
@@ -19773,19 +21211,19 @@
         <v>161</v>
       </c>
       <c r="J29" s="100"/>
-      <c r="K29" s="137" t="s">
+      <c r="K29" s="136" t="s">
         <v>481</v>
       </c>
-      <c r="L29" s="162" t="s">
+      <c r="L29" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M29" s="161" t="s">
+      <c r="M29" s="160" t="s">
         <v>593</v>
       </c>
       <c r="N29" s="85"/>
     </row>
     <row r="30" spans="2:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="163" t="s">
+      <c r="B30" s="162" t="s">
         <v>172</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -19806,19 +21244,19 @@
         <v>23</v>
       </c>
       <c r="J30" s="100"/>
-      <c r="K30" s="135" t="s">
+      <c r="K30" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L30" s="162" t="s">
+      <c r="L30" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M30" s="173" t="s">
+      <c r="M30" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N30" s="85"/>
     </row>
     <row r="31" spans="2:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="162" t="s">
         <v>178</v>
       </c>
       <c r="C31" s="17" t="s">
@@ -19839,19 +21277,19 @@
         <v>23</v>
       </c>
       <c r="J31" s="100"/>
-      <c r="K31" s="135" t="s">
+      <c r="K31" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L31" s="162" t="s">
+      <c r="L31" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M31" s="173" t="s">
+      <c r="M31" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N31" s="85"/>
     </row>
     <row r="32" spans="2:14" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="162" t="s">
         <v>187</v>
       </c>
       <c r="C32" s="17" t="s">
@@ -19876,19 +21314,19 @@
       <c r="J32" s="99" t="s">
         <v>486</v>
       </c>
-      <c r="K32" s="137" t="s">
+      <c r="K32" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L32" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="M32" s="161" t="s">
+      <c r="M32" s="160" t="s">
         <v>587</v>
       </c>
       <c r="N32" s="85"/>
     </row>
     <row r="33" spans="2:14" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="162" t="s">
         <v>199</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -19909,19 +21347,19 @@
         <v>23</v>
       </c>
       <c r="J33" s="100"/>
-      <c r="K33" s="135" t="s">
+      <c r="K33" s="134" t="s">
         <v>461</v>
       </c>
-      <c r="L33" s="162" t="s">
+      <c r="L33" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M33" s="173" t="s">
+      <c r="M33" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N33" s="85"/>
     </row>
     <row r="34" spans="2:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="164" t="s">
+      <c r="B34" s="163" t="s">
         <v>201</v>
       </c>
       <c r="C34" s="69" t="s">
@@ -19942,19 +21380,19 @@
         <v>23</v>
       </c>
       <c r="J34" s="100"/>
-      <c r="K34" s="135" t="s">
+      <c r="K34" s="134" t="s">
         <v>490</v>
       </c>
-      <c r="L34" s="162" t="s">
+      <c r="L34" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M34" s="173" t="s">
+      <c r="M34" s="172" t="s">
         <v>609</v>
       </c>
       <c r="N34" s="85"/>
     </row>
     <row r="35" spans="2:14" ht="165.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="162" t="s">
         <v>204</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -19977,19 +21415,19 @@
         <v>208</v>
       </c>
       <c r="J35" s="100"/>
-      <c r="K35" s="137" t="s">
+      <c r="K35" s="136" t="s">
         <v>451</v>
       </c>
       <c r="L35" s="48" t="s">
         <v>589</v>
       </c>
-      <c r="M35" s="161" t="s">
+      <c r="M35" s="160" t="s">
         <v>588</v>
       </c>
       <c r="N35" s="85"/>
     </row>
     <row r="36" spans="2:14" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="162" t="s">
         <v>211</v>
       </c>
       <c r="C36" s="17" t="s">
@@ -20010,19 +21448,19 @@
         <v>23</v>
       </c>
       <c r="J36" s="100"/>
-      <c r="K36" s="135" t="s">
+      <c r="K36" s="134" t="s">
         <v>461</v>
       </c>
       <c r="L36" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="M36" s="161" t="s">
+      <c r="M36" s="160" t="s">
         <v>590</v>
       </c>
       <c r="N36" s="85"/>
     </row>
     <row r="37" spans="2:14" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="162" t="s">
         <v>227</v>
       </c>
       <c r="C37" s="17" t="s">
@@ -20032,10 +21470,10 @@
       <c r="E37" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="250" t="s">
+      <c r="F37" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="251"/>
+      <c r="G37" s="254"/>
       <c r="H37" s="93"/>
       <c r="I37" s="111"/>
       <c r="J37" s="101" t="s">
@@ -20044,16 +21482,16 @@
       <c r="K37" s="122" t="s">
         <v>492</v>
       </c>
-      <c r="L37" s="162" t="s">
+      <c r="L37" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M37" s="161" t="s">
+      <c r="M37" s="160" t="s">
         <v>617</v>
       </c>
       <c r="N37" s="85"/>
     </row>
     <row r="38" spans="2:14" ht="72" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="162" t="s">
         <v>237</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -20074,19 +21512,19 @@
       <c r="J38" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="K38" s="135" t="s">
+      <c r="K38" s="134" t="s">
         <v>494</v>
       </c>
-      <c r="L38" s="162" t="s">
+      <c r="L38" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M38" s="161" t="s">
+      <c r="M38" s="160" t="s">
         <v>618</v>
       </c>
       <c r="N38" s="85"/>
     </row>
     <row r="39" spans="2:14" ht="54" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="162" t="s">
         <v>255</v>
       </c>
       <c r="C39" s="17" t="s">
@@ -20096,10 +21534,10 @@
       <c r="E39" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F39" s="250" t="s">
+      <c r="F39" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G39" s="251"/>
+      <c r="G39" s="254"/>
       <c r="H39" s="93"/>
       <c r="I39" s="111"/>
       <c r="J39" s="101" t="s">
@@ -20108,16 +21546,16 @@
       <c r="K39" s="122" t="s">
         <v>492</v>
       </c>
-      <c r="L39" s="162" t="s">
+      <c r="L39" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M39" s="161" t="s">
+      <c r="M39" s="160" t="s">
         <v>615</v>
       </c>
       <c r="N39" s="85"/>
     </row>
     <row r="40" spans="2:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="162" t="s">
         <v>252</v>
       </c>
       <c r="C40" s="17" t="s">
@@ -20144,13 +21582,13 @@
       <c r="L40" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="M40" s="161" t="s">
+      <c r="M40" s="160" t="s">
         <v>591</v>
       </c>
       <c r="N40" s="85"/>
     </row>
     <row r="41" spans="2:14" ht="54" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="162" t="s">
         <v>271</v>
       </c>
       <c r="C41" s="17" t="s">
@@ -20160,10 +21598,10 @@
       <c r="E41" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F41" s="250" t="s">
+      <c r="F41" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G41" s="251"/>
+      <c r="G41" s="254"/>
       <c r="H41" s="93"/>
       <c r="I41" s="111"/>
       <c r="J41" s="101" t="s">
@@ -20172,16 +21610,16 @@
       <c r="K41" s="122" t="s">
         <v>492</v>
       </c>
-      <c r="L41" s="162" t="s">
+      <c r="L41" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M41" s="161" t="s">
+      <c r="M41" s="160" t="s">
         <v>616</v>
       </c>
       <c r="N41" s="85"/>
     </row>
     <row r="42" spans="2:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="162" t="s">
         <v>315</v>
       </c>
       <c r="C42" s="17" t="s">
@@ -20205,16 +21643,16 @@
       <c r="K42" s="122" t="s">
         <v>480</v>
       </c>
-      <c r="L42" s="162" t="s">
+      <c r="L42" s="161" t="s">
         <v>559</v>
       </c>
-      <c r="M42" s="161" t="s">
+      <c r="M42" s="160" t="s">
         <v>593</v>
       </c>
       <c r="N42" s="85"/>
     </row>
     <row r="43" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="162" t="s">
         <v>317</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -20238,25 +21676,25 @@
       <c r="K43" s="122" t="s">
         <v>620</v>
       </c>
-      <c r="L43" s="162" t="s">
+      <c r="L43" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M43" s="161" t="s">
+      <c r="M43" s="160" t="s">
         <v>621</v>
       </c>
       <c r="N43" s="85"/>
     </row>
     <row r="44" spans="2:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="172" t="s">
+      <c r="B44" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="C44" s="171" t="s">
+      <c r="C44" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="D44" s="170" t="s">
+      <c r="D44" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="169" t="s">
+      <c r="E44" s="168" t="s">
         <v>324</v>
       </c>
       <c r="F44" s="58" t="s">
@@ -20270,28 +21708,28 @@
       <c r="J44" s="99" t="s">
         <v>594</v>
       </c>
-      <c r="K44" s="137" t="s">
+      <c r="K44" s="136" t="s">
         <v>498</v>
       </c>
-      <c r="L44" s="168" t="s">
+      <c r="L44" s="167" t="s">
         <v>560</v>
       </c>
-      <c r="M44" s="161" t="s">
+      <c r="M44" s="160" t="s">
         <v>595</v>
       </c>
       <c r="N44" s="85"/>
     </row>
     <row r="45" spans="2:14" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="172" t="s">
+      <c r="B45" s="171" t="s">
         <v>326</v>
       </c>
-      <c r="C45" s="171" t="s">
+      <c r="C45" s="170" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="170" t="s">
+      <c r="D45" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="169" t="s">
+      <c r="E45" s="168" t="s">
         <v>324</v>
       </c>
       <c r="F45" s="58" t="s">
@@ -20305,19 +21743,19 @@
       <c r="J45" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="K45" s="137" t="s">
+      <c r="K45" s="136" t="s">
         <v>498</v>
       </c>
-      <c r="L45" s="168" t="s">
+      <c r="L45" s="167" t="s">
         <v>560</v>
       </c>
-      <c r="M45" s="161" t="s">
+      <c r="M45" s="160" t="s">
         <v>596</v>
       </c>
       <c r="N45" s="85"/>
     </row>
     <row r="46" spans="2:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="162" t="s">
         <v>333</v>
       </c>
       <c r="C46" s="17" t="s">
@@ -20338,19 +21776,19 @@
       <c r="J46" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="K46" s="140" t="s">
+      <c r="K46" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="L46" s="162" t="s">
+      <c r="L46" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M46" s="161" t="s">
+      <c r="M46" s="160" t="s">
         <v>623</v>
       </c>
       <c r="N46" s="85"/>
     </row>
     <row r="47" spans="2:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="162" t="s">
         <v>340</v>
       </c>
       <c r="C47" s="17" t="s">
@@ -20371,19 +21809,19 @@
       <c r="J47" s="99" t="s">
         <v>336</v>
       </c>
-      <c r="K47" s="140" t="s">
+      <c r="K47" s="139" t="s">
         <v>514</v>
       </c>
-      <c r="L47" s="162" t="s">
+      <c r="L47" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M47" s="161" t="s">
+      <c r="M47" s="160" t="s">
         <v>623</v>
       </c>
       <c r="N47" s="85"/>
     </row>
     <row r="48" spans="2:14" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="167" t="s">
+      <c r="B48" s="166" t="s">
         <v>362</v>
       </c>
       <c r="C48" s="109" t="s">
@@ -20401,13 +21839,13 @@
       </c>
       <c r="H48" s="93"/>
       <c r="I48" s="111"/>
-      <c r="J48" s="256" t="s">
+      <c r="J48" s="259" t="s">
         <v>517</v>
       </c>
-      <c r="K48" s="240" t="s">
+      <c r="K48" s="270" t="s">
         <v>518</v>
       </c>
-      <c r="L48" s="162" t="s">
+      <c r="L48" s="161" t="s">
         <v>564</v>
       </c>
       <c r="M48" s="277" t="s">
@@ -20416,7 +21854,7 @@
       <c r="N48" s="85"/>
     </row>
     <row r="49" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="165" t="s">
         <v>363</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -20434,16 +21872,16 @@
       </c>
       <c r="H49" s="93"/>
       <c r="I49" s="111"/>
-      <c r="J49" s="256"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="162" t="s">
+      <c r="J49" s="259"/>
+      <c r="K49" s="271"/>
+      <c r="L49" s="161" t="s">
         <v>564</v>
       </c>
       <c r="M49" s="278"/>
       <c r="N49" s="85"/>
     </row>
     <row r="50" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="165" t="s">
         <v>364</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -20461,16 +21899,16 @@
       </c>
       <c r="H50" s="93"/>
       <c r="I50" s="111"/>
-      <c r="J50" s="256"/>
-      <c r="K50" s="241"/>
-      <c r="L50" s="162" t="s">
+      <c r="J50" s="259"/>
+      <c r="K50" s="271"/>
+      <c r="L50" s="161" t="s">
         <v>564</v>
       </c>
       <c r="M50" s="278"/>
       <c r="N50" s="85"/>
     </row>
     <row r="51" spans="2:14" ht="43.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="165" t="s">
         <v>365</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -20488,16 +21926,16 @@
       </c>
       <c r="H51" s="93"/>
       <c r="I51" s="111"/>
-      <c r="J51" s="256"/>
-      <c r="K51" s="241"/>
-      <c r="L51" s="162" t="s">
+      <c r="J51" s="259"/>
+      <c r="K51" s="271"/>
+      <c r="L51" s="161" t="s">
         <v>564</v>
       </c>
       <c r="M51" s="278"/>
       <c r="N51" s="85"/>
     </row>
     <row r="52" spans="2:14" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>366</v>
       </c>
       <c r="C52" s="110" t="s">
@@ -20515,16 +21953,16 @@
       </c>
       <c r="H52" s="93"/>
       <c r="I52" s="111"/>
-      <c r="J52" s="256"/>
-      <c r="K52" s="242"/>
-      <c r="L52" s="162" t="s">
+      <c r="J52" s="259"/>
+      <c r="K52" s="272"/>
+      <c r="L52" s="161" t="s">
         <v>564</v>
       </c>
       <c r="M52" s="279"/>
       <c r="N52" s="85"/>
     </row>
     <row r="53" spans="2:14" ht="78" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="164" t="s">
+      <c r="B53" s="163" t="s">
         <v>367</v>
       </c>
       <c r="C53" s="69" t="s">
@@ -20534,10 +21972,10 @@
       <c r="E53" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F53" s="254" t="s">
+      <c r="F53" s="257" t="s">
         <v>229</v>
       </c>
-      <c r="G53" s="255"/>
+      <c r="G53" s="258"/>
       <c r="H53" s="93"/>
       <c r="I53" s="111"/>
       <c r="J53" s="101" t="s">
@@ -20546,16 +21984,16 @@
       <c r="K53" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="L53" s="162" t="s">
+      <c r="L53" s="161" t="s">
         <v>565</v>
       </c>
-      <c r="M53" s="161" t="s">
+      <c r="M53" s="160" t="s">
         <v>614</v>
       </c>
       <c r="N53" s="85"/>
     </row>
     <row r="54" spans="2:14" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="162" t="s">
         <v>394</v>
       </c>
       <c r="C54" s="17" t="s">
@@ -20578,13 +22016,13 @@
       <c r="J54" s="99" t="s">
         <v>397</v>
       </c>
-      <c r="K54" s="137" t="s">
+      <c r="K54" s="136" t="s">
         <v>528</v>
       </c>
-      <c r="L54" s="162" t="s">
+      <c r="L54" s="161" t="s">
         <v>566</v>
       </c>
-      <c r="M54" s="161" t="s">
+      <c r="M54" s="160" t="s">
         <v>608</v>
       </c>
       <c r="N54" s="85"/>
@@ -20600,10 +22038,10 @@
       <c r="E55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="250" t="s">
+      <c r="F55" s="253" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="251"/>
+      <c r="G55" s="254"/>
       <c r="H55" s="93"/>
       <c r="I55" s="111"/>
       <c r="J55" s="101" t="s">
@@ -20615,483 +22053,478 @@
       <c r="L55" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M55" s="161" t="s">
+      <c r="M55" s="160" t="s">
         <v>613</v>
       </c>
       <c r="N55" s="85"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L56" s="160"/>
+      <c r="L56" s="159"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L57" s="160"/>
+      <c r="L57" s="159"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L58" s="160"/>
+      <c r="L58" s="159"/>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L59" s="160"/>
+      <c r="L59" s="159"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L60" s="160"/>
+      <c r="L60" s="159"/>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L61" s="160"/>
+      <c r="L61" s="159"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L62" s="160"/>
+      <c r="L62" s="159"/>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L63" s="160"/>
+      <c r="L63" s="159"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="L64" s="160"/>
+      <c r="L64" s="159"/>
     </row>
     <row r="65" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L65" s="160"/>
+      <c r="L65" s="159"/>
     </row>
     <row r="66" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L66" s="160"/>
+      <c r="L66" s="159"/>
     </row>
     <row r="67" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L67" s="160"/>
+      <c r="L67" s="159"/>
     </row>
     <row r="68" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L68" s="160"/>
+      <c r="L68" s="159"/>
     </row>
     <row r="69" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L69" s="160"/>
+      <c r="L69" s="159"/>
     </row>
     <row r="70" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L70" s="160"/>
+      <c r="L70" s="159"/>
     </row>
     <row r="71" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L71" s="160"/>
+      <c r="L71" s="159"/>
     </row>
     <row r="72" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L72" s="160"/>
+      <c r="L72" s="159"/>
     </row>
     <row r="73" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L73" s="160"/>
+      <c r="L73" s="159"/>
     </row>
     <row r="74" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L74" s="160"/>
+      <c r="L74" s="159"/>
     </row>
     <row r="75" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L75" s="160"/>
+      <c r="L75" s="159"/>
     </row>
     <row r="76" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L76" s="160"/>
+      <c r="L76" s="159"/>
     </row>
     <row r="77" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L77" s="160"/>
+      <c r="L77" s="159"/>
     </row>
     <row r="78" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L78" s="160"/>
+      <c r="L78" s="159"/>
     </row>
     <row r="79" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L79" s="160"/>
+      <c r="L79" s="159"/>
     </row>
     <row r="80" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L80" s="160"/>
+      <c r="L80" s="159"/>
     </row>
     <row r="81" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L81" s="160"/>
+      <c r="L81" s="159"/>
     </row>
     <row r="82" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L82" s="160"/>
+      <c r="L82" s="159"/>
     </row>
     <row r="83" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L83" s="160"/>
+      <c r="L83" s="159"/>
     </row>
     <row r="84" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L84" s="160"/>
+      <c r="L84" s="159"/>
     </row>
     <row r="85" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L85" s="160"/>
+      <c r="L85" s="159"/>
     </row>
     <row r="86" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L86" s="160"/>
+      <c r="L86" s="159"/>
     </row>
     <row r="87" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L87" s="160"/>
+      <c r="L87" s="159"/>
     </row>
     <row r="88" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L88" s="160"/>
+      <c r="L88" s="159"/>
     </row>
     <row r="89" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L89" s="160"/>
+      <c r="L89" s="159"/>
     </row>
     <row r="90" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L90" s="160"/>
+      <c r="L90" s="159"/>
     </row>
     <row r="91" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L91" s="160"/>
+      <c r="L91" s="159"/>
     </row>
     <row r="92" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L92" s="160"/>
+      <c r="L92" s="159"/>
     </row>
     <row r="93" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L93" s="160"/>
+      <c r="L93" s="159"/>
     </row>
     <row r="94" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L94" s="160"/>
+      <c r="L94" s="159"/>
     </row>
     <row r="95" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L95" s="160"/>
+      <c r="L95" s="159"/>
     </row>
     <row r="96" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L96" s="160"/>
+      <c r="L96" s="159"/>
     </row>
     <row r="97" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L97" s="160"/>
+      <c r="L97" s="159"/>
     </row>
     <row r="98" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L98" s="160"/>
+      <c r="L98" s="159"/>
     </row>
     <row r="99" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L99" s="160"/>
+      <c r="L99" s="159"/>
     </row>
     <row r="100" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L100" s="160"/>
+      <c r="L100" s="159"/>
     </row>
     <row r="101" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L101" s="160"/>
+      <c r="L101" s="159"/>
     </row>
     <row r="102" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L102" s="160"/>
+      <c r="L102" s="159"/>
     </row>
     <row r="103" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L103" s="160"/>
+      <c r="L103" s="159"/>
     </row>
     <row r="104" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L104" s="160"/>
+      <c r="L104" s="159"/>
     </row>
     <row r="105" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L105" s="160"/>
+      <c r="L105" s="159"/>
     </row>
     <row r="106" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L106" s="160"/>
+      <c r="L106" s="159"/>
     </row>
     <row r="107" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L107" s="160"/>
+      <c r="L107" s="159"/>
     </row>
     <row r="108" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L108" s="160"/>
+      <c r="L108" s="159"/>
     </row>
     <row r="109" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L109" s="160"/>
+      <c r="L109" s="159"/>
     </row>
     <row r="110" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L110" s="160"/>
+      <c r="L110" s="159"/>
     </row>
     <row r="111" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L111" s="160"/>
+      <c r="L111" s="159"/>
     </row>
     <row r="112" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L112" s="160"/>
+      <c r="L112" s="159"/>
     </row>
     <row r="113" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L113" s="160"/>
+      <c r="L113" s="159"/>
     </row>
     <row r="114" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L114" s="160"/>
+      <c r="L114" s="159"/>
     </row>
     <row r="115" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L115" s="160"/>
+      <c r="L115" s="159"/>
     </row>
     <row r="116" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L116" s="160"/>
+      <c r="L116" s="159"/>
     </row>
     <row r="117" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L117" s="160"/>
+      <c r="L117" s="159"/>
     </row>
     <row r="118" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L118" s="160"/>
+      <c r="L118" s="159"/>
     </row>
     <row r="119" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L119" s="160"/>
+      <c r="L119" s="159"/>
     </row>
     <row r="120" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L120" s="160"/>
+      <c r="L120" s="159"/>
     </row>
     <row r="121" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L121" s="160"/>
+      <c r="L121" s="159"/>
     </row>
     <row r="122" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L122" s="160"/>
+      <c r="L122" s="159"/>
     </row>
     <row r="123" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L123" s="160"/>
+      <c r="L123" s="159"/>
     </row>
     <row r="124" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L124" s="160"/>
+      <c r="L124" s="159"/>
     </row>
     <row r="125" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L125" s="160"/>
+      <c r="L125" s="159"/>
     </row>
     <row r="126" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L126" s="160"/>
+      <c r="L126" s="159"/>
     </row>
     <row r="127" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L127" s="160"/>
+      <c r="L127" s="159"/>
     </row>
     <row r="128" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L128" s="160"/>
+      <c r="L128" s="159"/>
     </row>
     <row r="129" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L129" s="160"/>
+      <c r="L129" s="159"/>
     </row>
     <row r="130" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L130" s="160"/>
+      <c r="L130" s="159"/>
     </row>
     <row r="131" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L131" s="160"/>
+      <c r="L131" s="159"/>
     </row>
     <row r="132" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L132" s="160"/>
+      <c r="L132" s="159"/>
     </row>
     <row r="133" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L133" s="160"/>
+      <c r="L133" s="159"/>
     </row>
     <row r="134" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L134" s="160"/>
+      <c r="L134" s="159"/>
     </row>
     <row r="135" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L135" s="160"/>
+      <c r="L135" s="159"/>
     </row>
     <row r="136" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L136" s="160"/>
+      <c r="L136" s="159"/>
     </row>
     <row r="137" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L137" s="160"/>
+      <c r="L137" s="159"/>
     </row>
     <row r="138" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L138" s="160"/>
+      <c r="L138" s="159"/>
     </row>
     <row r="139" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L139" s="160"/>
+      <c r="L139" s="159"/>
     </row>
     <row r="140" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L140" s="160"/>
+      <c r="L140" s="159"/>
     </row>
     <row r="141" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L141" s="160"/>
+      <c r="L141" s="159"/>
     </row>
     <row r="142" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L142" s="160"/>
+      <c r="L142" s="159"/>
     </row>
     <row r="143" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L143" s="160"/>
+      <c r="L143" s="159"/>
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L144" s="160"/>
+      <c r="L144" s="159"/>
     </row>
     <row r="145" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L145" s="160"/>
+      <c r="L145" s="159"/>
     </row>
     <row r="146" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L146" s="160"/>
+      <c r="L146" s="159"/>
     </row>
     <row r="147" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L147" s="160"/>
+      <c r="L147" s="159"/>
     </row>
     <row r="148" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L148" s="160"/>
+      <c r="L148" s="159"/>
     </row>
     <row r="149" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L149" s="160"/>
+      <c r="L149" s="159"/>
     </row>
     <row r="150" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L150" s="160"/>
+      <c r="L150" s="159"/>
     </row>
     <row r="151" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L151" s="160"/>
+      <c r="L151" s="159"/>
     </row>
     <row r="152" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L152" s="160"/>
+      <c r="L152" s="159"/>
     </row>
     <row r="153" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L153" s="160"/>
+      <c r="L153" s="159"/>
     </row>
     <row r="154" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L154" s="160"/>
+      <c r="L154" s="159"/>
     </row>
     <row r="155" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L155" s="160"/>
+      <c r="L155" s="159"/>
     </row>
     <row r="156" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L156" s="160"/>
+      <c r="L156" s="159"/>
     </row>
     <row r="157" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L157" s="160"/>
+      <c r="L157" s="159"/>
     </row>
     <row r="158" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L158" s="160"/>
+      <c r="L158" s="159"/>
     </row>
     <row r="159" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L159" s="160"/>
+      <c r="L159" s="159"/>
     </row>
     <row r="160" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L160" s="160"/>
+      <c r="L160" s="159"/>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L161" s="160"/>
+      <c r="L161" s="159"/>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L162" s="160"/>
+      <c r="L162" s="159"/>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L163" s="160"/>
+      <c r="L163" s="159"/>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L164" s="160"/>
+      <c r="L164" s="159"/>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L165" s="160"/>
+      <c r="L165" s="159"/>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L166" s="160"/>
+      <c r="L166" s="159"/>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L167" s="160"/>
+      <c r="L167" s="159"/>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L168" s="160"/>
+      <c r="L168" s="159"/>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L169" s="160"/>
+      <c r="L169" s="159"/>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L170" s="160"/>
+      <c r="L170" s="159"/>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L171" s="160"/>
+      <c r="L171" s="159"/>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L172" s="160"/>
+      <c r="L172" s="159"/>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L173" s="160"/>
+      <c r="L173" s="159"/>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L174" s="160"/>
+      <c r="L174" s="159"/>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L175" s="160"/>
+      <c r="L175" s="159"/>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L176" s="160"/>
+      <c r="L176" s="159"/>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L177" s="160"/>
+      <c r="L177" s="159"/>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L178" s="160"/>
+      <c r="L178" s="159"/>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L179" s="160"/>
+      <c r="L179" s="159"/>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L180" s="160"/>
+      <c r="L180" s="159"/>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L181" s="160"/>
+      <c r="L181" s="159"/>
     </row>
     <row r="182" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L182" s="160"/>
+      <c r="L182" s="159"/>
     </row>
     <row r="183" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L183" s="160"/>
+      <c r="L183" s="159"/>
     </row>
     <row r="184" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L184" s="160"/>
+      <c r="L184" s="159"/>
     </row>
     <row r="185" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L185" s="160"/>
+      <c r="L185" s="159"/>
     </row>
     <row r="186" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L186" s="160"/>
+      <c r="L186" s="159"/>
     </row>
     <row r="187" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L187" s="160"/>
+      <c r="L187" s="159"/>
     </row>
     <row r="188" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L188" s="160"/>
+      <c r="L188" s="159"/>
     </row>
     <row r="189" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L189" s="160"/>
+      <c r="L189" s="159"/>
     </row>
     <row r="190" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L190" s="160"/>
+      <c r="L190" s="159"/>
     </row>
     <row r="191" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L191" s="160"/>
+      <c r="L191" s="159"/>
     </row>
     <row r="192" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L192" s="160"/>
+      <c r="L192" s="159"/>
     </row>
     <row r="193" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L193" s="160"/>
+      <c r="L193" s="159"/>
     </row>
     <row r="194" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L194" s="160"/>
+      <c r="L194" s="159"/>
     </row>
     <row r="195" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L195" s="160"/>
+      <c r="L195" s="159"/>
     </row>
     <row r="196" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L196" s="160"/>
+      <c r="L196" s="159"/>
     </row>
     <row r="197" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L197" s="160"/>
+      <c r="L197" s="159"/>
     </row>
     <row r="198" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L198" s="160"/>
+      <c r="L198" s="159"/>
     </row>
     <row r="199" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L199" s="160"/>
+      <c r="L199" s="159"/>
     </row>
     <row r="200" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L200" s="160"/>
+      <c r="L200" s="159"/>
     </row>
     <row r="201" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L201" s="160"/>
+      <c r="L201" s="159"/>
     </row>
     <row r="202" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L202" s="160"/>
+      <c r="L202" s="159"/>
     </row>
     <row r="203" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L203" s="160"/>
+      <c r="L203" s="159"/>
     </row>
     <row r="204" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L204" s="160"/>
+      <c r="L204" s="159"/>
     </row>
     <row r="205" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L205" s="160"/>
+      <c r="L205" s="159"/>
     </row>
     <row r="206" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L206" s="160"/>
+      <c r="L206" s="159"/>
     </row>
     <row r="207" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L207" s="160"/>
+      <c r="L207" s="159"/>
     </row>
     <row r="208" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L208" s="160"/>
+      <c r="L208" s="159"/>
     </row>
     <row r="209" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L209" s="160"/>
+      <c r="L209" s="159"/>
     </row>
     <row r="210" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L210" s="160"/>
+      <c r="L210" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="F2:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="M48:M52"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F37:G37"/>
@@ -21100,6 +22533,11 @@
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="J48:J52"/>
     <mergeCell ref="K48:K52"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="F2:G3"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21129,52 +22567,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="257" t="s">
+      <c r="F1" s="260" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="257"/>
+      <c r="G1" s="260"/>
       <c r="H1" s="89"/>
-      <c r="I1" s="248" t="s">
+      <c r="I1" s="251" t="s">
         <v>538</v>
       </c>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F2" s="258" t="s">
+      <c r="F2" s="261" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="259"/>
+      <c r="G2" s="262"/>
       <c r="H2" s="90"/>
-      <c r="I2" s="280" t="s">
+      <c r="I2" s="275" t="s">
         <v>434</v>
       </c>
-      <c r="J2" s="281"/>
-      <c r="K2" s="281"/>
-      <c r="L2" s="281"/>
-      <c r="M2" s="281"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F3" s="260"/>
-      <c r="G3" s="261"/>
+      <c r="F3" s="263"/>
+      <c r="G3" s="264"/>
       <c r="H3" s="90"/>
       <c r="I3" s="82"/>
       <c r="J3" s="82"/>
-      <c r="K3" s="132"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="84"/>
       <c r="M3" s="82"/>
     </row>
     <row r="4" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F4" s="262" t="s">
+      <c r="F4" s="265" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="262"/>
+      <c r="G4" s="265"/>
       <c r="H4" s="94"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
-      <c r="K4" s="133"/>
+      <c r="K4" s="132"/>
       <c r="L4" s="92"/>
     </row>
     <row r="5" spans="1:13" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21187,7 +22625,7 @@
       <c r="H5" s="94"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
-      <c r="K5" s="133"/>
+      <c r="K5" s="132"/>
       <c r="L5" s="92"/>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -21217,15 +22655,15 @@
       <c r="L6" s="119" t="s">
         <v>530</v>
       </c>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="155" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="187.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="191" t="s">
-        <v>656</v>
-      </c>
-      <c r="B7" s="190" t="s">
+      <c r="A7" s="190" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" s="189" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="17" t="s">
@@ -21247,20 +22685,20 @@
       </c>
       <c r="J7" s="100"/>
       <c r="K7" s="122" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="L7" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="M7" s="149" t="s">
+      <c r="M7" s="148" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
-        <v>654</v>
-      </c>
-      <c r="B8" s="190" t="s">
+      <c r="A8" s="188" t="s">
+        <v>653</v>
+      </c>
+      <c r="B8" s="189" t="s">
         <v>86</v>
       </c>
       <c r="C8" s="17" t="s">
@@ -21281,21 +22719,21 @@
         <v>90</v>
       </c>
       <c r="J8" s="100"/>
-      <c r="K8" s="139" t="s">
+      <c r="K8" s="138" t="s">
         <v>487</v>
       </c>
-      <c r="L8" s="162" t="s">
+      <c r="L8" s="161" t="s">
         <v>531</v>
       </c>
-      <c r="M8" s="149" t="s">
+      <c r="M8" s="148" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="189" t="s">
-        <v>653</v>
-      </c>
-      <c r="B9" s="190" t="s">
+      <c r="A9" s="188" t="s">
+        <v>652</v>
+      </c>
+      <c r="B9" s="189" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -21321,18 +22759,18 @@
       <c r="K9" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L9" s="162" t="s">
+      <c r="L9" s="161" t="s">
         <v>536</v>
       </c>
-      <c r="M9" s="151" t="s">
+      <c r="M9" s="150" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="189" t="s">
-        <v>652</v>
-      </c>
-      <c r="B10" s="190" t="s">
+      <c r="A10" s="188" t="s">
+        <v>651</v>
+      </c>
+      <c r="B10" s="189" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="17" t="s">
@@ -21353,21 +22791,21 @@
         <v>23</v>
       </c>
       <c r="J10" s="100"/>
-      <c r="K10" s="135" t="s">
+      <c r="K10" s="134" t="s">
         <v>485</v>
       </c>
-      <c r="L10" s="162" t="s">
+      <c r="L10" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M10" s="151" t="s">
-        <v>651</v>
+      <c r="M10" s="150" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="189" t="s">
-        <v>650</v>
-      </c>
-      <c r="B11" s="190" t="s">
+      <c r="A11" s="188" t="s">
+        <v>649</v>
+      </c>
+      <c r="B11" s="189" t="s">
         <v>282</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -21390,21 +22828,21 @@
       <c r="J11" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="K11" s="135" t="s">
+      <c r="K11" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L11" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="M11" s="145" t="s">
+      <c r="M11" s="144" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="137.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="189" t="s">
-        <v>649</v>
-      </c>
-      <c r="B12" s="190" t="s">
+      <c r="A12" s="188" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="189" t="s">
         <v>350</v>
       </c>
       <c r="C12" s="17" t="s">
@@ -21425,21 +22863,21 @@
       <c r="J12" s="99" t="s">
         <v>509</v>
       </c>
-      <c r="K12" s="135" t="s">
+      <c r="K12" s="134" t="s">
         <v>510</v>
       </c>
-      <c r="L12" s="162" t="s">
+      <c r="L12" s="161" t="s">
         <v>555</v>
       </c>
-      <c r="M12" s="145" t="s">
+      <c r="M12" s="144" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179" t="s">
-        <v>648</v>
-      </c>
-      <c r="B13" s="163" t="s">
+      <c r="A13" s="178" t="s">
+        <v>647</v>
+      </c>
+      <c r="B13" s="162" t="s">
         <v>357</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -21460,21 +22898,21 @@
       <c r="J13" s="99" t="s">
         <v>516</v>
       </c>
-      <c r="K13" s="135" t="s">
+      <c r="K13" s="134" t="s">
         <v>510</v>
       </c>
       <c r="L13" s="48" t="s">
         <v>562</v>
       </c>
-      <c r="M13" s="149" t="s">
-        <v>647</v>
+      <c r="M13" s="148" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="189" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" s="163" t="s">
+      <c r="A14" s="188" t="s">
+        <v>645</v>
+      </c>
+      <c r="B14" s="162" t="s">
         <v>380</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -21497,21 +22935,21 @@
       <c r="J14" s="99" t="s">
         <v>384</v>
       </c>
-      <c r="K14" s="135" t="s">
+      <c r="K14" s="134" t="s">
         <v>523</v>
       </c>
       <c r="L14" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M14" s="145" t="s">
+      <c r="M14" s="144" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="188" t="s">
+      <c r="A15" s="187" t="s">
         <v>451</v>
       </c>
-      <c r="B15" s="187" t="s">
+      <c r="B15" s="186" t="s">
         <v>429</v>
       </c>
       <c r="C15" s="46"/>
@@ -21524,25 +22962,25 @@
         <v>431</v>
       </c>
       <c r="H15" s="95"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157" t="s">
+      <c r="I15" s="156"/>
+      <c r="J15" s="156" t="s">
         <v>432</v>
       </c>
-      <c r="K15" s="137" t="s">
+      <c r="K15" s="136" t="s">
         <v>451</v>
       </c>
-      <c r="L15" s="186" t="s">
+      <c r="L15" s="185" t="s">
         <v>570</v>
       </c>
-      <c r="M15" s="149" t="s">
+      <c r="M15" s="148" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="185" t="s">
-        <v>645</v>
-      </c>
-      <c r="B16" s="184" t="s">
+      <c r="A16" s="184" t="s">
+        <v>644</v>
+      </c>
+      <c r="B16" s="183" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="17" t="s">
@@ -21565,21 +23003,21 @@
         <v>64</v>
       </c>
       <c r="J16" s="100"/>
-      <c r="K16" s="135" t="s">
+      <c r="K16" s="134" t="s">
         <v>455</v>
       </c>
       <c r="L16" s="48" t="s">
         <v>572</v>
       </c>
-      <c r="M16" s="145" t="s">
+      <c r="M16" s="144" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17" s="178" t="s">
-        <v>644</v>
-      </c>
-      <c r="B17" s="163" t="s">
+      <c r="A17" s="177" t="s">
+        <v>643</v>
+      </c>
+      <c r="B17" s="162" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -21602,21 +23040,21 @@
         <v>23</v>
       </c>
       <c r="J17" s="100"/>
-      <c r="K17" s="139" t="s">
+      <c r="K17" s="138" t="s">
         <v>473</v>
       </c>
-      <c r="L17" s="162" t="s">
+      <c r="L17" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M17" s="149" t="s">
+      <c r="M17" s="148" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="183" t="s">
-        <v>643</v>
-      </c>
-      <c r="B18" s="176" t="s">
+      <c r="A18" s="182" t="s">
+        <v>642</v>
+      </c>
+      <c r="B18" s="175" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="128" t="s">
@@ -21639,19 +23077,19 @@
         <v>23</v>
       </c>
       <c r="J18" s="100"/>
-      <c r="K18" s="135" t="s">
+      <c r="K18" s="134" t="s">
         <v>474</v>
       </c>
-      <c r="L18" s="162" t="s">
+      <c r="L18" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M18" s="149" t="s">
+      <c r="M18" s="148" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="178" t="s">
-        <v>642</v>
+      <c r="A19" s="177" t="s">
+        <v>641</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>174</v>
@@ -21674,30 +23112,30 @@
         <v>23</v>
       </c>
       <c r="J19" s="100"/>
-      <c r="K19" s="135" t="s">
+      <c r="K19" s="134" t="s">
         <v>510</v>
       </c>
-      <c r="L19" s="182" t="s">
+      <c r="L19" s="181" t="s">
         <v>601</v>
       </c>
-      <c r="M19" s="145" t="s">
+      <c r="M19" s="144" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="179" t="s">
-        <v>641</v>
-      </c>
-      <c r="B20" s="181" t="s">
+      <c r="A20" s="178" t="s">
+        <v>640</v>
+      </c>
+      <c r="B20" s="180" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="171" t="s">
+      <c r="C20" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="170" t="s">
+      <c r="D20" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="169" t="s">
+      <c r="E20" s="168" t="s">
         <v>181</v>
       </c>
       <c r="F20" s="29" t="s">
@@ -21711,19 +23149,19 @@
         <v>23</v>
       </c>
       <c r="J20" s="100"/>
-      <c r="K20" s="135" t="s">
+      <c r="K20" s="134" t="s">
         <v>484</v>
       </c>
-      <c r="L20" s="162" t="s">
+      <c r="L20" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M20" s="151" t="s">
+      <c r="M20" s="150" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="178" t="s">
-        <v>635</v>
+      <c r="A21" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>191</v>
@@ -21749,16 +23187,16 @@
       <c r="K21" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L21" s="177" t="s">
+      <c r="L21" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M21" s="151" t="s">
+      <c r="M21" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A22" s="179" t="s">
-        <v>641</v>
+      <c r="A22" s="178" t="s">
+        <v>640</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>221</v>
@@ -21786,16 +23224,16 @@
       <c r="K22" s="122" t="s">
         <v>491</v>
       </c>
-      <c r="L22" s="162" t="s">
+      <c r="L22" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M22" s="151" t="s">
+      <c r="M22" s="150" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="178" t="s">
-        <v>635</v>
+      <c r="A23" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>225</v>
@@ -21821,16 +23259,16 @@
       <c r="K23" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L23" s="177" t="s">
+      <c r="L23" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M23" s="151" t="s">
+      <c r="M23" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="178" t="s">
-        <v>635</v>
+      <c r="A24" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>272</v>
@@ -21856,16 +23294,16 @@
       <c r="K24" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L24" s="177" t="s">
+      <c r="L24" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M24" s="151" t="s">
+      <c r="M24" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="178" t="s">
-        <v>635</v>
+      <c r="A25" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>274</v>
@@ -21891,16 +23329,16 @@
       <c r="K25" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L25" s="177" t="s">
+      <c r="L25" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M25" s="151" t="s">
+      <c r="M25" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="178" t="s">
-        <v>640</v>
+      <c r="A26" s="177" t="s">
+        <v>639</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>279</v>
@@ -21923,19 +23361,19 @@
       <c r="J26" s="105" t="s">
         <v>500</v>
       </c>
-      <c r="K26" s="135" t="s">
+      <c r="K26" s="134" t="s">
         <v>501</v>
       </c>
-      <c r="L26" s="162" t="s">
+      <c r="L26" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M26" s="151" t="s">
+      <c r="M26" s="150" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="178" t="s">
-        <v>635</v>
+      <c r="A27" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>297</v>
@@ -21961,16 +23399,16 @@
       <c r="K27" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="L27" s="162" t="s">
+      <c r="L27" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M27" s="151" t="s">
+      <c r="M27" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
-        <v>635</v>
+      <c r="A28" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>299</v>
@@ -21996,16 +23434,16 @@
       <c r="K28" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="L28" s="162" t="s">
+      <c r="L28" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M28" s="151" t="s">
+      <c r="M28" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
-        <v>635</v>
+      <c r="A29" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>301</v>
@@ -22031,16 +23469,16 @@
       <c r="K29" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="L29" s="162" t="s">
+      <c r="L29" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M29" s="151" t="s">
+      <c r="M29" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="178" t="s">
-        <v>639</v>
+      <c r="A30" s="177" t="s">
+        <v>638</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>320</v>
@@ -22066,16 +23504,16 @@
       <c r="K30" s="122" t="s">
         <v>507</v>
       </c>
-      <c r="L30" s="162" t="s">
+      <c r="L30" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M30" s="151" t="s">
+      <c r="M30" s="150" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="178" t="s">
-        <v>635</v>
+      <c r="A31" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>327</v>
@@ -22101,16 +23539,16 @@
       <c r="K31" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="L31" s="162" t="s">
+      <c r="L31" s="161" t="s">
         <v>567</v>
       </c>
-      <c r="M31" s="151" t="s">
+      <c r="M31" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="178" t="s">
-        <v>635</v>
+      <c r="A32" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>353</v>
@@ -22136,16 +23574,16 @@
       <c r="K32" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L32" s="282" t="s">
+      <c r="L32" s="280" t="s">
         <v>563</v>
       </c>
-      <c r="M32" s="151" t="s">
+      <c r="M32" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="178" t="s">
-        <v>635</v>
+      <c r="A33" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>355</v>
@@ -22171,14 +23609,14 @@
       <c r="K33" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L33" s="283"/>
-      <c r="M33" s="151" t="s">
+      <c r="L33" s="281"/>
+      <c r="M33" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="178" t="s">
-        <v>635</v>
+      <c r="A34" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>360</v>
@@ -22204,16 +23642,16 @@
       <c r="K34" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L34" s="177" t="s">
+      <c r="L34" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M34" s="151" t="s">
+      <c r="M34" s="150" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="180" t="s">
-        <v>638</v>
+      <c r="A35" s="179" t="s">
+        <v>637</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>368</v>
@@ -22242,13 +23680,13 @@
       <c r="L35" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M35" s="145" t="s">
+      <c r="M35" s="144" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="180" t="s">
-        <v>638</v>
+      <c r="A36" s="179" t="s">
+        <v>637</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>378</v>
@@ -22277,13 +23715,13 @@
       <c r="L36" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M36" s="145" t="s">
+      <c r="M36" s="144" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A37" s="179" t="s">
-        <v>637</v>
+      <c r="A37" s="178" t="s">
+        <v>636</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>389</v>
@@ -22314,13 +23752,13 @@
       <c r="L37" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M37" s="151" t="s">
+      <c r="M37" s="150" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="179" t="s">
-        <v>636</v>
+      <c r="A38" s="178" t="s">
+        <v>635</v>
       </c>
       <c r="B38" s="64" t="s">
         <v>410</v>
@@ -22349,13 +23787,13 @@
       <c r="L38" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="M38" s="151" t="s">
+      <c r="M38" s="150" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="178" t="s">
-        <v>635</v>
+      <c r="A39" s="177" t="s">
+        <v>634</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>415</v>
@@ -22381,10 +23819,10 @@
       <c r="K39" s="122" t="s">
         <v>470</v>
       </c>
-      <c r="L39" s="177" t="s">
+      <c r="L39" s="176" t="s">
         <v>563</v>
       </c>
-      <c r="M39" s="151" t="s">
+      <c r="M39" s="150" t="s">
         <v>604</v>
       </c>
     </row>
@@ -22414,154 +23852,154 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D1" s="284" t="s">
+      <c r="D1" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
     </row>
     <row r="2" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
+      <c r="D2" s="282"/>
+      <c r="E2" s="282"/>
+      <c r="F2" s="282"/>
+      <c r="G2" s="282"/>
     </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="284"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
     </row>
     <row r="4" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
     </row>
     <row r="5" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
+      <c r="D5" s="282"/>
+      <c r="E5" s="282"/>
+      <c r="F5" s="282"/>
+      <c r="G5" s="282"/>
     </row>
     <row r="6" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
     </row>
     <row r="7" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
     </row>
     <row r="8" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
     </row>
     <row r="12" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="284" t="s">
+      <c r="D12" s="282" t="s">
+        <v>656</v>
+      </c>
+      <c r="E12" s="282"/>
+      <c r="F12" s="282"/>
+      <c r="G12" s="282"/>
+    </row>
+    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D13" s="282"/>
+      <c r="E13" s="282"/>
+      <c r="F13" s="282"/>
+      <c r="G13" s="282"/>
+    </row>
+    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D14" s="282"/>
+      <c r="E14" s="282"/>
+      <c r="F14" s="282"/>
+      <c r="G14" s="282"/>
+    </row>
+    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D15" s="282"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
+    </row>
+    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D16" s="282"/>
+      <c r="E16" s="282"/>
+      <c r="F16" s="282"/>
+      <c r="G16" s="282"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" s="282"/>
+      <c r="E17" s="282"/>
+      <c r="F17" s="282"/>
+      <c r="G17" s="282"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="282"/>
+      <c r="E18" s="282"/>
+      <c r="F18" s="282"/>
+      <c r="G18" s="282"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="282" t="s">
         <v>657</v>
       </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
-    </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="284"/>
-      <c r="E13" s="284"/>
-      <c r="F13" s="284"/>
-      <c r="G13" s="284"/>
-    </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="284"/>
-      <c r="E14" s="284"/>
-      <c r="F14" s="284"/>
-      <c r="G14" s="284"/>
-    </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="284"/>
-      <c r="E15" s="284"/>
-      <c r="F15" s="284"/>
-      <c r="G15" s="284"/>
-    </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="284"/>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" s="284"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="284"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="284"/>
-      <c r="E18" s="284"/>
-      <c r="F18" s="284"/>
-      <c r="G18" s="284"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="284"/>
-      <c r="E19" s="284"/>
-      <c r="F19" s="284"/>
-      <c r="G19" s="284"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D24" s="284" t="s">
-        <v>658</v>
-      </c>
-      <c r="E24" s="284"/>
-      <c r="F24" s="284"/>
-      <c r="G24" s="284"/>
+      <c r="E24" s="282"/>
+      <c r="F24" s="282"/>
+      <c r="G24" s="282"/>
     </row>
     <row r="25" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D25" s="284"/>
-      <c r="E25" s="284"/>
-      <c r="F25" s="284"/>
-      <c r="G25" s="284"/>
+      <c r="D25" s="282"/>
+      <c r="E25" s="282"/>
+      <c r="F25" s="282"/>
+      <c r="G25" s="282"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" s="284"/>
-      <c r="E26" s="284"/>
-      <c r="F26" s="284"/>
-      <c r="G26" s="284"/>
+      <c r="D26" s="282"/>
+      <c r="E26" s="282"/>
+      <c r="F26" s="282"/>
+      <c r="G26" s="282"/>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D27" s="284"/>
-      <c r="E27" s="284"/>
-      <c r="F27" s="284"/>
-      <c r="G27" s="284"/>
+      <c r="D27" s="282"/>
+      <c r="E27" s="282"/>
+      <c r="F27" s="282"/>
+      <c r="G27" s="282"/>
     </row>
     <row r="28" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D28" s="284"/>
-      <c r="E28" s="284"/>
-      <c r="F28" s="284"/>
-      <c r="G28" s="284"/>
+      <c r="D28" s="282"/>
+      <c r="E28" s="282"/>
+      <c r="F28" s="282"/>
+      <c r="G28" s="282"/>
     </row>
     <row r="29" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
+      <c r="D29" s="282"/>
+      <c r="E29" s="282"/>
+      <c r="F29" s="282"/>
+      <c r="G29" s="282"/>
     </row>
     <row r="30" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D30" s="284"/>
-      <c r="E30" s="284"/>
-      <c r="F30" s="284"/>
-      <c r="G30" s="284"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="282"/>
+      <c r="F30" s="282"/>
+      <c r="G30" s="282"/>
     </row>
     <row r="31" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D31" s="284"/>
-      <c r="E31" s="284"/>
-      <c r="F31" s="284"/>
-      <c r="G31" s="284"/>
+      <c r="D31" s="282"/>
+      <c r="E31" s="282"/>
+      <c r="F31" s="282"/>
+      <c r="G31" s="282"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -22589,32 +24027,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
